--- a/results/final_results/metrics/all_metrics_by_strat.xlsx
+++ b/results/final_results/metrics/all_metrics_by_strat.xlsx
@@ -567,76 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.061178901566156</v>
+        <v>2.492087951848628</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82334221379167</v>
+        <v>2.492087951848628</v>
       </c>
       <c r="D2" t="n">
-        <v>2.924212086940387</v>
+        <v>2.492087951848628</v>
       </c>
       <c r="E2" t="n">
-        <v>2.504747943975057</v>
+        <v>2.492087951848628</v>
       </c>
       <c r="F2" t="n">
-        <v>1.888377631694168</v>
+        <v>3.146294190546269</v>
       </c>
       <c r="G2" t="n">
-        <v>2.032095552961039</v>
+        <v>3.146294190546269</v>
       </c>
       <c r="H2" t="n">
-        <v>1.787542246203888</v>
+        <v>3.146294190546269</v>
       </c>
       <c r="I2" t="n">
-        <v>1.259161126550745</v>
+        <v>3.146294190546269</v>
       </c>
       <c r="J2" t="n">
-        <v>1.417593742320825</v>
+        <v>2.608486965426043</v>
       </c>
       <c r="K2" t="n">
-        <v>2.429525908024328</v>
+        <v>2.608486965426043</v>
       </c>
       <c r="L2" t="n">
-        <v>1.698822467259674</v>
+        <v>2.608486965426043</v>
       </c>
       <c r="M2" t="n">
-        <v>1.646165452559609</v>
+        <v>2.608486965426043</v>
       </c>
       <c r="N2" t="n">
-        <v>2.238048955574774</v>
+        <v>4.093838582178354</v>
       </c>
       <c r="O2" t="n">
-        <v>1.476408831168503</v>
+        <v>4.093838582178354</v>
       </c>
       <c r="P2" t="n">
-        <v>1.683181110795882</v>
+        <v>4.093838582178354</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.212863786910388</v>
+        <v>4.093838582178354</v>
       </c>
       <c r="R2" t="n">
-        <v>1.410638390910292</v>
+        <v>2.769233054757132</v>
       </c>
       <c r="S2" t="n">
-        <v>2.067675760473938</v>
+        <v>2.769233054757132</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402520515108208</v>
+        <v>2.769233054757132</v>
       </c>
       <c r="U2" t="n">
-        <v>1.561801680626045</v>
+        <v>2.769233054757132</v>
       </c>
       <c r="V2" t="n">
-        <v>2.036452820393287</v>
+        <v>3.957493580185496</v>
       </c>
       <c r="W2" t="n">
-        <v>1.716675828919638</v>
+        <v>3.957493580185496</v>
       </c>
       <c r="X2" t="n">
-        <v>2.170331355664562</v>
+        <v>3.957493580185496</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.750510557344534</v>
+        <v>3.957493580185496</v>
       </c>
     </row>
     <row r="3">
@@ -646,76 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05025795296319169</v>
+        <v>0.0812915854115337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07290245429817044</v>
+        <v>0.0812915854115337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09712068889725312</v>
+        <v>0.0812915854115337</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08874427423483544</v>
+        <v>0.0812915854115337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07456026650848746</v>
+        <v>0.09295871421221302</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07810369491517077</v>
+        <v>0.09295871421221302</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07197462611068306</v>
+        <v>0.09295871421221302</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05680879953402451</v>
+        <v>0.09295871421221302</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06167621947092417</v>
+        <v>0.08350974405608635</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08714395871911851</v>
+        <v>0.08350974405608635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06962650750091548</v>
+        <v>0.08350974405608635</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06819858826982617</v>
+        <v>0.08350974405608635</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08291778293141183</v>
+        <v>0.1071088531051336</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0634077472028145</v>
+        <v>0.1071088531051336</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06920508645662427</v>
+        <v>0.1071088531051336</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08234466444640498</v>
+        <v>0.1071088531051336</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06146886238268912</v>
+        <v>0.08646517929120412</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07895673633374756</v>
+        <v>0.08646517929120412</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06122614091490397</v>
+        <v>0.08646517929120412</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06585468972981179</v>
+        <v>0.08646517929120412</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07820866103016511</v>
+        <v>0.1052331054747297</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07010475241083092</v>
+        <v>0.1052331054747297</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08136721142503966</v>
+        <v>0.1052331054747297</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09375835247543862</v>
+        <v>0.1052331054747297</v>
       </c>
     </row>
     <row r="4">
@@ -725,76 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2057140052586332</v>
+        <v>0.2150579431503619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2189005934687788</v>
+        <v>0.2150579431503619</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1958893912892033</v>
+        <v>0.2150579431503619</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1942232575497569</v>
+        <v>0.2150579431503619</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2004834154055149</v>
+        <v>0.2084498214582717</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2032589035064503</v>
+        <v>0.2084498214582717</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1938603065525396</v>
+        <v>0.2084498214582717</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1817916947730303</v>
+        <v>0.2084498214582717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.190615706911966</v>
+        <v>0.2007413104580969</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1901077525752783</v>
+        <v>0.2007413104580969</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1791459139811063</v>
+        <v>0.2007413104580969</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1669601798454778</v>
+        <v>0.2007413104580969</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1836308610368612</v>
+        <v>0.1969015060166246</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1851402546473044</v>
+        <v>0.1969015060166246</v>
       </c>
       <c r="P4" t="n">
-        <v>0.180079187442362</v>
+        <v>0.1969015060166246</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1774343740270617</v>
+        <v>0.1969015060166246</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1864796552316213</v>
+        <v>0.1986420459004891</v>
       </c>
       <c r="S4" t="n">
-        <v>0.190664705329183</v>
+        <v>0.1986420459004891</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1764341849494738</v>
+        <v>0.1986420459004891</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1683549508026973</v>
+        <v>0.1986420459004891</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1796355746314554</v>
+        <v>0.1919611883468353</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1828691665071634</v>
+        <v>0.1919611883468353</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1750459859746981</v>
+        <v>0.1919611883468353</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1751948960758956</v>
+        <v>0.1919611883468353</v>
       </c>
     </row>
     <row r="5">
@@ -804,76 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2443098266450311</v>
+        <v>0.3779985255168981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333039089309588</v>
+        <v>0.3779985255168981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4957935100929892</v>
+        <v>0.3779985255168981</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4569188847638423</v>
+        <v>0.3779985255168981</v>
       </c>
       <c r="F5" t="n">
-        <v>0.371902415756812</v>
+        <v>0.4459524770129001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3842571890716325</v>
+        <v>0.4459524770129001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3712705679188466</v>
+        <v>0.4459524770129001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3124939211604313</v>
+        <v>0.4459524770129001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3235631547373414</v>
+        <v>0.4160067694363206</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4583924513263157</v>
+        <v>0.4160067694363206</v>
       </c>
       <c r="L5" t="n">
-        <v>0.388658082976197</v>
+        <v>0.4160067694363206</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4084721778147591</v>
+        <v>0.4160067694363206</v>
       </c>
       <c r="N5" t="n">
-        <v>0.45154601172821</v>
+        <v>0.5439717312070244</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3424849302687168</v>
+        <v>0.5439717312070244</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3843036357478832</v>
+        <v>0.5439717312070244</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4640851858493105</v>
+        <v>0.5439717312070244</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3296277135773354</v>
+        <v>0.4352813569717226</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4141130168660664</v>
+        <v>0.4352813569717226</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3470197169127828</v>
+        <v>0.4352813569717226</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3911657448493441</v>
+        <v>0.4352813569717226</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4353740131408816</v>
+        <v>0.548199906350833</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3833601571541299</v>
+        <v>0.548199906350833</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4648333463459186</v>
+        <v>0.548199906350833</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5351660041216147</v>
+        <v>0.548199906350833</v>
       </c>
     </row>
     <row r="6">
@@ -883,76 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4744768554083818</v>
+        <v>-0.5061547306553378</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4243217500465033</v>
+        <v>-0.5061547306553378</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3589945677748207</v>
+        <v>-0.5061547306553378</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3737818933449653</v>
+        <v>-0.5061547306553378</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3925535577012682</v>
+        <v>-0.4257966510215609</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.479581734310413</v>
+        <v>-0.4257966510215609</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4835013648903937</v>
+        <v>-0.4257966510215609</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4830991860737468</v>
+        <v>-0.4257966510215609</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.442198728957399</v>
+        <v>-0.4421987289573991</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.444023073271784</v>
+        <v>-0.4421987289573991</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4462568251409467</v>
+        <v>-0.4421987289573991</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3912868585517444</v>
+        <v>-0.4421987289573991</v>
       </c>
       <c r="N6" t="n">
         <v>-0.3530894921614827</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4661413231029029</v>
+        <v>-0.3530894921614827</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4796519235570331</v>
+        <v>-0.3530894921614827</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4074250475293928</v>
+        <v>-0.3530894921614827</v>
       </c>
       <c r="R6" t="n">
         <v>-0.4431614635843616</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4727357914381067</v>
+        <v>-0.4431614635843616</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4604405018055654</v>
+        <v>-0.4431614635843616</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4252135927864323</v>
+        <v>-0.4431614635843616</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3659301575128386</v>
+        <v>-0.365930157512839</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4403302962311643</v>
+        <v>-0.365930157512839</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4574955855052214</v>
+        <v>-0.365930157512839</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3709921302289015</v>
+        <v>-0.365930157512839</v>
       </c>
     </row>
   </sheetData>
@@ -1103,76 +1103,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.599086400253861</v>
+        <v>8.419828913033111</v>
       </c>
       <c r="C2" t="n">
-        <v>3.493372706751606</v>
+        <v>8.419828913033111</v>
       </c>
       <c r="D2" t="n">
-        <v>1.928477972331316</v>
+        <v>8.419828913033111</v>
       </c>
       <c r="E2" t="n">
-        <v>3.416016559236335</v>
+        <v>8.419828913033111</v>
       </c>
       <c r="F2" t="n">
-        <v>3.694689130068658</v>
+        <v>4.595316747163769</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44387160170255</v>
+        <v>4.595316747163769</v>
       </c>
       <c r="H2" t="n">
-        <v>1.674070330684425</v>
+        <v>4.595316747163769</v>
       </c>
       <c r="I2" t="n">
-        <v>2.19938850292108</v>
+        <v>4.595316747163769</v>
       </c>
       <c r="J2" t="n">
-        <v>3.970273092274673</v>
+        <v>4.953039512837357</v>
       </c>
       <c r="K2" t="n">
-        <v>2.188827807692037</v>
+        <v>4.953039512837357</v>
       </c>
       <c r="L2" t="n">
-        <v>1.654143949432997</v>
+        <v>4.953039512837357</v>
       </c>
       <c r="M2" t="n">
-        <v>1.687607920236002</v>
+        <v>4.953039512837357</v>
       </c>
       <c r="N2" t="n">
-        <v>3.228519216870875</v>
+        <v>3.892984052012319</v>
       </c>
       <c r="O2" t="n">
-        <v>2.222494140688087</v>
+        <v>3.892984052012319</v>
       </c>
       <c r="P2" t="n">
-        <v>1.666522121822827</v>
+        <v>3.892984052012319</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.226898811446031</v>
+        <v>3.892984052012319</v>
       </c>
       <c r="R2" t="n">
-        <v>3.650067298545854</v>
+        <v>4.756493123702352</v>
       </c>
       <c r="S2" t="n">
-        <v>2.597895887573114</v>
+        <v>4.756493123702352</v>
       </c>
       <c r="T2" t="n">
-        <v>1.618670058081498</v>
+        <v>4.756493123702352</v>
       </c>
       <c r="U2" t="n">
-        <v>1.963717017619762</v>
+        <v>4.756493123702352</v>
       </c>
       <c r="V2" t="n">
-        <v>2.629423881492796</v>
+        <v>3.048826966925728</v>
       </c>
       <c r="W2" t="n">
-        <v>1.978597735822341</v>
+        <v>3.048826966925728</v>
       </c>
       <c r="X2" t="n">
-        <v>1.387327700933589</v>
+        <v>3.048826966925728</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.078861322634379</v>
+        <v>3.048826966925728</v>
       </c>
     </row>
     <row r="3">
@@ -1182,76 +1182,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1473941626726116</v>
+        <v>0.1504763314694926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1072411036044494</v>
+        <v>0.1504763314694926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07556520252253618</v>
+        <v>0.1504763314694926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1059382897760857</v>
+        <v>0.1504763314694926</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1105360653562675</v>
+        <v>0.1136251803907806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08745166560084772</v>
+        <v>0.1136251803907806</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06895856037522829</v>
+        <v>0.1136251803907806</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08203629620338693</v>
+        <v>0.1136251803907806</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1148391729851939</v>
+        <v>0.1179468917816864</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08179377795531773</v>
+        <v>0.1179468917816864</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06841663746212445</v>
+        <v>0.1179468917816864</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06932458870951619</v>
+        <v>0.1179468917816864</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1026900217349038</v>
+        <v>0.1043287088477731</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08256430750223043</v>
+        <v>0.1043287088477731</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0687537216845997</v>
+        <v>0.1043287088477731</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08266456260084176</v>
+        <v>0.1043287088477731</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1098172575905818</v>
+        <v>0.1156035161162625</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09068216018456754</v>
+        <v>0.1156035161162625</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06744242546583323</v>
+        <v>0.1156035161162625</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07643777804452023</v>
+        <v>0.1156035161162625</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09132749702450371</v>
+        <v>0.09133498103481874</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07680334740578298</v>
+        <v>0.09133498103481874</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06076981991351627</v>
+        <v>0.09133498103481874</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07922300703271912</v>
+        <v>0.09133498103481874</v>
       </c>
     </row>
     <row r="4">
@@ -1261,76 +1261,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2180299146965831</v>
+        <v>0.2182854841355748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2081479936180425</v>
+        <v>0.2182854841355748</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2225780751651071</v>
+        <v>0.2182854841355748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2236793107203753</v>
+        <v>0.2182854841355748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.192197608604847</v>
+        <v>0.1926866665343974</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1889476966092375</v>
+        <v>0.1926866665343974</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2046130002600217</v>
+        <v>0.1926866665343974</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1911760755665227</v>
+        <v>0.1926866665343974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1874857614111211</v>
+        <v>0.1875770227546162</v>
       </c>
       <c r="K4" t="n">
-        <v>0.177976126356275</v>
+        <v>0.1875770227546162</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1889033293826375</v>
+        <v>0.1875770227546162</v>
       </c>
       <c r="M4" t="n">
-        <v>0.186467471276462</v>
+        <v>0.1875770227546162</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1819634258977607</v>
+        <v>0.1824644409893553</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1767627633503751</v>
+        <v>0.1824644409893553</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1901364145416619</v>
+        <v>0.1824644409893553</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1867028672648541</v>
+        <v>0.1824644409893553</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1784092338772036</v>
+        <v>0.1788882316792169</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1742347317401977</v>
+        <v>0.1788882316792169</v>
       </c>
       <c r="T4" t="n">
-        <v>0.183998338259406</v>
+        <v>0.1788882316792169</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1856444499383295</v>
+        <v>0.1788882316792169</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1734213286374899</v>
+        <v>0.1742628529171175</v>
       </c>
       <c r="W4" t="n">
-        <v>0.168943561535694</v>
+        <v>0.1742628529171175</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1830531789899434</v>
+        <v>0.1742628529171175</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1812455533357473</v>
+        <v>0.1742628529171175</v>
       </c>
     </row>
     <row r="5">
@@ -1340,76 +1340,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6760272455168811</v>
+        <v>0.6893556484774468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5152156489254461</v>
+        <v>0.6893556484774468</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3394997574063949</v>
+        <v>0.6893556484774468</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4736168465241769</v>
+        <v>0.6893556484774468</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5751167569598984</v>
+        <v>0.5896888582609676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4628353092957063</v>
+        <v>0.5896888582609676</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3370194478727936</v>
+        <v>0.5896888582609676</v>
       </c>
       <c r="I5" t="n">
-        <v>0.429113820650854</v>
+        <v>0.5896888582609676</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6125221036565711</v>
+        <v>0.6287917893652769</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4595772457232934</v>
+        <v>0.6287917893652769</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3621780393480603</v>
+        <v>0.6287917893652769</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3717784567729434</v>
+        <v>0.6287917893652769</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5643442973677689</v>
+        <v>0.5717755650475455</v>
       </c>
       <c r="O5" t="n">
-        <v>0.467091065659419</v>
+        <v>0.5717755650475455</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3616020731764386</v>
+        <v>0.5717755650475455</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4427600058416616</v>
+        <v>0.5717755650475455</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6155357276303723</v>
+        <v>0.6462332095918039</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5204597228053484</v>
+        <v>0.6462332095918039</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3665382312896273</v>
+        <v>0.6462332095918039</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4117428669152923</v>
+        <v>0.6462332095918039</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5266220582095155</v>
+        <v>0.5241219198807636</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4546094962580517</v>
+        <v>0.5241219198807636</v>
       </c>
       <c r="X5" t="n">
-        <v>0.331979047011551</v>
+        <v>0.5241219198807636</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4371031761864132</v>
+        <v>0.5241219198807636</v>
       </c>
     </row>
     <row r="6">
@@ -1419,76 +1419,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3228682503037499</v>
+        <v>-0.3228682503037497</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2980877315236105</v>
+        <v>-0.3228682503037497</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3276596730205168</v>
+        <v>-0.3228682503037497</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4024296333857031</v>
+        <v>-0.3228682503037497</v>
       </c>
       <c r="F6" t="n">
         <v>-0.4085479270002076</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.343314351934211</v>
+        <v>-0.4085479270002076</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4595821733755375</v>
+        <v>-0.4085479270002076</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4002041191788562</v>
+        <v>-0.4085479270002076</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3884951363823685</v>
+        <v>-0.3884951363823687</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.355746450166844</v>
+        <v>-0.3884951363823687</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4238950206165529</v>
+        <v>-0.3884951363823687</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4546128943595502</v>
+        <v>-0.3884951363823687</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3968656336808142</v>
+        <v>-0.3968656336808146</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3584880971539443</v>
+        <v>-0.3968656336808146</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4163784855841275</v>
+        <v>-0.3968656336808146</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.413880745187569</v>
+        <v>-0.3968656336808146</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3861405539481916</v>
+        <v>-0.3861405539481917</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3393257530452836</v>
+        <v>-0.3861405539481917</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4263723787536947</v>
+        <v>-0.3861405539481917</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.451682848674827</v>
+        <v>-0.3861405539481917</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4294323469835479</v>
+        <v>-0.4294323469835482</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.383592558276004</v>
+        <v>-0.4294323469835482</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4662549349223727</v>
+        <v>-0.4294323469835482</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4649829341141298</v>
+        <v>-0.4294323469835482</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1639,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.107514104694014</v>
+        <v>7.031838502882168</v>
       </c>
       <c r="C2" t="n">
-        <v>2.331109313891435</v>
+        <v>7.031838502882168</v>
       </c>
       <c r="D2" t="n">
-        <v>3.584121095670191</v>
+        <v>7.031838502882168</v>
       </c>
       <c r="E2" t="n">
-        <v>3.279888227450619</v>
+        <v>7.031838502882168</v>
       </c>
       <c r="F2" t="n">
-        <v>5.659532655916158</v>
+        <v>12.56001733640849</v>
       </c>
       <c r="G2" t="n">
-        <v>2.687466979650546</v>
+        <v>12.56001733640849</v>
       </c>
       <c r="H2" t="n">
-        <v>2.195162109136188</v>
+        <v>12.56001733640849</v>
       </c>
       <c r="I2" t="n">
-        <v>1.080040744618192</v>
+        <v>12.56001733640849</v>
       </c>
       <c r="J2" t="n">
-        <v>4.041543410907276</v>
+        <v>8.655010061477739</v>
       </c>
       <c r="K2" t="n">
-        <v>2.774904676929304</v>
+        <v>8.655010061477739</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4502190769265</v>
+        <v>8.655010061477739</v>
       </c>
       <c r="M2" t="n">
-        <v>2.779279771802849</v>
+        <v>8.655010061477739</v>
       </c>
       <c r="N2" t="n">
-        <v>5.558004022275029</v>
+        <v>10.63383618164951</v>
       </c>
       <c r="O2" t="n">
-        <v>3.201348955650891</v>
+        <v>10.63383618164951</v>
       </c>
       <c r="P2" t="n">
-        <v>2.504005718847303</v>
+        <v>10.63383618164951</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.548902890697653</v>
+        <v>10.63383618164951</v>
       </c>
       <c r="R2" t="n">
-        <v>3.85828686644459</v>
+        <v>7.644994757638976</v>
       </c>
       <c r="S2" t="n">
-        <v>2.396651658070254</v>
+        <v>7.644994757638976</v>
       </c>
       <c r="T2" t="n">
-        <v>2.221027104144354</v>
+        <v>7.644994757638976</v>
       </c>
       <c r="U2" t="n">
-        <v>2.053768036451745</v>
+        <v>7.644994757638976</v>
       </c>
       <c r="V2" t="n">
-        <v>4.512437007687559</v>
+        <v>8.739737523653844</v>
       </c>
       <c r="W2" t="n">
-        <v>2.861094154219793</v>
+        <v>8.739737523653844</v>
       </c>
       <c r="X2" t="n">
-        <v>2.095452248170827</v>
+        <v>8.739737523653844</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.730313709472689</v>
+        <v>8.739737523653844</v>
       </c>
     </row>
     <row r="3">
@@ -1718,76 +1718,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1005216245182852</v>
+        <v>0.1390713680315727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08500004175773479</v>
+        <v>0.1390713680315727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1087430761695387</v>
+        <v>0.1390713680315727</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1035931041748051</v>
+        <v>0.1390713680315727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1371734070688724</v>
+        <v>0.1769723635227169</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09250201532272739</v>
+        <v>0.1769723635227169</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08193933001210274</v>
+        <v>0.1769723635227169</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05090677700245116</v>
+        <v>0.1769723635227169</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1159157942907578</v>
+        <v>0.1522508725477265</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09423920401040897</v>
+        <v>0.1522508725477265</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08758743415506376</v>
+        <v>0.1522508725477265</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09432513844771195</v>
+        <v>0.1522508725477265</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1359895886925275</v>
+        <v>0.1657560660752546</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1022082170064109</v>
+        <v>0.1657560660752546</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08872864075708087</v>
+        <v>0.1657560660752546</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06548999391409183</v>
+        <v>0.1657560660752546</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1131180644599448</v>
+        <v>0.1443208100905056</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08643427495464295</v>
+        <v>0.1443208100905056</v>
       </c>
       <c r="T3" t="n">
-        <v>0.082530887794241</v>
+        <v>0.1443208100905056</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07862439982161096</v>
+        <v>0.1443208100905056</v>
       </c>
       <c r="V3" t="n">
-        <v>0.122691890779556</v>
+        <v>0.1528802605677464</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09591526369121728</v>
+        <v>0.1528802605677464</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07961629555152316</v>
+        <v>0.1528802605677464</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07046810581942475</v>
+        <v>0.1528802605677464</v>
       </c>
     </row>
     <row r="4">
@@ -1797,76 +1797,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2088379285045527</v>
+        <v>0.215445014129982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2030065422422599</v>
+        <v>0.215445014129982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2037586334314477</v>
+        <v>0.215445014129982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1923732605267695</v>
+        <v>0.215445014129982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2022914022416213</v>
+        <v>0.21184020494355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2005761362044863</v>
+        <v>0.21184020494355</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1937840255406868</v>
+        <v>0.21184020494355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1769164474750304</v>
+        <v>0.21184020494355</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1946863332284452</v>
+        <v>0.2043671409019974</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1884541371310939</v>
+        <v>0.2043671409019974</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1823827824357437</v>
+        <v>0.2043671409019974</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1691073472216364</v>
+        <v>0.2043671409019974</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1869956192230663</v>
+        <v>0.1964230588243261</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1888135602146087</v>
+        <v>0.1964230588243261</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1763704943131265</v>
+        <v>0.1964230588243261</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1668265648858046</v>
+        <v>0.1964230588243261</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1895026397365492</v>
+        <v>0.1984387812337679</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1851914232460911</v>
+        <v>0.1984387812337679</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1813384879687738</v>
+        <v>0.1984387812337679</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1724869297510723</v>
+        <v>0.1984387812337679</v>
       </c>
       <c r="V4" t="n">
-        <v>0.179087641508249</v>
+        <v>0.1875354613161436</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1818008457363953</v>
+        <v>0.1875354613161436</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1722966416276191</v>
+        <v>0.1875354613161436</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1637360810514945</v>
+        <v>0.1875354613161436</v>
       </c>
     </row>
     <row r="5">
@@ -1876,76 +1876,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4813379697744596</v>
+        <v>0.6455074794521276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4187059235573756</v>
+        <v>0.6455074794521276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5336857356089605</v>
+        <v>0.6455074794521276</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5385005373986976</v>
+        <v>0.6455074794521276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6780980582903344</v>
+        <v>0.8354049863663771</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4611815596468668</v>
+        <v>0.8354049863663771</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4228384139687449</v>
+        <v>0.8354049863663771</v>
       </c>
       <c r="I5" t="n">
-        <v>0.287744738994016</v>
+        <v>0.8354049863663771</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5953976962252511</v>
+        <v>0.7449870457439985</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5000643946853424</v>
+        <v>0.7449870457439985</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4802395981973913</v>
+        <v>0.7449870457439985</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5577826155837394</v>
+        <v>0.7449870457439985</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7272340884644262</v>
+        <v>0.8438727462415755</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5413182024121537</v>
+        <v>0.8438727462415755</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5030809779302025</v>
+        <v>0.8438727462415755</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3925633424084514</v>
+        <v>0.8438727462415755</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5969207849410649</v>
+        <v>0.7272812763372626</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4667293627296391</v>
+        <v>0.7272812763372626</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4551206349997397</v>
+        <v>0.7272812763372626</v>
       </c>
       <c r="U5" t="n">
-        <v>0.455828160052934</v>
+        <v>0.7272812763372626</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6850941234485166</v>
+        <v>0.8152072119844249</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5275842546425278</v>
+        <v>0.8152072119844249</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4620884934228496</v>
+        <v>0.8152072119844249</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4303761600185285</v>
+        <v>0.8152072119844249</v>
       </c>
     </row>
     <row r="6">
@@ -1958,73 +1958,73 @@
         <v>-0.4577144551053585</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4257754978388464</v>
+        <v>-0.4577144551053585</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.384279615461348</v>
+        <v>-0.4577144551053585</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3052461540836791</v>
+        <v>-0.4577144551053585</v>
       </c>
       <c r="F6" t="n">
         <v>-0.3382265564094655</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3639920926084612</v>
+        <v>-0.3382265564094655</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3889459820640061</v>
+        <v>-0.3382265564094655</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4431991254542811</v>
+        <v>-0.3382265564094655</v>
       </c>
       <c r="J6" t="n">
         <v>-0.3957694572692457</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3674525522288771</v>
+        <v>-0.3957694572692457</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4125391414777935</v>
+        <v>-0.3957694572692457</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3121279303464082</v>
+        <v>-0.3957694572692457</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3923185056843571</v>
+        <v>-0.3923185056843573</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3484732616943526</v>
+        <v>-0.3923185056843573</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4003108955481066</v>
+        <v>-0.3923185056843573</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3559589076040307</v>
+        <v>-0.3923185056843573</v>
       </c>
       <c r="R6" t="n">
         <v>-0.3722264658311051</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3601100009667118</v>
+        <v>-0.3722264658311051</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4211418703673542</v>
+        <v>-0.3722264658311051</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.3365335330011847</v>
+        <v>-0.3722264658311051</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3669212371587888</v>
+        <v>-0.3669212371587891</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3723037416529474</v>
+        <v>-0.3669212371587891</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4171697362143048</v>
+        <v>-0.3669212371587891</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3481310448079924</v>
+        <v>-0.3669212371587891</v>
       </c>
     </row>
   </sheetData>
@@ -2175,76 +2175,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.713856309567261</v>
+        <v>3.255216394905959</v>
       </c>
       <c r="C2" t="n">
-        <v>2.126293931837699</v>
+        <v>3.255216394905959</v>
       </c>
       <c r="D2" t="n">
-        <v>1.222448860302668</v>
+        <v>3.255216394905959</v>
       </c>
       <c r="E2" t="n">
-        <v>3.204737579535382</v>
+        <v>3.255216394905959</v>
       </c>
       <c r="F2" t="n">
-        <v>1.526598804542164</v>
+        <v>3.744591270921114</v>
       </c>
       <c r="G2" t="n">
-        <v>1.141586518999498</v>
+        <v>3.744591270921114</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7693298631982859</v>
+        <v>3.744591270921114</v>
       </c>
       <c r="I2" t="n">
-        <v>2.476056754324119</v>
+        <v>3.744591270921114</v>
       </c>
       <c r="J2" t="n">
-        <v>3.089399738459683</v>
+        <v>5.410806963442114</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9624011344622343</v>
+        <v>5.410806963442114</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6143673391598241</v>
+        <v>5.410806963442114</v>
       </c>
       <c r="M2" t="n">
-        <v>3.272346207146099</v>
+        <v>5.410806963442114</v>
       </c>
       <c r="N2" t="n">
-        <v>1.504146026793536</v>
+        <v>3.628690556795216</v>
       </c>
       <c r="O2" t="n">
-        <v>1.662507430258918</v>
+        <v>3.628690556795216</v>
       </c>
       <c r="P2" t="n">
-        <v>0.653773254373571</v>
+        <v>3.628690556795216</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74316285680514</v>
+        <v>3.628690556795216</v>
       </c>
       <c r="R2" t="n">
-        <v>4.888287108202757</v>
+        <v>8.235916268216402</v>
       </c>
       <c r="S2" t="n">
-        <v>1.827852949733283</v>
+        <v>8.235916268216402</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5625087073662081</v>
+        <v>8.235916268216402</v>
       </c>
       <c r="U2" t="n">
-        <v>2.986193557439884</v>
+        <v>8.235916268216402</v>
       </c>
       <c r="V2" t="n">
-        <v>1.682711882058966</v>
+        <v>4.403425212402173</v>
       </c>
       <c r="W2" t="n">
-        <v>1.207606201421269</v>
+        <v>4.403425212402173</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6978887290991813</v>
+        <v>4.403425212402173</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.60210781391204</v>
+        <v>4.403425212402173</v>
       </c>
     </row>
     <row r="3">
@@ -2254,76 +2254,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07002942002679391</v>
+        <v>0.09473147083974687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08034220544659121</v>
+        <v>0.09473147083974687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05563557788782392</v>
+        <v>0.09473147083974687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1022684650603851</v>
+        <v>0.09473147083974687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06485529724393801</v>
+        <v>0.1022051231739105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05298638100641795</v>
+        <v>0.1022051231739105</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03944280432804748</v>
+        <v>0.1022051231739105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08813769384751069</v>
+        <v>0.1022051231739105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1001919047617359</v>
+        <v>0.1231352132854484</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04676699189113709</v>
+        <v>0.1231352132854484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03300364771767894</v>
+        <v>0.1231352132854484</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1034611481570828</v>
+        <v>0.1231352132854484</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0642110718529878</v>
+        <v>0.100502755328113</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06864455312684958</v>
+        <v>0.100502755328113</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03469399777008775</v>
+        <v>0.100502755328113</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07080890039466214</v>
+        <v>0.100502755328113</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1277235311810787</v>
+        <v>0.1490594510693957</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0730185801483676</v>
+        <v>0.1490594510693957</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03071952934239786</v>
+        <v>0.1490594510693957</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0982869481930746</v>
+        <v>0.1490594510693957</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06919240879920663</v>
+        <v>0.1111989479547402</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05515611217538918</v>
+        <v>0.1111989479547402</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03654238668912124</v>
+        <v>0.1111989479547402</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06698336017676576</v>
+        <v>0.1111989479547402</v>
       </c>
     </row>
     <row r="4">
@@ -2333,76 +2333,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2461588661033159</v>
+        <v>0.2481381914017457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2310977427960638</v>
+        <v>0.2481381914017457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1984052441760236</v>
+        <v>0.2481381914017457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2751715520930976</v>
+        <v>0.2481381914017457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1998179932502042</v>
+        <v>0.2121907060751635</v>
       </c>
       <c r="G4" t="n">
-        <v>0.203155535281373</v>
+        <v>0.2121907060751635</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1902523847398566</v>
+        <v>0.2121907060751635</v>
       </c>
       <c r="I4" t="n">
-        <v>0.209746949108145</v>
+        <v>0.2121907060751635</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2282393876776826</v>
+        <v>0.2313668525460821</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2124764916571692</v>
+        <v>0.2313668525460821</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1837294348085181</v>
+        <v>0.2313668525460821</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2169368473023272</v>
+        <v>0.2313668525460821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.19529295409859</v>
+        <v>0.2082243450538763</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2005139956561934</v>
+        <v>0.2082243450538763</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1887974383343679</v>
+        <v>0.2082243450538763</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2016083985595185</v>
+        <v>0.2082243450538763</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2219677029006689</v>
+        <v>0.2253309872240834</v>
       </c>
       <c r="S4" t="n">
-        <v>0.207566231775431</v>
+        <v>0.2253309872240834</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1788747417547938</v>
+        <v>0.2253309872240834</v>
       </c>
       <c r="U4" t="n">
-        <v>0.205138275882444</v>
+        <v>0.2253309872240834</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2049485750666427</v>
+        <v>0.220207113087776</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1969985468043388</v>
+        <v>0.220207113087776</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1875919758754291</v>
+        <v>0.220207113087776</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1982693821618229</v>
+        <v>0.220207113087776</v>
       </c>
     </row>
     <row r="5">
@@ -2412,76 +2412,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2844887171254749</v>
+        <v>0.3817690066353905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.347654652419044</v>
+        <v>0.3817690066353905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2804138475214116</v>
+        <v>0.3817690066353905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3716534804651067</v>
+        <v>0.3817690066353905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3245718575640422</v>
+        <v>0.4816663512948903</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2608168216191163</v>
+        <v>0.4816663512948903</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2073183176230877</v>
+        <v>0.4816663512948903</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4202096584588085</v>
+        <v>0.4816663512948903</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4389772763639986</v>
+        <v>0.5322076690347125</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2201043114294057</v>
+        <v>0.5322076690347125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1796317925436128</v>
+        <v>0.5322076690347125</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4769182803366616</v>
+        <v>0.5322076690347125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3287935919110121</v>
+        <v>0.4826657291303224</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3423429516837785</v>
+        <v>0.4826657291303224</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1837630747332667</v>
+        <v>0.4826657291303224</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3512199933166874</v>
+        <v>0.4826657291303224</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5754149342989565</v>
+        <v>0.6615133271535421</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3517844859628588</v>
+        <v>0.6615133271535421</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1717376586600974</v>
+        <v>0.6615133271535421</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4791253498172064</v>
+        <v>0.6615133271535421</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3376086356136287</v>
+        <v>0.5049743688816063</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2799823301751097</v>
+        <v>0.5049743688816063</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1947971735922612</v>
+        <v>0.5049743688816063</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3378401619373357</v>
+        <v>0.5049743688816063</v>
       </c>
     </row>
     <row r="6">
@@ -2491,76 +2491,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5620928363606259</v>
+        <v>-0.5620928363606261</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4513533822982601</v>
+        <v>-0.5620928363606261</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4672648600241183</v>
+        <v>-0.5620928363606261</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4710870733445339</v>
+        <v>-0.5620928363606261</v>
       </c>
       <c r="F6" t="n">
         <v>-0.3865669889515791</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3512486399100397</v>
+        <v>-0.3865669889515791</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3905685456691773</v>
+        <v>-0.3865669889515791</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4248046903623074</v>
+        <v>-0.3865669889515791</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4498584133752963</v>
+        <v>-0.4498584133752966</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.438491133345094</v>
+        <v>-0.4498584133752966</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4526767650663317</v>
+        <v>-0.4498584133752966</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4048505259602512</v>
+        <v>-0.4498584133752966</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3560798792954974</v>
+        <v>-0.3560798792954976</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3166854591611854</v>
+        <v>-0.3560798792954976</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4146265919634657</v>
+        <v>-0.3560798792954976</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4046031121905306</v>
+        <v>-0.3560798792954976</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4301160760386107</v>
+        <v>-0.4301160760386105</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3552998775270576</v>
+        <v>-0.4301160760386105</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4184201690258433</v>
+        <v>-0.4301160760386105</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4175436102402251</v>
+        <v>-0.4301160760386105</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3592914489991086</v>
+        <v>-0.3592914489991087</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3483788950764338</v>
+        <v>-0.3592914489991087</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4080536017377202</v>
+        <v>-0.3592914489991087</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4051902407429661</v>
+        <v>-0.3592914489991087</v>
       </c>
     </row>
   </sheetData>
@@ -2711,76 +2711,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.379492138601585</v>
+        <v>11.65622538147839</v>
       </c>
       <c r="C2" t="n">
-        <v>3.870403376453598</v>
+        <v>11.65622538147839</v>
       </c>
       <c r="D2" t="n">
-        <v>3.687376867371738</v>
+        <v>11.65622538147839</v>
       </c>
       <c r="E2" t="n">
-        <v>1.211359782083931</v>
+        <v>11.65622538147839</v>
       </c>
       <c r="F2" t="n">
-        <v>2.949359839648991</v>
+        <v>5.109138045739504</v>
       </c>
       <c r="G2" t="n">
-        <v>2.198139705134757</v>
+        <v>5.109138045739504</v>
       </c>
       <c r="H2" t="n">
-        <v>1.480878210148284</v>
+        <v>5.109138045739504</v>
       </c>
       <c r="I2" t="n">
-        <v>1.066605944643419</v>
+        <v>5.109138045739504</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05956891608967</v>
+        <v>6.733878104414119</v>
       </c>
       <c r="K2" t="n">
-        <v>2.954348665212082</v>
+        <v>6.733878104414119</v>
       </c>
       <c r="L2" t="n">
-        <v>2.008103924955496</v>
+        <v>6.733878104414119</v>
       </c>
       <c r="M2" t="n">
-        <v>1.334896904523792</v>
+        <v>6.733878104414119</v>
       </c>
       <c r="N2" t="n">
-        <v>2.213972539249219</v>
+        <v>4.2303277724783</v>
       </c>
       <c r="O2" t="n">
-        <v>1.89718427602092</v>
+        <v>4.2303277724783</v>
       </c>
       <c r="P2" t="n">
-        <v>1.637716373771159</v>
+        <v>4.2303277724783</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.586112617633864</v>
+        <v>4.2303277724783</v>
       </c>
       <c r="R2" t="n">
-        <v>3.02418756885278</v>
+        <v>6.111882438747267</v>
       </c>
       <c r="S2" t="n">
-        <v>3.188886506602614</v>
+        <v>6.111882438747267</v>
       </c>
       <c r="T2" t="n">
-        <v>2.658564625829637</v>
+        <v>6.111882438747267</v>
       </c>
       <c r="U2" t="n">
-        <v>1.682621343336702</v>
+        <v>6.111882438747267</v>
       </c>
       <c r="V2" t="n">
-        <v>2.478259070749802</v>
+        <v>5.025118578845433</v>
       </c>
       <c r="W2" t="n">
-        <v>1.983041953984996</v>
+        <v>5.025118578845433</v>
       </c>
       <c r="X2" t="n">
-        <v>1.811410940354319</v>
+        <v>5.025118578845433</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.394544361721635</v>
+        <v>5.025118578845433</v>
       </c>
     </row>
     <row r="3">
@@ -2790,76 +2790,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1451153926648774</v>
+        <v>0.1719093317757094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113306056417928</v>
+        <v>0.1719093317757094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1104187104950531</v>
+        <v>0.1719093317757094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05527764816564673</v>
+        <v>0.1719093317757094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09759593141064471</v>
+        <v>0.1197568971799481</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08200765745899075</v>
+        <v>0.1197568971799481</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06353775445361376</v>
+        <v>0.1197568971799481</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0504452018018775</v>
+        <v>0.1197568971799481</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09964594182771602</v>
+        <v>0.1363832734581067</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09768987486181535</v>
+        <v>0.1363832734581067</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07752320819904068</v>
+        <v>0.1363832734581067</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05917397785448819</v>
+        <v>0.1363832734581067</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08236998341144042</v>
+        <v>0.1089400195427153</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07478207533272019</v>
+        <v>0.1089400195427153</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06796700908089481</v>
+        <v>0.1089400195427153</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06653741920037048</v>
+        <v>0.1089400195427153</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09899352387525862</v>
+        <v>0.1304439543304987</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1019862504970643</v>
+        <v>0.1304439543304987</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09191933943748953</v>
+        <v>0.1304439543304987</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06918996237927488</v>
+        <v>0.1304439543304987</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08818441961860013</v>
+        <v>0.1187881297899591</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07691219680783834</v>
+        <v>0.1187881297899591</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07259445592491054</v>
+        <v>0.1187881297899591</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06098691112195542</v>
+        <v>0.1187881297899591</v>
       </c>
     </row>
     <row r="4">
@@ -2869,76 +2869,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1771839175399811</v>
+        <v>0.185741750871033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.180263706628237</v>
+        <v>0.185741750871033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1888400317020981</v>
+        <v>0.185741750871033</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2044345391537007</v>
+        <v>0.185741750871033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1728784047894013</v>
+        <v>0.1796041828859807</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1704112278320128</v>
+        <v>0.1796041828859807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1685188762126314</v>
+        <v>0.1796041828859807</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1858416420135375</v>
+        <v>0.1796041828859807</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1662536041006467</v>
+        <v>0.1737895678848184</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1666040547564717</v>
+        <v>0.1737895678848184</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1649597467497391</v>
+        <v>0.1737895678848184</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1812128860032521</v>
+        <v>0.1737895678848184</v>
       </c>
       <c r="N4" t="n">
-        <v>0.161244248870874</v>
+        <v>0.1682467039370326</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1646367349660497</v>
+        <v>0.1682467039370326</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1627086404802235</v>
+        <v>0.1682467039370326</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1702107077252334</v>
+        <v>0.1682467039370326</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1601210542875644</v>
+        <v>0.1676443353423323</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1653034993094772</v>
+        <v>0.1676443353423323</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1628208839218308</v>
+        <v>0.1676443353423323</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1747666342116584</v>
+        <v>0.1676443353423323</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1579051932094161</v>
+        <v>0.1663726111730254</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1604603938944604</v>
+        <v>0.1663726111730254</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1572367185465308</v>
+        <v>0.1663726111730254</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1645538182275434</v>
+        <v>0.1663726111730254</v>
       </c>
     </row>
     <row r="5">
@@ -2948,76 +2948,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8190099568835443</v>
+        <v>0.9255287568333097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6285572317205388</v>
+        <v>0.9255287568333097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5847208851841468</v>
+        <v>0.9255287568333097</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2703929012899681</v>
+        <v>0.9255287568333097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5645351224147115</v>
+        <v>0.6667823391172029</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4812338864187511</v>
+        <v>0.6667823391172029</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3770364239400931</v>
+        <v>0.6667823391172029</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2714418644568522</v>
+        <v>0.6667823391172029</v>
       </c>
       <c r="J5" t="n">
-        <v>0.599361092751964</v>
+        <v>0.7847609906510427</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5863595277114383</v>
+        <v>0.7847609906510427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4699522745791516</v>
+        <v>0.7847609906510427</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3265439845896292</v>
+        <v>0.7847609906510427</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5108398221222956</v>
+        <v>0.6475016567545164</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4542247229826395</v>
+        <v>0.6475016567545164</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4177221866048098</v>
+        <v>0.6475016567545164</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3909120647555267</v>
+        <v>0.6475016567545164</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6182417691147242</v>
+        <v>0.7780993856078117</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6169636512420595</v>
+        <v>0.7780993856078117</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5645426877894816</v>
+        <v>0.7780993856078117</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3958991525549408</v>
+        <v>0.7780993856078117</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5584643406987174</v>
+        <v>0.7139884921708718</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4793219992867885</v>
+        <v>0.7139884921708718</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4616889527838102</v>
+        <v>0.7139884921708718</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3706198481376065</v>
+        <v>0.7139884921708718</v>
       </c>
     </row>
     <row r="6">
@@ -3027,76 +3027,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4279143970599455</v>
+        <v>-0.4279143970599454</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4533245623508346</v>
+        <v>-0.4279143970599454</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.502087915855463</v>
+        <v>-0.4279143970599454</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.57037398520349</v>
+        <v>-0.4279143970599454</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4715548393187677</v>
+        <v>-0.4715548393187676</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5105372015489202</v>
+        <v>-0.4715548393187676</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5259777705913165</v>
+        <v>-0.4715548393187676</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5540725489384561</v>
+        <v>-0.4715548393187676</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4802793040235311</v>
+        <v>-0.4802793040235313</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.480546280311394</v>
+        <v>-0.4802793040235313</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4456975532709364</v>
+        <v>-0.4802793040235313</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4914513448801968</v>
+        <v>-0.4802793040235313</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4352553451113083</v>
+        <v>-0.4352553451113081</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4586877916273334</v>
+        <v>-0.4352553451113081</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4551791463004119</v>
+        <v>-0.4352553451113081</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.46490964732194</v>
+        <v>-0.4352553451113081</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.492313261086864</v>
+        <v>-0.4923132610868639</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4827711319418351</v>
+        <v>-0.4923132610868639</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.432124172966504</v>
+        <v>-0.4923132610868639</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4676153157769649</v>
+        <v>-0.4923132610868639</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4329861439652389</v>
+        <v>-0.4329861439652393</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4655283115564157</v>
+        <v>-0.4329861439652393</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4421494461542548</v>
+        <v>-0.4329861439652393</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4737891762034994</v>
+        <v>-0.4329861439652393</v>
       </c>
     </row>
   </sheetData>
@@ -3247,76 +3247,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.818614241859829</v>
+        <v>3.728029065452467</v>
       </c>
       <c r="C2" t="n">
-        <v>1.733011674298225</v>
+        <v>3.728029065452467</v>
       </c>
       <c r="D2" t="n">
-        <v>2.71032205563027</v>
+        <v>3.728029065452467</v>
       </c>
       <c r="E2" t="n">
-        <v>0.447894154083472</v>
+        <v>3.728029065452467</v>
       </c>
       <c r="F2" t="n">
-        <v>2.203131036742743</v>
+        <v>4.549916668425563</v>
       </c>
       <c r="G2" t="n">
-        <v>1.959453023913989</v>
+        <v>4.549916668425563</v>
       </c>
       <c r="H2" t="n">
-        <v>2.562131406382532</v>
+        <v>4.549916668425563</v>
       </c>
       <c r="I2" t="n">
-        <v>1.171636421847125</v>
+        <v>4.549916668425563</v>
       </c>
       <c r="J2" t="n">
-        <v>2.691421960573145</v>
+        <v>4.949619318139221</v>
       </c>
       <c r="K2" t="n">
-        <v>1.408979948646794</v>
+        <v>4.949619318139221</v>
       </c>
       <c r="L2" t="n">
-        <v>2.198938398484659</v>
+        <v>4.949619318139221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7953311626153952</v>
+        <v>4.949619318139221</v>
       </c>
       <c r="N2" t="n">
-        <v>2.545963700062983</v>
+        <v>5.043066674873618</v>
       </c>
       <c r="O2" t="n">
-        <v>1.562470713993876</v>
+        <v>5.043066674873618</v>
       </c>
       <c r="P2" t="n">
-        <v>2.285575126843332</v>
+        <v>5.043066674873618</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.017649692778029</v>
+        <v>5.043066674873618</v>
       </c>
       <c r="R2" t="n">
-        <v>2.725974369536307</v>
+        <v>5.110594904015435</v>
       </c>
       <c r="S2" t="n">
-        <v>1.313260801754447</v>
+        <v>5.110594904015435</v>
       </c>
       <c r="T2" t="n">
-        <v>1.984831679813908</v>
+        <v>5.110594904015435</v>
       </c>
       <c r="U2" t="n">
-        <v>1.183819502978078</v>
+        <v>5.110594904015435</v>
       </c>
       <c r="V2" t="n">
-        <v>3.073676002816834</v>
+        <v>5.910770691477387</v>
       </c>
       <c r="W2" t="n">
-        <v>2.092346706570996</v>
+        <v>5.910770691477387</v>
       </c>
       <c r="X2" t="n">
-        <v>2.322755828695485</v>
+        <v>5.910770691477387</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.685417326904668</v>
+        <v>5.910770691477387</v>
       </c>
     </row>
     <row r="3">
@@ -3326,76 +3326,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0727805500608274</v>
+        <v>0.1019642583053355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07053978705778174</v>
+        <v>0.1019642583053355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09295977053611959</v>
+        <v>0.1019642583053355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02540967584956455</v>
+        <v>0.1019642583053355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08212206155774848</v>
+        <v>0.1130582779450457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07633271060708435</v>
+        <v>0.1130582779450457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08994369507017752</v>
+        <v>0.1130582779450457</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05398158949944931</v>
+        <v>0.1130582779450457</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09258141696121203</v>
+        <v>0.1179067376497009</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06141933757153062</v>
+        <v>0.1179067376497009</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08202597513626819</v>
+        <v>0.1179067376497009</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04047138386210292</v>
+        <v>0.1179067376497009</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08960759314505173</v>
+        <v>0.1189961353617026</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06587355901260494</v>
+        <v>0.1189961353617026</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08398806825863558</v>
+        <v>0.1189961353617026</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04873921949441251</v>
+        <v>0.1189961353617026</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09327175044403702</v>
+        <v>0.1197735847302488</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05850568079866791</v>
+        <v>0.1197735847302488</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07695598872930187</v>
+        <v>0.1197735847302488</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05438142192237772</v>
+        <v>0.1197735847302488</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09990459382926642</v>
+        <v>0.1284190392309739</v>
       </c>
       <c r="W3" t="n">
-        <v>0.079542828295037</v>
+        <v>0.1284190392309739</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08481535969905085</v>
+        <v>0.1284190392309739</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0692654763318068</v>
+        <v>0.1284190392309739</v>
       </c>
     </row>
     <row r="4">
@@ -3405,76 +3405,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1816332542281471</v>
+        <v>0.1931629971261058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1878862060917557</v>
+        <v>0.1931629971261058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1773208039753112</v>
+        <v>0.1931629971261058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2007252163375169</v>
+        <v>0.1931629971261058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1843635826381102</v>
+        <v>0.1991492636226608</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1947211134976572</v>
+        <v>0.1991492636226608</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1819964896678181</v>
+        <v>0.1991492636226608</v>
       </c>
       <c r="I4" t="n">
-        <v>0.185481982745135</v>
+        <v>0.1991492636226608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.177740310819857</v>
+        <v>0.1843307277091877</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1745206036399087</v>
+        <v>0.1843307277091877</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1727716835260744</v>
+        <v>0.1843307277091877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1811447317257528</v>
+        <v>0.1843307277091877</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1707609511630386</v>
+        <v>0.1819505213962445</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1742556261526163</v>
+        <v>0.1819505213962445</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1748425555104986</v>
+        <v>0.1819505213962445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1763170819965288</v>
+        <v>0.1819505213962445</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1700840596928667</v>
+        <v>0.1817999399413963</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1711738825007034</v>
+        <v>0.1817999399413963</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1737714211613166</v>
+        <v>0.1817999399413963</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1753343118741707</v>
+        <v>0.1817999399413963</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1683716385571638</v>
+        <v>0.1801408191566706</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1667079897474424</v>
+        <v>0.1801408191566706</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1683094620503735</v>
+        <v>0.1801408191566706</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1711519555488492</v>
+        <v>0.1801408191566706</v>
       </c>
     </row>
     <row r="5">
@@ -3484,76 +3484,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.400700578592336</v>
+        <v>0.5278664124204312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3754388814649495</v>
+        <v>0.5278664124204312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5242462725866198</v>
+        <v>0.5278664124204312</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1265893559025414</v>
+        <v>0.5278664124204312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4454353749403265</v>
+        <v>0.5677062314388648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3920104463042871</v>
+        <v>0.5677062314388648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4942056587703624</v>
+        <v>0.5677062314388648</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2910341408934782</v>
+        <v>0.5677062314388648</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5208802467721854</v>
+        <v>0.6396477630995868</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3519317277761551</v>
+        <v>0.6396477630995868</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4747651551585939</v>
+        <v>0.6396477630995868</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2234201540201305</v>
+        <v>0.6396477630995868</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5247545913438751</v>
+        <v>0.6540027170494205</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3780283051229099</v>
+        <v>0.6540027170494205</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4803639938424055</v>
+        <v>0.6540027170494205</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2764293677193004</v>
+        <v>0.6540027170494205</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5483861956991424</v>
+        <v>0.6588208157211609</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3417909317937419</v>
+        <v>0.6588208157211609</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4428575666528135</v>
+        <v>0.6588208157211609</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3101584700740419</v>
+        <v>0.6588208157211609</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5933576146516376</v>
+        <v>0.7128813992973259</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4771386687317267</v>
+        <v>0.7128813992973259</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5039250833899427</v>
+        <v>0.7128813992973259</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.404701635512645</v>
+        <v>0.7128813992973259</v>
       </c>
     </row>
     <row r="6">
@@ -3566,73 +3566,73 @@
         <v>-0.4495180092307239</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5016341294112989</v>
+        <v>-0.4495180092307239</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5180538556808303</v>
+        <v>-0.4495180092307239</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6744283489901572</v>
+        <v>-0.4495180092307239</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4399851686404942</v>
+        <v>-0.439985168640494</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5253338218349384</v>
+        <v>-0.439985168640494</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4438744474348715</v>
+        <v>-0.439985168640494</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5460871412350945</v>
+        <v>-0.439985168640494</v>
       </c>
       <c r="J6" t="n">
         <v>-0.4738465415363986</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4721287422670613</v>
+        <v>-0.4738465415363986</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4626621766599456</v>
+        <v>-0.4738465415363986</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.5547771303887097</v>
+        <v>-0.4738465415363986</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3988038196159306</v>
+        <v>-0.3988038196159307</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4798964093205661</v>
+        <v>-0.3988038196159307</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4207398942038617</v>
+        <v>-0.3988038196159307</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.5104955878037143</v>
+        <v>-0.3988038196159307</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4307919091688374</v>
+        <v>-0.430791909168837</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4674390590364241</v>
+        <v>-0.430791909168837</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4703426209965295</v>
+        <v>-0.430791909168837</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.5117853756707318</v>
+        <v>-0.430791909168837</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.397105240755311</v>
+        <v>-0.3971052407553111</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4240383310288325</v>
+        <v>-0.3971052407553111</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4229555064112622</v>
+        <v>-0.3971052407553111</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4863714286627516</v>
+        <v>-0.3971052407553111</v>
       </c>
     </row>
   </sheetData>

--- a/results/final_results/metrics/all_metrics_by_strat.xlsx
+++ b/results/final_results/metrics/all_metrics_by_strat.xlsx
@@ -567,76 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.492087951848628</v>
+        <v>1.061178901566156</v>
       </c>
       <c r="C2" t="n">
-        <v>2.492087951848628</v>
+        <v>1.82334221379167</v>
       </c>
       <c r="D2" t="n">
-        <v>2.492087951848628</v>
+        <v>2.924212086940387</v>
       </c>
       <c r="E2" t="n">
-        <v>2.492087951848628</v>
+        <v>2.504747943975057</v>
       </c>
       <c r="F2" t="n">
-        <v>3.146294190546269</v>
+        <v>1.888377631694168</v>
       </c>
       <c r="G2" t="n">
-        <v>3.146294190546269</v>
+        <v>2.032095552961039</v>
       </c>
       <c r="H2" t="n">
-        <v>3.146294190546269</v>
+        <v>1.787542246203888</v>
       </c>
       <c r="I2" t="n">
-        <v>3.146294190546269</v>
+        <v>1.259161126550745</v>
       </c>
       <c r="J2" t="n">
-        <v>2.608486965426043</v>
+        <v>1.417593742320825</v>
       </c>
       <c r="K2" t="n">
-        <v>2.608486965426043</v>
+        <v>2.429525908024328</v>
       </c>
       <c r="L2" t="n">
-        <v>2.608486965426043</v>
+        <v>1.698822467259674</v>
       </c>
       <c r="M2" t="n">
-        <v>2.608486965426043</v>
+        <v>1.646165452559609</v>
       </c>
       <c r="N2" t="n">
-        <v>4.093838582178354</v>
+        <v>2.238048955574774</v>
       </c>
       <c r="O2" t="n">
-        <v>4.093838582178354</v>
+        <v>1.476408831168503</v>
       </c>
       <c r="P2" t="n">
-        <v>4.093838582178354</v>
+        <v>1.683181110795882</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.093838582178354</v>
+        <v>2.212863786910388</v>
       </c>
       <c r="R2" t="n">
-        <v>2.769233054757132</v>
+        <v>1.410638390910292</v>
       </c>
       <c r="S2" t="n">
-        <v>2.769233054757132</v>
+        <v>2.067675760473938</v>
       </c>
       <c r="T2" t="n">
-        <v>2.769233054757132</v>
+        <v>1.402520515108208</v>
       </c>
       <c r="U2" t="n">
-        <v>2.769233054757132</v>
+        <v>1.561801680626045</v>
       </c>
       <c r="V2" t="n">
-        <v>3.957493580185496</v>
+        <v>2.036452820393287</v>
       </c>
       <c r="W2" t="n">
-        <v>3.957493580185496</v>
+        <v>1.716675828919638</v>
       </c>
       <c r="X2" t="n">
-        <v>3.957493580185496</v>
+        <v>2.170331355664562</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.957493580185496</v>
+        <v>2.750510557344534</v>
       </c>
     </row>
     <row r="3">
@@ -646,76 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0812915854115337</v>
+        <v>0.05025795296319169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0812915854115337</v>
+        <v>0.07290245429817044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0812915854115337</v>
+        <v>0.09712068889725312</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0812915854115337</v>
+        <v>0.08874427423483544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09295871421221302</v>
+        <v>0.07456026650848746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09295871421221302</v>
+        <v>0.07810369491517077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09295871421221302</v>
+        <v>0.07197462611068306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09295871421221302</v>
+        <v>0.05680879953402451</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08350974405608635</v>
+        <v>0.06167621947092417</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08350974405608635</v>
+        <v>0.08714395871911851</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08350974405608635</v>
+        <v>0.06962650750091548</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08350974405608635</v>
+        <v>0.06819858826982617</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1071088531051336</v>
+        <v>0.08291778293141183</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1071088531051336</v>
+        <v>0.0634077472028145</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1071088531051336</v>
+        <v>0.06920508645662427</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1071088531051336</v>
+        <v>0.08234466444640498</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08646517929120412</v>
+        <v>0.06146886238268912</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08646517929120412</v>
+        <v>0.07895673633374756</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08646517929120412</v>
+        <v>0.06122614091490397</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08646517929120412</v>
+        <v>0.06585468972981179</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1052331054747297</v>
+        <v>0.07820866103016511</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1052331054747297</v>
+        <v>0.07010475241083092</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1052331054747297</v>
+        <v>0.08136721142503966</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1052331054747297</v>
+        <v>0.09375835247543862</v>
       </c>
     </row>
     <row r="4">
@@ -725,76 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2150579431503619</v>
+        <v>0.2057140052586332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2150579431503619</v>
+        <v>0.2189005934687788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2150579431503619</v>
+        <v>0.1958893912892033</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2150579431503619</v>
+        <v>0.1942232575497569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2084498214582717</v>
+        <v>0.2004834154055149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2084498214582717</v>
+        <v>0.2032589035064503</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2084498214582717</v>
+        <v>0.1938603065525396</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2084498214582717</v>
+        <v>0.1817916947730303</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2007413104580969</v>
+        <v>0.190615706911966</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2007413104580969</v>
+        <v>0.1901077525752783</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2007413104580969</v>
+        <v>0.1791459139811063</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2007413104580969</v>
+        <v>0.1669601798454778</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1969015060166246</v>
+        <v>0.1836308610368612</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1969015060166246</v>
+        <v>0.1851402546473044</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1969015060166246</v>
+        <v>0.180079187442362</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1969015060166246</v>
+        <v>0.1774343740270617</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1986420459004891</v>
+        <v>0.1864796552316213</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1986420459004891</v>
+        <v>0.190664705329183</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1986420459004891</v>
+        <v>0.1764341849494738</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1986420459004891</v>
+        <v>0.1683549508026973</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1919611883468353</v>
+        <v>0.1796355746314554</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1919611883468353</v>
+        <v>0.1828691665071634</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1919611883468353</v>
+        <v>0.1750459859746981</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1919611883468353</v>
+        <v>0.1751948960758956</v>
       </c>
     </row>
     <row r="5">
@@ -804,76 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3779985255168981</v>
+        <v>0.2443098266450311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3779985255168981</v>
+        <v>0.333039089309588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3779985255168981</v>
+        <v>0.4957935100929892</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3779985255168981</v>
+        <v>0.4569188847638423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4459524770129001</v>
+        <v>0.371902415756812</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4459524770129001</v>
+        <v>0.3842571890716325</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4459524770129001</v>
+        <v>0.3712705679188466</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4459524770129001</v>
+        <v>0.3124939211604313</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4160067694363206</v>
+        <v>0.3235631547373414</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4160067694363206</v>
+        <v>0.4583924513263157</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4160067694363206</v>
+        <v>0.388658082976197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4160067694363206</v>
+        <v>0.4084721778147591</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5439717312070244</v>
+        <v>0.45154601172821</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5439717312070244</v>
+        <v>0.3424849302687168</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5439717312070244</v>
+        <v>0.3843036357478832</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5439717312070244</v>
+        <v>0.4640851858493105</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4352813569717226</v>
+        <v>0.3296277135773354</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4352813569717226</v>
+        <v>0.4141130168660664</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4352813569717226</v>
+        <v>0.3470197169127828</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4352813569717226</v>
+        <v>0.3911657448493441</v>
       </c>
       <c r="V5" t="n">
-        <v>0.548199906350833</v>
+        <v>0.4353740131408816</v>
       </c>
       <c r="W5" t="n">
-        <v>0.548199906350833</v>
+        <v>0.3833601571541299</v>
       </c>
       <c r="X5" t="n">
-        <v>0.548199906350833</v>
+        <v>0.4648333463459186</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.548199906350833</v>
+        <v>0.5351660041216147</v>
       </c>
     </row>
     <row r="6">
@@ -883,76 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5061547306553378</v>
+        <v>-0.4744768554083818</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5061547306553378</v>
+        <v>-0.4243217500465033</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5061547306553378</v>
+        <v>-0.3589945677748207</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5061547306553378</v>
+        <v>-0.3737818933449653</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4257966510215609</v>
+        <v>-0.3925535577012682</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4257966510215609</v>
+        <v>-0.479581734310413</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4257966510215609</v>
+        <v>-0.4835013648903937</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4257966510215609</v>
+        <v>-0.4830991860737468</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4421987289573991</v>
+        <v>-0.442198728957399</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4421987289573991</v>
+        <v>-0.444023073271784</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4421987289573991</v>
+        <v>-0.4462568251409467</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4421987289573991</v>
+        <v>-0.3912868585517444</v>
       </c>
       <c r="N6" t="n">
         <v>-0.3530894921614827</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3530894921614827</v>
+        <v>-0.4661413231029029</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3530894921614827</v>
+        <v>-0.4796519235570331</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3530894921614827</v>
+        <v>-0.4074250475293928</v>
       </c>
       <c r="R6" t="n">
         <v>-0.4431614635843616</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4431614635843616</v>
+        <v>-0.4727357914381067</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4431614635843616</v>
+        <v>-0.4604405018055654</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4431614635843616</v>
+        <v>-0.4252135927864323</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.365930157512839</v>
+        <v>-0.3659301575128386</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.365930157512839</v>
+        <v>-0.4403302962311643</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.365930157512839</v>
+        <v>-0.4574955855052214</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.365930157512839</v>
+        <v>-0.3709921302289015</v>
       </c>
     </row>
   </sheetData>
@@ -1103,76 +1103,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.419828913033111</v>
+        <v>6.599086400253861</v>
       </c>
       <c r="C2" t="n">
-        <v>8.419828913033111</v>
+        <v>3.493372706751606</v>
       </c>
       <c r="D2" t="n">
-        <v>8.419828913033111</v>
+        <v>1.928477972331316</v>
       </c>
       <c r="E2" t="n">
-        <v>8.419828913033111</v>
+        <v>3.416016559236335</v>
       </c>
       <c r="F2" t="n">
-        <v>4.595316747163769</v>
+        <v>3.694689130068658</v>
       </c>
       <c r="G2" t="n">
-        <v>4.595316747163769</v>
+        <v>2.44387160170255</v>
       </c>
       <c r="H2" t="n">
-        <v>4.595316747163769</v>
+        <v>1.674070330684425</v>
       </c>
       <c r="I2" t="n">
-        <v>4.595316747163769</v>
+        <v>2.19938850292108</v>
       </c>
       <c r="J2" t="n">
-        <v>4.953039512837357</v>
+        <v>3.970273092274673</v>
       </c>
       <c r="K2" t="n">
-        <v>4.953039512837357</v>
+        <v>2.188827807692037</v>
       </c>
       <c r="L2" t="n">
-        <v>4.953039512837357</v>
+        <v>1.654143949432997</v>
       </c>
       <c r="M2" t="n">
-        <v>4.953039512837357</v>
+        <v>1.687607920236002</v>
       </c>
       <c r="N2" t="n">
-        <v>3.892984052012319</v>
+        <v>3.228519216870875</v>
       </c>
       <c r="O2" t="n">
-        <v>3.892984052012319</v>
+        <v>2.222494140688087</v>
       </c>
       <c r="P2" t="n">
-        <v>3.892984052012319</v>
+        <v>1.666522121822827</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.892984052012319</v>
+        <v>2.226898811446031</v>
       </c>
       <c r="R2" t="n">
-        <v>4.756493123702352</v>
+        <v>3.650067298545854</v>
       </c>
       <c r="S2" t="n">
-        <v>4.756493123702352</v>
+        <v>2.597895887573114</v>
       </c>
       <c r="T2" t="n">
-        <v>4.756493123702352</v>
+        <v>1.618670058081498</v>
       </c>
       <c r="U2" t="n">
-        <v>4.756493123702352</v>
+        <v>1.963717017619762</v>
       </c>
       <c r="V2" t="n">
-        <v>3.048826966925728</v>
+        <v>2.629423881492796</v>
       </c>
       <c r="W2" t="n">
-        <v>3.048826966925728</v>
+        <v>1.978597735822341</v>
       </c>
       <c r="X2" t="n">
-        <v>3.048826966925728</v>
+        <v>1.387327700933589</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.048826966925728</v>
+        <v>2.078861322634379</v>
       </c>
     </row>
     <row r="3">
@@ -1182,76 +1182,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1504763314694926</v>
+        <v>0.1473941626726116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1504763314694926</v>
+        <v>0.1072411036044494</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1504763314694926</v>
+        <v>0.07556520252253618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1504763314694926</v>
+        <v>0.1059382897760857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1136251803907806</v>
+        <v>0.1105360653562675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1136251803907806</v>
+        <v>0.08745166560084772</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1136251803907806</v>
+        <v>0.06895856037522829</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1136251803907806</v>
+        <v>0.08203629620338693</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1179468917816864</v>
+        <v>0.1148391729851939</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1179468917816864</v>
+        <v>0.08179377795531773</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1179468917816864</v>
+        <v>0.06841663746212445</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1179468917816864</v>
+        <v>0.06932458870951619</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1043287088477731</v>
+        <v>0.1026900217349038</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1043287088477731</v>
+        <v>0.08256430750223043</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1043287088477731</v>
+        <v>0.0687537216845997</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1043287088477731</v>
+        <v>0.08266456260084176</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1156035161162625</v>
+        <v>0.1098172575905818</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1156035161162625</v>
+        <v>0.09068216018456754</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1156035161162625</v>
+        <v>0.06744242546583323</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1156035161162625</v>
+        <v>0.07643777804452023</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09133498103481874</v>
+        <v>0.09132749702450371</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09133498103481874</v>
+        <v>0.07680334740578298</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09133498103481874</v>
+        <v>0.06076981991351627</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09133498103481874</v>
+        <v>0.07922300703271912</v>
       </c>
     </row>
     <row r="4">
@@ -1261,76 +1261,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2182854841355748</v>
+        <v>0.2180299146965831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2182854841355748</v>
+        <v>0.2081479936180425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2182854841355748</v>
+        <v>0.2225780751651071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2182854841355748</v>
+        <v>0.2236793107203753</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1926866665343974</v>
+        <v>0.192197608604847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1926866665343974</v>
+        <v>0.1889476966092375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1926866665343974</v>
+        <v>0.2046130002600217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1926866665343974</v>
+        <v>0.1911760755665227</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1875770227546162</v>
+        <v>0.1874857614111211</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1875770227546162</v>
+        <v>0.177976126356275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1875770227546162</v>
+        <v>0.1889033293826375</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1875770227546162</v>
+        <v>0.186467471276462</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1824644409893553</v>
+        <v>0.1819634258977607</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1824644409893553</v>
+        <v>0.1767627633503751</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1824644409893553</v>
+        <v>0.1901364145416619</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1824644409893553</v>
+        <v>0.1867028672648541</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1788882316792169</v>
+        <v>0.1784092338772036</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1788882316792169</v>
+        <v>0.1742347317401977</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1788882316792169</v>
+        <v>0.183998338259406</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1788882316792169</v>
+        <v>0.1856444499383295</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1742628529171175</v>
+        <v>0.1734213286374899</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1742628529171175</v>
+        <v>0.168943561535694</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1742628529171175</v>
+        <v>0.1830531789899434</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1742628529171175</v>
+        <v>0.1812455533357473</v>
       </c>
     </row>
     <row r="5">
@@ -1340,76 +1340,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6893556484774468</v>
+        <v>0.6760272455168811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6893556484774468</v>
+        <v>0.5152156489254461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6893556484774468</v>
+        <v>0.3394997574063949</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6893556484774468</v>
+        <v>0.4736168465241769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5896888582609676</v>
+        <v>0.5751167569598984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5896888582609676</v>
+        <v>0.4628353092957063</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5896888582609676</v>
+        <v>0.3370194478727936</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5896888582609676</v>
+        <v>0.429113820650854</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6287917893652769</v>
+        <v>0.6125221036565711</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6287917893652769</v>
+        <v>0.4595772457232934</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6287917893652769</v>
+        <v>0.3621780393480603</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6287917893652769</v>
+        <v>0.3717784567729434</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5717755650475455</v>
+        <v>0.5643442973677689</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5717755650475455</v>
+        <v>0.467091065659419</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5717755650475455</v>
+        <v>0.3616020731764386</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5717755650475455</v>
+        <v>0.4427600058416616</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6462332095918039</v>
+        <v>0.6155357276303723</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6462332095918039</v>
+        <v>0.5204597228053484</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6462332095918039</v>
+        <v>0.3665382312896273</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6462332095918039</v>
+        <v>0.4117428669152923</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5241219198807636</v>
+        <v>0.5266220582095155</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5241219198807636</v>
+        <v>0.4546094962580517</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5241219198807636</v>
+        <v>0.331979047011551</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5241219198807636</v>
+        <v>0.4371031761864132</v>
       </c>
     </row>
     <row r="6">
@@ -1419,76 +1419,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3228682503037497</v>
+        <v>-0.3228682503037499</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3228682503037497</v>
+        <v>-0.2980877315236105</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3228682503037497</v>
+        <v>-0.3276596730205168</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3228682503037497</v>
+        <v>-0.4024296333857031</v>
       </c>
       <c r="F6" t="n">
         <v>-0.4085479270002076</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4085479270002076</v>
+        <v>-0.343314351934211</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4085479270002076</v>
+        <v>-0.4595821733755375</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4085479270002076</v>
+        <v>-0.4002041191788562</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3884951363823687</v>
+        <v>-0.3884951363823685</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3884951363823687</v>
+        <v>-0.355746450166844</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3884951363823687</v>
+        <v>-0.4238950206165529</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3884951363823687</v>
+        <v>-0.4546128943595502</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3968656336808146</v>
+        <v>-0.3968656336808142</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3968656336808146</v>
+        <v>-0.3584880971539443</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3968656336808146</v>
+        <v>-0.4163784855841275</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3968656336808146</v>
+        <v>-0.413880745187569</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3861405539481917</v>
+        <v>-0.3861405539481916</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3861405539481917</v>
+        <v>-0.3393257530452836</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3861405539481917</v>
+        <v>-0.4263723787536947</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.3861405539481917</v>
+        <v>-0.451682848674827</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4294323469835482</v>
+        <v>-0.4294323469835479</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4294323469835482</v>
+        <v>-0.383592558276004</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4294323469835482</v>
+        <v>-0.4662549349223727</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4294323469835482</v>
+        <v>-0.4649829341141298</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1639,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.031838502882168</v>
+        <v>3.107514104694014</v>
       </c>
       <c r="C2" t="n">
-        <v>7.031838502882168</v>
+        <v>2.331109313891435</v>
       </c>
       <c r="D2" t="n">
-        <v>7.031838502882168</v>
+        <v>3.584121095670191</v>
       </c>
       <c r="E2" t="n">
-        <v>7.031838502882168</v>
+        <v>3.279888227450619</v>
       </c>
       <c r="F2" t="n">
-        <v>12.56001733640849</v>
+        <v>5.659532655916158</v>
       </c>
       <c r="G2" t="n">
-        <v>12.56001733640849</v>
+        <v>2.687466979650546</v>
       </c>
       <c r="H2" t="n">
-        <v>12.56001733640849</v>
+        <v>2.195162109136188</v>
       </c>
       <c r="I2" t="n">
-        <v>12.56001733640849</v>
+        <v>1.080040744618192</v>
       </c>
       <c r="J2" t="n">
-        <v>8.655010061477739</v>
+        <v>4.041543410907276</v>
       </c>
       <c r="K2" t="n">
-        <v>8.655010061477739</v>
+        <v>2.774904676929304</v>
       </c>
       <c r="L2" t="n">
-        <v>8.655010061477739</v>
+        <v>2.4502190769265</v>
       </c>
       <c r="M2" t="n">
-        <v>8.655010061477739</v>
+        <v>2.779279771802849</v>
       </c>
       <c r="N2" t="n">
-        <v>10.63383618164951</v>
+        <v>5.558004022275029</v>
       </c>
       <c r="O2" t="n">
-        <v>10.63383618164951</v>
+        <v>3.201348955650891</v>
       </c>
       <c r="P2" t="n">
-        <v>10.63383618164951</v>
+        <v>2.504005718847303</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.63383618164951</v>
+        <v>1.548902890697653</v>
       </c>
       <c r="R2" t="n">
-        <v>7.644994757638976</v>
+        <v>3.85828686644459</v>
       </c>
       <c r="S2" t="n">
-        <v>7.644994757638976</v>
+        <v>2.396651658070254</v>
       </c>
       <c r="T2" t="n">
-        <v>7.644994757638976</v>
+        <v>2.221027104144354</v>
       </c>
       <c r="U2" t="n">
-        <v>7.644994757638976</v>
+        <v>2.053768036451745</v>
       </c>
       <c r="V2" t="n">
-        <v>8.739737523653844</v>
+        <v>4.512437007687559</v>
       </c>
       <c r="W2" t="n">
-        <v>8.739737523653844</v>
+        <v>2.861094154219793</v>
       </c>
       <c r="X2" t="n">
-        <v>8.739737523653844</v>
+        <v>2.095452248170827</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.739737523653844</v>
+        <v>1.730313709472689</v>
       </c>
     </row>
     <row r="3">
@@ -1718,76 +1718,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1390713680315727</v>
+        <v>0.1005216245182852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1390713680315727</v>
+        <v>0.08500004175773479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1390713680315727</v>
+        <v>0.1087430761695387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1390713680315727</v>
+        <v>0.1035931041748051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1769723635227169</v>
+        <v>0.1371734070688724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1769723635227169</v>
+        <v>0.09250201532272739</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1769723635227169</v>
+        <v>0.08193933001210274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1769723635227169</v>
+        <v>0.05090677700245116</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1522508725477265</v>
+        <v>0.1159157942907578</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1522508725477265</v>
+        <v>0.09423920401040897</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1522508725477265</v>
+        <v>0.08758743415506376</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1522508725477265</v>
+        <v>0.09432513844771195</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1657560660752546</v>
+        <v>0.1359895886925275</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1657560660752546</v>
+        <v>0.1022082170064109</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1657560660752546</v>
+        <v>0.08872864075708087</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1657560660752546</v>
+        <v>0.06548999391409183</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1443208100905056</v>
+        <v>0.1131180644599448</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1443208100905056</v>
+        <v>0.08643427495464295</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1443208100905056</v>
+        <v>0.082530887794241</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1443208100905056</v>
+        <v>0.07862439982161096</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1528802605677464</v>
+        <v>0.122691890779556</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1528802605677464</v>
+        <v>0.09591526369121728</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1528802605677464</v>
+        <v>0.07961629555152316</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1528802605677464</v>
+        <v>0.07046810581942475</v>
       </c>
     </row>
     <row r="4">
@@ -1797,76 +1797,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.215445014129982</v>
+        <v>0.2088379285045527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215445014129982</v>
+        <v>0.2030065422422599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.215445014129982</v>
+        <v>0.2037586334314477</v>
       </c>
       <c r="E4" t="n">
-        <v>0.215445014129982</v>
+        <v>0.1923732605267695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21184020494355</v>
+        <v>0.2022914022416213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21184020494355</v>
+        <v>0.2005761362044863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.21184020494355</v>
+        <v>0.1937840255406868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.21184020494355</v>
+        <v>0.1769164474750304</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2043671409019974</v>
+        <v>0.1946863332284452</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2043671409019974</v>
+        <v>0.1884541371310939</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2043671409019974</v>
+        <v>0.1823827824357437</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2043671409019974</v>
+        <v>0.1691073472216364</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1964230588243261</v>
+        <v>0.1869956192230663</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1964230588243261</v>
+        <v>0.1888135602146087</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1964230588243261</v>
+        <v>0.1763704943131265</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1964230588243261</v>
+        <v>0.1668265648858046</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1984387812337679</v>
+        <v>0.1895026397365492</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1984387812337679</v>
+        <v>0.1851914232460911</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1984387812337679</v>
+        <v>0.1813384879687738</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1984387812337679</v>
+        <v>0.1724869297510723</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1875354613161436</v>
+        <v>0.179087641508249</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1875354613161436</v>
+        <v>0.1818008457363953</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1875354613161436</v>
+        <v>0.1722966416276191</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1875354613161436</v>
+        <v>0.1637360810514945</v>
       </c>
     </row>
     <row r="5">
@@ -1876,76 +1876,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6455074794521276</v>
+        <v>0.4813379697744596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6455074794521276</v>
+        <v>0.4187059235573756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6455074794521276</v>
+        <v>0.5336857356089605</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6455074794521276</v>
+        <v>0.5385005373986976</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8354049863663771</v>
+        <v>0.6780980582903344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8354049863663771</v>
+        <v>0.4611815596468668</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8354049863663771</v>
+        <v>0.4228384139687449</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8354049863663771</v>
+        <v>0.287744738994016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7449870457439985</v>
+        <v>0.5953976962252511</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7449870457439985</v>
+        <v>0.5000643946853424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7449870457439985</v>
+        <v>0.4802395981973913</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7449870457439985</v>
+        <v>0.5577826155837394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8438727462415755</v>
+        <v>0.7272340884644262</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8438727462415755</v>
+        <v>0.5413182024121537</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8438727462415755</v>
+        <v>0.5030809779302025</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8438727462415755</v>
+        <v>0.3925633424084514</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7272812763372626</v>
+        <v>0.5969207849410649</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7272812763372626</v>
+        <v>0.4667293627296391</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7272812763372626</v>
+        <v>0.4551206349997397</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7272812763372626</v>
+        <v>0.455828160052934</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8152072119844249</v>
+        <v>0.6850941234485166</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8152072119844249</v>
+        <v>0.5275842546425278</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8152072119844249</v>
+        <v>0.4620884934228496</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8152072119844249</v>
+        <v>0.4303761600185285</v>
       </c>
     </row>
     <row r="6">
@@ -1958,73 +1958,73 @@
         <v>-0.4577144551053585</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4577144551053585</v>
+        <v>-0.4257754978388464</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4577144551053585</v>
+        <v>-0.384279615461348</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4577144551053585</v>
+        <v>-0.3052461540836791</v>
       </c>
       <c r="F6" t="n">
         <v>-0.3382265564094655</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3382265564094655</v>
+        <v>-0.3639920926084612</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3382265564094655</v>
+        <v>-0.3889459820640061</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3382265564094655</v>
+        <v>-0.4431991254542811</v>
       </c>
       <c r="J6" t="n">
         <v>-0.3957694572692457</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3957694572692457</v>
+        <v>-0.3674525522288771</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3957694572692457</v>
+        <v>-0.4125391414777935</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3957694572692457</v>
+        <v>-0.3121279303464082</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3923185056843573</v>
+        <v>-0.3923185056843571</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3923185056843573</v>
+        <v>-0.3484732616943526</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3923185056843573</v>
+        <v>-0.4003108955481066</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3923185056843573</v>
+        <v>-0.3559589076040307</v>
       </c>
       <c r="R6" t="n">
         <v>-0.3722264658311051</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3722264658311051</v>
+        <v>-0.3601100009667118</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3722264658311051</v>
+        <v>-0.4211418703673542</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.3722264658311051</v>
+        <v>-0.3365335330011847</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3669212371587891</v>
+        <v>-0.3669212371587888</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3669212371587891</v>
+        <v>-0.3723037416529474</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3669212371587891</v>
+        <v>-0.4171697362143048</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3669212371587891</v>
+        <v>-0.3481310448079924</v>
       </c>
     </row>
   </sheetData>
@@ -2175,76 +2175,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.255216394905959</v>
+        <v>1.713856309567261</v>
       </c>
       <c r="C2" t="n">
-        <v>3.255216394905959</v>
+        <v>2.126293931837699</v>
       </c>
       <c r="D2" t="n">
-        <v>3.255216394905959</v>
+        <v>1.222448860302668</v>
       </c>
       <c r="E2" t="n">
-        <v>3.255216394905959</v>
+        <v>3.204737579535382</v>
       </c>
       <c r="F2" t="n">
-        <v>3.744591270921114</v>
+        <v>1.526598804542164</v>
       </c>
       <c r="G2" t="n">
-        <v>3.744591270921114</v>
+        <v>1.141586518999498</v>
       </c>
       <c r="H2" t="n">
-        <v>3.744591270921114</v>
+        <v>0.7693298631982859</v>
       </c>
       <c r="I2" t="n">
-        <v>3.744591270921114</v>
+        <v>2.476056754324119</v>
       </c>
       <c r="J2" t="n">
-        <v>5.410806963442114</v>
+        <v>3.089399738459683</v>
       </c>
       <c r="K2" t="n">
-        <v>5.410806963442114</v>
+        <v>0.9624011344622343</v>
       </c>
       <c r="L2" t="n">
-        <v>5.410806963442114</v>
+        <v>0.6143673391598241</v>
       </c>
       <c r="M2" t="n">
-        <v>5.410806963442114</v>
+        <v>3.272346207146099</v>
       </c>
       <c r="N2" t="n">
-        <v>3.628690556795216</v>
+        <v>1.504146026793536</v>
       </c>
       <c r="O2" t="n">
-        <v>3.628690556795216</v>
+        <v>1.662507430258918</v>
       </c>
       <c r="P2" t="n">
-        <v>3.628690556795216</v>
+        <v>0.653773254373571</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.628690556795216</v>
+        <v>1.74316285680514</v>
       </c>
       <c r="R2" t="n">
-        <v>8.235916268216402</v>
+        <v>4.888287108202757</v>
       </c>
       <c r="S2" t="n">
-        <v>8.235916268216402</v>
+        <v>1.827852949733283</v>
       </c>
       <c r="T2" t="n">
-        <v>8.235916268216402</v>
+        <v>0.5625087073662081</v>
       </c>
       <c r="U2" t="n">
-        <v>8.235916268216402</v>
+        <v>2.986193557439884</v>
       </c>
       <c r="V2" t="n">
-        <v>4.403425212402173</v>
+        <v>1.682711882058966</v>
       </c>
       <c r="W2" t="n">
-        <v>4.403425212402173</v>
+        <v>1.207606201421269</v>
       </c>
       <c r="X2" t="n">
-        <v>4.403425212402173</v>
+        <v>0.6978887290991813</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.403425212402173</v>
+        <v>1.60210781391204</v>
       </c>
     </row>
     <row r="3">
@@ -2254,76 +2254,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09473147083974687</v>
+        <v>0.07002942002679391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09473147083974687</v>
+        <v>0.08034220544659121</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09473147083974687</v>
+        <v>0.05563557788782392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09473147083974687</v>
+        <v>0.1022684650603851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1022051231739105</v>
+        <v>0.06485529724393801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1022051231739105</v>
+        <v>0.05298638100641795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1022051231739105</v>
+        <v>0.03944280432804748</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1022051231739105</v>
+        <v>0.08813769384751069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1231352132854484</v>
+        <v>0.1001919047617359</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1231352132854484</v>
+        <v>0.04676699189113709</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1231352132854484</v>
+        <v>0.03300364771767894</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1231352132854484</v>
+        <v>0.1034611481570828</v>
       </c>
       <c r="N3" t="n">
-        <v>0.100502755328113</v>
+        <v>0.0642110718529878</v>
       </c>
       <c r="O3" t="n">
-        <v>0.100502755328113</v>
+        <v>0.06864455312684958</v>
       </c>
       <c r="P3" t="n">
-        <v>0.100502755328113</v>
+        <v>0.03469399777008775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.100502755328113</v>
+        <v>0.07080890039466214</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1490594510693957</v>
+        <v>0.1277235311810787</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1490594510693957</v>
+        <v>0.0730185801483676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1490594510693957</v>
+        <v>0.03071952934239786</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1490594510693957</v>
+        <v>0.0982869481930746</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1111989479547402</v>
+        <v>0.06919240879920663</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1111989479547402</v>
+        <v>0.05515611217538918</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1111989479547402</v>
+        <v>0.03654238668912124</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1111989479547402</v>
+        <v>0.06698336017676576</v>
       </c>
     </row>
     <row r="4">
@@ -2333,76 +2333,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2481381914017457</v>
+        <v>0.2461588661033159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2481381914017457</v>
+        <v>0.2310977427960638</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2481381914017457</v>
+        <v>0.1984052441760236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2481381914017457</v>
+        <v>0.2751715520930976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2121907060751635</v>
+        <v>0.1998179932502042</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2121907060751635</v>
+        <v>0.203155535281373</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2121907060751635</v>
+        <v>0.1902523847398566</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2121907060751635</v>
+        <v>0.209746949108145</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2313668525460821</v>
+        <v>0.2282393876776826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2313668525460821</v>
+        <v>0.2124764916571692</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2313668525460821</v>
+        <v>0.1837294348085181</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2313668525460821</v>
+        <v>0.2169368473023272</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2082243450538763</v>
+        <v>0.19529295409859</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2082243450538763</v>
+        <v>0.2005139956561934</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2082243450538763</v>
+        <v>0.1887974383343679</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2082243450538763</v>
+        <v>0.2016083985595185</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2253309872240834</v>
+        <v>0.2219677029006689</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2253309872240834</v>
+        <v>0.207566231775431</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2253309872240834</v>
+        <v>0.1788747417547938</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2253309872240834</v>
+        <v>0.205138275882444</v>
       </c>
       <c r="V4" t="n">
-        <v>0.220207113087776</v>
+        <v>0.2049485750666427</v>
       </c>
       <c r="W4" t="n">
-        <v>0.220207113087776</v>
+        <v>0.1969985468043388</v>
       </c>
       <c r="X4" t="n">
-        <v>0.220207113087776</v>
+        <v>0.1875919758754291</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.220207113087776</v>
+        <v>0.1982693821618229</v>
       </c>
     </row>
     <row r="5">
@@ -2412,76 +2412,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3817690066353905</v>
+        <v>0.2844887171254749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3817690066353905</v>
+        <v>0.347654652419044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3817690066353905</v>
+        <v>0.2804138475214116</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3817690066353905</v>
+        <v>0.3716534804651067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4816663512948903</v>
+        <v>0.3245718575640422</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4816663512948903</v>
+        <v>0.2608168216191163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4816663512948903</v>
+        <v>0.2073183176230877</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4816663512948903</v>
+        <v>0.4202096584588085</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5322076690347125</v>
+        <v>0.4389772763639986</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5322076690347125</v>
+        <v>0.2201043114294057</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5322076690347125</v>
+        <v>0.1796317925436128</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5322076690347125</v>
+        <v>0.4769182803366616</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4826657291303224</v>
+        <v>0.3287935919110121</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4826657291303224</v>
+        <v>0.3423429516837785</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4826657291303224</v>
+        <v>0.1837630747332667</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4826657291303224</v>
+        <v>0.3512199933166874</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6615133271535421</v>
+        <v>0.5754149342989565</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6615133271535421</v>
+        <v>0.3517844859628588</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6615133271535421</v>
+        <v>0.1717376586600974</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6615133271535421</v>
+        <v>0.4791253498172064</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5049743688816063</v>
+        <v>0.3376086356136287</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5049743688816063</v>
+        <v>0.2799823301751097</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5049743688816063</v>
+        <v>0.1947971735922612</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5049743688816063</v>
+        <v>0.3378401619373357</v>
       </c>
     </row>
     <row r="6">
@@ -2491,76 +2491,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5620928363606261</v>
+        <v>-0.5620928363606259</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5620928363606261</v>
+        <v>-0.4513533822982601</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5620928363606261</v>
+        <v>-0.4672648600241183</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5620928363606261</v>
+        <v>-0.4710870733445339</v>
       </c>
       <c r="F6" t="n">
         <v>-0.3865669889515791</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3865669889515791</v>
+        <v>-0.3512486399100397</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3865669889515791</v>
+        <v>-0.3905685456691773</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3865669889515791</v>
+        <v>-0.4248046903623074</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4498584133752966</v>
+        <v>-0.4498584133752963</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4498584133752966</v>
+        <v>-0.438491133345094</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4498584133752966</v>
+        <v>-0.4526767650663317</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4498584133752966</v>
+        <v>-0.4048505259602512</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3560798792954976</v>
+        <v>-0.3560798792954974</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3560798792954976</v>
+        <v>-0.3166854591611854</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3560798792954976</v>
+        <v>-0.4146265919634657</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3560798792954976</v>
+        <v>-0.4046031121905306</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4301160760386105</v>
+        <v>-0.4301160760386107</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4301160760386105</v>
+        <v>-0.3552998775270576</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4301160760386105</v>
+        <v>-0.4184201690258433</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4301160760386105</v>
+        <v>-0.4175436102402251</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3592914489991087</v>
+        <v>-0.3592914489991086</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3592914489991087</v>
+        <v>-0.3483788950764338</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3592914489991087</v>
+        <v>-0.4080536017377202</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3592914489991087</v>
+        <v>-0.4051902407429661</v>
       </c>
     </row>
   </sheetData>
@@ -2711,76 +2711,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.65622538147839</v>
+        <v>6.379492138601585</v>
       </c>
       <c r="C2" t="n">
-        <v>11.65622538147839</v>
+        <v>3.870403376453598</v>
       </c>
       <c r="D2" t="n">
-        <v>11.65622538147839</v>
+        <v>3.687376867371738</v>
       </c>
       <c r="E2" t="n">
-        <v>11.65622538147839</v>
+        <v>1.211359782083931</v>
       </c>
       <c r="F2" t="n">
-        <v>5.109138045739504</v>
+        <v>2.949359839648991</v>
       </c>
       <c r="G2" t="n">
-        <v>5.109138045739504</v>
+        <v>2.198139705134757</v>
       </c>
       <c r="H2" t="n">
-        <v>5.109138045739504</v>
+        <v>1.480878210148284</v>
       </c>
       <c r="I2" t="n">
-        <v>5.109138045739504</v>
+        <v>1.066605944643419</v>
       </c>
       <c r="J2" t="n">
-        <v>6.733878104414119</v>
+        <v>3.05956891608967</v>
       </c>
       <c r="K2" t="n">
-        <v>6.733878104414119</v>
+        <v>2.954348665212082</v>
       </c>
       <c r="L2" t="n">
-        <v>6.733878104414119</v>
+        <v>2.008103924955496</v>
       </c>
       <c r="M2" t="n">
-        <v>6.733878104414119</v>
+        <v>1.334896904523792</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2303277724783</v>
+        <v>2.213972539249219</v>
       </c>
       <c r="O2" t="n">
-        <v>4.2303277724783</v>
+        <v>1.89718427602092</v>
       </c>
       <c r="P2" t="n">
-        <v>4.2303277724783</v>
+        <v>1.637716373771159</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.2303277724783</v>
+        <v>1.586112617633864</v>
       </c>
       <c r="R2" t="n">
-        <v>6.111882438747267</v>
+        <v>3.02418756885278</v>
       </c>
       <c r="S2" t="n">
-        <v>6.111882438747267</v>
+        <v>3.188886506602614</v>
       </c>
       <c r="T2" t="n">
-        <v>6.111882438747267</v>
+        <v>2.658564625829637</v>
       </c>
       <c r="U2" t="n">
-        <v>6.111882438747267</v>
+        <v>1.682621343336702</v>
       </c>
       <c r="V2" t="n">
-        <v>5.025118578845433</v>
+        <v>2.478259070749802</v>
       </c>
       <c r="W2" t="n">
-        <v>5.025118578845433</v>
+        <v>1.983041953984996</v>
       </c>
       <c r="X2" t="n">
-        <v>5.025118578845433</v>
+        <v>1.811410940354319</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.025118578845433</v>
+        <v>1.394544361721635</v>
       </c>
     </row>
     <row r="3">
@@ -2790,76 +2790,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1719093317757094</v>
+        <v>0.1451153926648774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1719093317757094</v>
+        <v>0.113306056417928</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1719093317757094</v>
+        <v>0.1104187104950531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1719093317757094</v>
+        <v>0.05527764816564673</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1197568971799481</v>
+        <v>0.09759593141064471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1197568971799481</v>
+        <v>0.08200765745899075</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1197568971799481</v>
+        <v>0.06353775445361376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1197568971799481</v>
+        <v>0.0504452018018775</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1363832734581067</v>
+        <v>0.09964594182771602</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1363832734581067</v>
+        <v>0.09768987486181535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1363832734581067</v>
+        <v>0.07752320819904068</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1363832734581067</v>
+        <v>0.05917397785448819</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1089400195427153</v>
+        <v>0.08236998341144042</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1089400195427153</v>
+        <v>0.07478207533272019</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1089400195427153</v>
+        <v>0.06796700908089481</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1089400195427153</v>
+        <v>0.06653741920037048</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1304439543304987</v>
+        <v>0.09899352387525862</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1304439543304987</v>
+        <v>0.1019862504970643</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1304439543304987</v>
+        <v>0.09191933943748953</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1304439543304987</v>
+        <v>0.06918996237927488</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1187881297899591</v>
+        <v>0.08818441961860013</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1187881297899591</v>
+        <v>0.07691219680783834</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1187881297899591</v>
+        <v>0.07259445592491054</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1187881297899591</v>
+        <v>0.06098691112195542</v>
       </c>
     </row>
     <row r="4">
@@ -2869,76 +2869,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.185741750871033</v>
+        <v>0.1771839175399811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.185741750871033</v>
+        <v>0.180263706628237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185741750871033</v>
+        <v>0.1888400317020981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.185741750871033</v>
+        <v>0.2044345391537007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1796041828859807</v>
+        <v>0.1728784047894013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1796041828859807</v>
+        <v>0.1704112278320128</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1796041828859807</v>
+        <v>0.1685188762126314</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1796041828859807</v>
+        <v>0.1858416420135375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1737895678848184</v>
+        <v>0.1662536041006467</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1737895678848184</v>
+        <v>0.1666040547564717</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1737895678848184</v>
+        <v>0.1649597467497391</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1737895678848184</v>
+        <v>0.1812128860032521</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1682467039370326</v>
+        <v>0.161244248870874</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1682467039370326</v>
+        <v>0.1646367349660497</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1682467039370326</v>
+        <v>0.1627086404802235</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1682467039370326</v>
+        <v>0.1702107077252334</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1676443353423323</v>
+        <v>0.1601210542875644</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1676443353423323</v>
+        <v>0.1653034993094772</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1676443353423323</v>
+        <v>0.1628208839218308</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1676443353423323</v>
+        <v>0.1747666342116584</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1663726111730254</v>
+        <v>0.1579051932094161</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1663726111730254</v>
+        <v>0.1604603938944604</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1663726111730254</v>
+        <v>0.1572367185465308</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1663726111730254</v>
+        <v>0.1645538182275434</v>
       </c>
     </row>
     <row r="5">
@@ -2948,76 +2948,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9255287568333097</v>
+        <v>0.8190099568835443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9255287568333097</v>
+        <v>0.6285572317205388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9255287568333097</v>
+        <v>0.5847208851841468</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9255287568333097</v>
+        <v>0.2703929012899681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6667823391172029</v>
+        <v>0.5645351224147115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6667823391172029</v>
+        <v>0.4812338864187511</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6667823391172029</v>
+        <v>0.3770364239400931</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6667823391172029</v>
+        <v>0.2714418644568522</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7847609906510427</v>
+        <v>0.599361092751964</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7847609906510427</v>
+        <v>0.5863595277114383</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7847609906510427</v>
+        <v>0.4699522745791516</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7847609906510427</v>
+        <v>0.3265439845896292</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6475016567545164</v>
+        <v>0.5108398221222956</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6475016567545164</v>
+        <v>0.4542247229826395</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6475016567545164</v>
+        <v>0.4177221866048098</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6475016567545164</v>
+        <v>0.3909120647555267</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7780993856078117</v>
+        <v>0.6182417691147242</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7780993856078117</v>
+        <v>0.6169636512420595</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7780993856078117</v>
+        <v>0.5645426877894816</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7780993856078117</v>
+        <v>0.3958991525549408</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7139884921708718</v>
+        <v>0.5584643406987174</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7139884921708718</v>
+        <v>0.4793219992867885</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7139884921708718</v>
+        <v>0.4616889527838102</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7139884921708718</v>
+        <v>0.3706198481376065</v>
       </c>
     </row>
     <row r="6">
@@ -3027,76 +3027,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4279143970599454</v>
+        <v>-0.4279143970599455</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4279143970599454</v>
+        <v>-0.4533245623508346</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4279143970599454</v>
+        <v>-0.502087915855463</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4279143970599454</v>
+        <v>-0.57037398520349</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4715548393187676</v>
+        <v>-0.4715548393187677</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4715548393187676</v>
+        <v>-0.5105372015489202</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4715548393187676</v>
+        <v>-0.5259777705913165</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4715548393187676</v>
+        <v>-0.5540725489384561</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4802793040235313</v>
+        <v>-0.4802793040235311</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4802793040235313</v>
+        <v>-0.480546280311394</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4802793040235313</v>
+        <v>-0.4456975532709364</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4802793040235313</v>
+        <v>-0.4914513448801968</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4352553451113081</v>
+        <v>-0.4352553451113083</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4352553451113081</v>
+        <v>-0.4586877916273334</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4352553451113081</v>
+        <v>-0.4551791463004119</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4352553451113081</v>
+        <v>-0.46490964732194</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4923132610868639</v>
+        <v>-0.492313261086864</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4923132610868639</v>
+        <v>-0.4827711319418351</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4923132610868639</v>
+        <v>-0.432124172966504</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4923132610868639</v>
+        <v>-0.4676153157769649</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4329861439652393</v>
+        <v>-0.4329861439652389</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4329861439652393</v>
+        <v>-0.4655283115564157</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4329861439652393</v>
+        <v>-0.4421494461542548</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4329861439652393</v>
+        <v>-0.4737891762034994</v>
       </c>
     </row>
   </sheetData>
@@ -3247,76 +3247,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.728029065452467</v>
+        <v>1.818614241859829</v>
       </c>
       <c r="C2" t="n">
-        <v>3.728029065452467</v>
+        <v>1.733011674298225</v>
       </c>
       <c r="D2" t="n">
-        <v>3.728029065452467</v>
+        <v>2.71032205563027</v>
       </c>
       <c r="E2" t="n">
-        <v>3.728029065452467</v>
+        <v>0.447894154083472</v>
       </c>
       <c r="F2" t="n">
-        <v>4.549916668425563</v>
+        <v>2.203131036742743</v>
       </c>
       <c r="G2" t="n">
-        <v>4.549916668425563</v>
+        <v>1.959453023913989</v>
       </c>
       <c r="H2" t="n">
-        <v>4.549916668425563</v>
+        <v>2.562131406382532</v>
       </c>
       <c r="I2" t="n">
-        <v>4.549916668425563</v>
+        <v>1.171636421847125</v>
       </c>
       <c r="J2" t="n">
-        <v>4.949619318139221</v>
+        <v>2.691421960573145</v>
       </c>
       <c r="K2" t="n">
-        <v>4.949619318139221</v>
+        <v>1.408979948646794</v>
       </c>
       <c r="L2" t="n">
-        <v>4.949619318139221</v>
+        <v>2.198938398484659</v>
       </c>
       <c r="M2" t="n">
-        <v>4.949619318139221</v>
+        <v>0.7953311626153952</v>
       </c>
       <c r="N2" t="n">
-        <v>5.043066674873618</v>
+        <v>2.545963700062983</v>
       </c>
       <c r="O2" t="n">
-        <v>5.043066674873618</v>
+        <v>1.562470713993876</v>
       </c>
       <c r="P2" t="n">
-        <v>5.043066674873618</v>
+        <v>2.285575126843332</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.043066674873618</v>
+        <v>1.017649692778029</v>
       </c>
       <c r="R2" t="n">
-        <v>5.110594904015435</v>
+        <v>2.725974369536307</v>
       </c>
       <c r="S2" t="n">
-        <v>5.110594904015435</v>
+        <v>1.313260801754447</v>
       </c>
       <c r="T2" t="n">
-        <v>5.110594904015435</v>
+        <v>1.984831679813908</v>
       </c>
       <c r="U2" t="n">
-        <v>5.110594904015435</v>
+        <v>1.183819502978078</v>
       </c>
       <c r="V2" t="n">
-        <v>5.910770691477387</v>
+        <v>3.073676002816834</v>
       </c>
       <c r="W2" t="n">
-        <v>5.910770691477387</v>
+        <v>2.092346706570996</v>
       </c>
       <c r="X2" t="n">
-        <v>5.910770691477387</v>
+        <v>2.322755828695485</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.910770691477387</v>
+        <v>1.685417326904668</v>
       </c>
     </row>
     <row r="3">
@@ -3326,76 +3326,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1019642583053355</v>
+        <v>0.0727805500608274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1019642583053355</v>
+        <v>0.07053978705778174</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1019642583053355</v>
+        <v>0.09295977053611959</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1019642583053355</v>
+        <v>0.02540967584956455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1130582779450457</v>
+        <v>0.08212206155774848</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1130582779450457</v>
+        <v>0.07633271060708435</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1130582779450457</v>
+        <v>0.08994369507017752</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1130582779450457</v>
+        <v>0.05398158949944931</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1179067376497009</v>
+        <v>0.09258141696121203</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1179067376497009</v>
+        <v>0.06141933757153062</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1179067376497009</v>
+        <v>0.08202597513626819</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1179067376497009</v>
+        <v>0.04047138386210292</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1189961353617026</v>
+        <v>0.08960759314505173</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1189961353617026</v>
+        <v>0.06587355901260494</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1189961353617026</v>
+        <v>0.08398806825863558</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1189961353617026</v>
+        <v>0.04873921949441251</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1197735847302488</v>
+        <v>0.09327175044403702</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1197735847302488</v>
+        <v>0.05850568079866791</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1197735847302488</v>
+        <v>0.07695598872930187</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1197735847302488</v>
+        <v>0.05438142192237772</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1284190392309739</v>
+        <v>0.09990459382926642</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1284190392309739</v>
+        <v>0.079542828295037</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1284190392309739</v>
+        <v>0.08481535969905085</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1284190392309739</v>
+        <v>0.0692654763318068</v>
       </c>
     </row>
     <row r="4">
@@ -3405,76 +3405,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1931629971261058</v>
+        <v>0.1816332542281471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1931629971261058</v>
+        <v>0.1878862060917557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1931629971261058</v>
+        <v>0.1773208039753112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1931629971261058</v>
+        <v>0.2007252163375169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1991492636226608</v>
+        <v>0.1843635826381102</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1991492636226608</v>
+        <v>0.1947211134976572</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1991492636226608</v>
+        <v>0.1819964896678181</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1991492636226608</v>
+        <v>0.185481982745135</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1843307277091877</v>
+        <v>0.177740310819857</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1843307277091877</v>
+        <v>0.1745206036399087</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1843307277091877</v>
+        <v>0.1727716835260744</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1843307277091877</v>
+        <v>0.1811447317257528</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1819505213962445</v>
+        <v>0.1707609511630386</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1819505213962445</v>
+        <v>0.1742556261526163</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1819505213962445</v>
+        <v>0.1748425555104986</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1819505213962445</v>
+        <v>0.1763170819965288</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1817999399413963</v>
+        <v>0.1700840596928667</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1817999399413963</v>
+        <v>0.1711738825007034</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1817999399413963</v>
+        <v>0.1737714211613166</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1817999399413963</v>
+        <v>0.1753343118741707</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1801408191566706</v>
+        <v>0.1683716385571638</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1801408191566706</v>
+        <v>0.1667079897474424</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1801408191566706</v>
+        <v>0.1683094620503735</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1801408191566706</v>
+        <v>0.1711519555488492</v>
       </c>
     </row>
     <row r="5">
@@ -3484,76 +3484,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5278664124204312</v>
+        <v>0.400700578592336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5278664124204312</v>
+        <v>0.3754388814649495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5278664124204312</v>
+        <v>0.5242462725866198</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5278664124204312</v>
+        <v>0.1265893559025414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5677062314388648</v>
+        <v>0.4454353749403265</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5677062314388648</v>
+        <v>0.3920104463042871</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5677062314388648</v>
+        <v>0.4942056587703624</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5677062314388648</v>
+        <v>0.2910341408934782</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6396477630995868</v>
+        <v>0.5208802467721854</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6396477630995868</v>
+        <v>0.3519317277761551</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6396477630995868</v>
+        <v>0.4747651551585939</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6396477630995868</v>
+        <v>0.2234201540201305</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6540027170494205</v>
+        <v>0.5247545913438751</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6540027170494205</v>
+        <v>0.3780283051229099</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6540027170494205</v>
+        <v>0.4803639938424055</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6540027170494205</v>
+        <v>0.2764293677193004</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6588208157211609</v>
+        <v>0.5483861956991424</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6588208157211609</v>
+        <v>0.3417909317937419</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6588208157211609</v>
+        <v>0.4428575666528135</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6588208157211609</v>
+        <v>0.3101584700740419</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7128813992973259</v>
+        <v>0.5933576146516376</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7128813992973259</v>
+        <v>0.4771386687317267</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7128813992973259</v>
+        <v>0.5039250833899427</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7128813992973259</v>
+        <v>0.404701635512645</v>
       </c>
     </row>
     <row r="6">
@@ -3566,73 +3566,73 @@
         <v>-0.4495180092307239</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4495180092307239</v>
+        <v>-0.5016341294112989</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4495180092307239</v>
+        <v>-0.5180538556808303</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4495180092307239</v>
+        <v>-0.6744283489901572</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.439985168640494</v>
+        <v>-0.4399851686404942</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.439985168640494</v>
+        <v>-0.5253338218349384</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.439985168640494</v>
+        <v>-0.4438744474348715</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.439985168640494</v>
+        <v>-0.5460871412350945</v>
       </c>
       <c r="J6" t="n">
         <v>-0.4738465415363986</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4738465415363986</v>
+        <v>-0.4721287422670613</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4738465415363986</v>
+        <v>-0.4626621766599456</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4738465415363986</v>
+        <v>-0.5547771303887097</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3988038196159307</v>
+        <v>-0.3988038196159306</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3988038196159307</v>
+        <v>-0.4798964093205661</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3988038196159307</v>
+        <v>-0.4207398942038617</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3988038196159307</v>
+        <v>-0.5104955878037143</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.430791909168837</v>
+        <v>-0.4307919091688374</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.430791909168837</v>
+        <v>-0.4674390590364241</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.430791909168837</v>
+        <v>-0.4703426209965295</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.430791909168837</v>
+        <v>-0.5117853756707318</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3971052407553111</v>
+        <v>-0.397105240755311</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3971052407553111</v>
+        <v>-0.4240383310288325</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3971052407553111</v>
+        <v>-0.4229555064112622</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3971052407553111</v>
+        <v>-0.4863714286627516</v>
       </c>
     </row>
   </sheetData>

--- a/results/final_results/metrics/all_metrics_by_strat.xlsx
+++ b/results/final_results/metrics/all_metrics_by_strat.xlsx
@@ -567,76 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.061178901566156</v>
+        <v>7.661318186534288</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82334221379167</v>
+        <v>4.325590137147492</v>
       </c>
       <c r="D2" t="n">
-        <v>2.924212086940387</v>
+        <v>4.008612997819298</v>
       </c>
       <c r="E2" t="n">
-        <v>2.504747943975057</v>
+        <v>5.30512522062129</v>
       </c>
       <c r="F2" t="n">
-        <v>1.888377631694168</v>
+        <v>8.372276363008753</v>
       </c>
       <c r="G2" t="n">
-        <v>2.032095552961039</v>
+        <v>4.566850428374337</v>
       </c>
       <c r="H2" t="n">
-        <v>1.787542246203888</v>
+        <v>8.260989019049966</v>
       </c>
       <c r="I2" t="n">
-        <v>1.259161126550745</v>
+        <v>8.782499058361037</v>
       </c>
       <c r="J2" t="n">
-        <v>1.417593742320825</v>
+        <v>5.545359978891431</v>
       </c>
       <c r="K2" t="n">
-        <v>2.429525908024328</v>
+        <v>3.838158169429772</v>
       </c>
       <c r="L2" t="n">
-        <v>1.698822467259674</v>
+        <v>6.536885459883018</v>
       </c>
       <c r="M2" t="n">
-        <v>1.646165452559609</v>
+        <v>6.794083770234224</v>
       </c>
       <c r="N2" t="n">
-        <v>2.238048955574774</v>
+        <v>5.449923473141176</v>
       </c>
       <c r="O2" t="n">
-        <v>1.476408831168503</v>
+        <v>3.629838595727664</v>
       </c>
       <c r="P2" t="n">
-        <v>1.683181110795882</v>
+        <v>5.9785529021325</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.212863786910388</v>
+        <v>6.811612136300457</v>
       </c>
       <c r="R2" t="n">
-        <v>1.410638390910292</v>
+        <v>5.460854556561864</v>
       </c>
       <c r="S2" t="n">
-        <v>2.067675760473938</v>
+        <v>3.732502606976821</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402520515108208</v>
+        <v>6.142728383094984</v>
       </c>
       <c r="U2" t="n">
-        <v>1.561801680626045</v>
+        <v>7.728932054342549</v>
       </c>
       <c r="V2" t="n">
-        <v>2.036452820393287</v>
+        <v>5.457201316555278</v>
       </c>
       <c r="W2" t="n">
-        <v>1.716675828919638</v>
+        <v>3.636576295371184</v>
       </c>
       <c r="X2" t="n">
-        <v>2.170331355664562</v>
+        <v>5.582094303527655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.750510557344534</v>
+        <v>7.40764410610007</v>
       </c>
     </row>
     <row r="3">
@@ -646,76 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05025795296319169</v>
+        <v>0.1576173214029748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07290245429817044</v>
+        <v>0.1200702714641115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09712068889725312</v>
+        <v>0.1154201172082692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08874427423483544</v>
+        <v>0.1329650768363864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07456026650848746</v>
+        <v>0.1638253228333004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07810369491517077</v>
+        <v>0.123439786188259</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07197462611068306</v>
+        <v>0.1628831905040138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05680879953402451</v>
+        <v>0.1672103770480122</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06167621947092417</v>
+        <v>0.1358409652824528</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08714395871911851</v>
+        <v>0.1128047922776776</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06962650750091548</v>
+        <v>0.1467549892595745</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06819858826982617</v>
+        <v>0.1493668015449612</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08291778293141183</v>
+        <v>0.1347104514882445</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0634077472028145</v>
+        <v>0.1094892752823164</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06920508645662427</v>
+        <v>0.1407866552061614</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08234466444640498</v>
+        <v>0.1495418620483691</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06146886238268912</v>
+        <v>0.1348407258209898</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07895673633374756</v>
+        <v>0.1111402300625326</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06122614091490397</v>
+        <v>0.1425865144596015</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06585468972981179</v>
+        <v>0.1582277707206836</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07820866103016511</v>
+        <v>0.1347972101565211</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07010475241083092</v>
+        <v>0.1095986665046222</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08136721142503966</v>
+        <v>0.1362720181878059</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.09375835247543862</v>
+        <v>0.1552867285924584</v>
       </c>
     </row>
     <row r="4">
@@ -725,76 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2057140052586332</v>
+        <v>0.2656286787841899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2189005934687788</v>
+        <v>0.2828008453711963</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1958893912892033</v>
+        <v>0.2810497631518333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1942232575497569</v>
+        <v>0.1642158719801427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2004834154055149</v>
+        <v>0.2614499978294552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2032589035064503</v>
+        <v>0.2780672942509591</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1938603065525396</v>
+        <v>0.3477691091773947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1817916947730303</v>
+        <v>0.2652496163297411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.190615706911966</v>
+        <v>0.1995251118165812</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1901077525752783</v>
+        <v>0.2098005369458069</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1791459139811063</v>
+        <v>0.2301742977539775</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1669601798454778</v>
+        <v>0.1879707087864528</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1836308610368612</v>
+        <v>0.1974823233634755</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1851402546473044</v>
+        <v>0.2064375915903552</v>
       </c>
       <c r="P4" t="n">
-        <v>0.180079187442362</v>
+        <v>0.2290892974808294</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1774343740270617</v>
+        <v>0.1874898309269275</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1864796552316213</v>
+        <v>0.188622694011044</v>
       </c>
       <c r="S4" t="n">
-        <v>0.190664705329183</v>
+        <v>0.1961405529226862</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1764341849494738</v>
+        <v>0.2083979088809767</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1683549508026973</v>
+        <v>0.1989560157043757</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1796355746314554</v>
+        <v>0.18738301744773</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1828691665071634</v>
+        <v>0.1936813459174035</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1750459859746981</v>
+        <v>0.208146412345212</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1751948960758956</v>
+        <v>0.1989124284287406</v>
       </c>
     </row>
     <row r="5">
@@ -804,76 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2443098266450311</v>
+        <v>0.5933746390804098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.333039089309588</v>
+        <v>0.4245753625895664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4957935100929892</v>
+        <v>0.4106750203732248</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4569188847638423</v>
+        <v>0.8096968656748645</v>
       </c>
       <c r="F5" t="n">
-        <v>0.371902415756812</v>
+        <v>0.626602884656225</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3842571890716325</v>
+        <v>0.4439205499545484</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3712705679188466</v>
+        <v>0.4683658962387259</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3124939211604313</v>
+        <v>0.6303887612042656</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3235631547373414</v>
+        <v>0.6808213965935691</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4583924513263157</v>
+        <v>0.5376763754747489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.388658082976197</v>
+        <v>0.637582000647327</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4084721778147591</v>
+        <v>0.7946280700289946</v>
       </c>
       <c r="N5" t="n">
-        <v>0.45154601172821</v>
+        <v>0.6821392881848141</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3424849302687168</v>
+        <v>0.5303746979357405</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3843036357478832</v>
+        <v>0.6145492467536275</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4640851858493105</v>
+        <v>0.7975998554644366</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3296277135773354</v>
+        <v>0.7148701089652277</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4141130168660664</v>
+        <v>0.5666356518651262</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3470197169127828</v>
+        <v>0.6842031919861423</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3911657448493441</v>
+        <v>0.7952902060312201</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4353740131408816</v>
+        <v>0.7193672724056887</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3833601571541299</v>
+        <v>0.5658710496123939</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4648333463459186</v>
+        <v>0.6546930915234704</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5351660041216147</v>
+        <v>0.7806788636542594</v>
       </c>
     </row>
     <row r="6">
@@ -883,76 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4744768554083818</v>
+        <v>-0.295987949206459</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4243217500465033</v>
+        <v>-0.4391476129857529</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3589945677748207</v>
+        <v>-0.4391476129857529</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3737818933449653</v>
+        <v>-0.2416392933410066</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3925535577012682</v>
+        <v>-0.2676802823532761</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.479581734310413</v>
+        <v>-0.4336583865342357</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4835013648903937</v>
+        <v>-0.4336583865342357</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4830991860737468</v>
+        <v>-0.2485036847826297</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.442198728957399</v>
+        <v>-0.2936779109281978</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.444023073271784</v>
+        <v>-0.291526607792658</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4462568251409467</v>
+        <v>-0.291526607792658</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3912868585517444</v>
+        <v>-0.2376173552014348</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3530894921614827</v>
+        <v>-0.2796519192178166</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4661413231029029</v>
+        <v>-0.2867765052536292</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4796519235570331</v>
+        <v>-0.2867765052536292</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4074250475293928</v>
+        <v>-0.2450872148548334</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4431614635843616</v>
+        <v>-0.2895900760667293</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4727357914381067</v>
+        <v>-0.2764538620993843</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4604405018055654</v>
+        <v>-0.2505379846563264</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4252135927864323</v>
+        <v>-0.338579173129581</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3659301575128386</v>
+        <v>-0.2799262050053164</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4403302962311643</v>
+        <v>-0.274397458499745</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4574955855052214</v>
+        <v>-0.2617433100834199</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3709921302289015</v>
+        <v>-0.3467371123749323</v>
       </c>
     </row>
   </sheetData>
@@ -1103,76 +1103,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.599086400253861</v>
+        <v>29.09667397318901</v>
       </c>
       <c r="C2" t="n">
-        <v>3.493372706751606</v>
+        <v>119.1387802015638</v>
       </c>
       <c r="D2" t="n">
-        <v>1.928477972331316</v>
+        <v>6.475212970038724</v>
       </c>
       <c r="E2" t="n">
-        <v>3.416016559236335</v>
+        <v>6.570778238717313</v>
       </c>
       <c r="F2" t="n">
-        <v>3.694689130068658</v>
+        <v>30.52191996212003</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44387160170255</v>
+        <v>115.2100658340694</v>
       </c>
       <c r="H2" t="n">
-        <v>1.674070330684425</v>
+        <v>6.17061710965057</v>
       </c>
       <c r="I2" t="n">
-        <v>2.19938850292108</v>
+        <v>5.986899653552682</v>
       </c>
       <c r="J2" t="n">
-        <v>3.970273092274673</v>
+        <v>12.00816814809836</v>
       </c>
       <c r="K2" t="n">
-        <v>2.188827807692037</v>
+        <v>43.38794630429422</v>
       </c>
       <c r="L2" t="n">
-        <v>1.654143949432997</v>
+        <v>7.614389425419532</v>
       </c>
       <c r="M2" t="n">
-        <v>1.687607920236002</v>
+        <v>7.225564538494954</v>
       </c>
       <c r="N2" t="n">
-        <v>3.228519216870875</v>
+        <v>12.51214322183455</v>
       </c>
       <c r="O2" t="n">
-        <v>2.222494140688087</v>
+        <v>41.94729816013997</v>
       </c>
       <c r="P2" t="n">
-        <v>1.666522121822827</v>
+        <v>4.949649897158216</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.226898811446031</v>
+        <v>5.503542591976854</v>
       </c>
       <c r="R2" t="n">
-        <v>3.650067298545854</v>
+        <v>9.555741683700957</v>
       </c>
       <c r="S2" t="n">
-        <v>2.597895887573114</v>
+        <v>31.35140164340122</v>
       </c>
       <c r="T2" t="n">
-        <v>1.618670058081498</v>
+        <v>6.380255690131433</v>
       </c>
       <c r="U2" t="n">
-        <v>1.963717017619762</v>
+        <v>6.568287087946119</v>
       </c>
       <c r="V2" t="n">
-        <v>2.629423881492796</v>
+        <v>9.967897970491613</v>
       </c>
       <c r="W2" t="n">
-        <v>1.978597735822341</v>
+        <v>30.22256061277488</v>
       </c>
       <c r="X2" t="n">
-        <v>1.387327700933589</v>
+        <v>6.248578200654281</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.078861322634379</v>
+        <v>6.489758505752438</v>
       </c>
     </row>
     <row r="3">
@@ -1182,76 +1182,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1473941626726116</v>
+        <v>0.2596170850151491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1072411036044494</v>
+        <v>0.3835519551633984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07556520252253618</v>
+        <v>0.1461163726930133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1059382897760857</v>
+        <v>0.1471038766452473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1105360653562675</v>
+        <v>0.2635745161381982</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08745166560084772</v>
+        <v>0.3804367902726926</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06895856037522829</v>
+        <v>0.142888420998486</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08203629620338693</v>
+        <v>0.1408791085286538</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1148391729851939</v>
+        <v>0.1899811375736953</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08179377795531773</v>
+        <v>0.2932395761752917</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06841663746212445</v>
+        <v>0.1571910096322289</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06932458870951619</v>
+        <v>0.1535731343260984</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1026900217349038</v>
+        <v>0.1930517181234823</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08256430750223043</v>
+        <v>0.2903499670741847</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0687537216845997</v>
+        <v>0.1285164454021877</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08266456260084176</v>
+        <v>0.1353475125723886</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1098172575905818</v>
+        <v>0.1732459617074011</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09068216018456754</v>
+        <v>0.2658015816437664</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06744242546583323</v>
+        <v>0.145123425117367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07643777804452023</v>
+        <v>0.1470782827238548</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09132749702450371</v>
+        <v>0.1762965974855835</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07680334740578298</v>
+        <v>0.2627573338311489</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06076981991351627</v>
+        <v>0.1437266103320516</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07922300703271912</v>
+        <v>0.1462674326216267</v>
       </c>
     </row>
     <row r="4">
@@ -1261,76 +1261,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2180299146965831</v>
+        <v>0.3285108900911257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2081479936180425</v>
+        <v>2.624726630474654</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2225780751651071</v>
+        <v>0.2607450710641625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2236793107203753</v>
+        <v>0.2498666792383508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.192197608604847</v>
+        <v>0.321966520640373</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1889476966092375</v>
+        <v>2.604944268490541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2046130002600217</v>
+        <v>0.2580704772984616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1911760755665227</v>
+        <v>0.2485848221994962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1874857614111211</v>
+        <v>0.2175412183237684</v>
       </c>
       <c r="K4" t="n">
-        <v>0.177976126356275</v>
+        <v>1.346301315674346</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1889033293826375</v>
+        <v>0.2246231677300817</v>
       </c>
       <c r="M4" t="n">
-        <v>0.186467471276462</v>
+        <v>0.2249694765276566</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1819634258977607</v>
+        <v>0.215915342983579</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1767627633503751</v>
+        <v>1.332399618429445</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1901364145416619</v>
+        <v>0.1976778051921229</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1867028672648541</v>
+        <v>0.1980468306820634</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1784092338772036</v>
+        <v>0.2006691407181426</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1742347317401977</v>
+        <v>1.085675548670672</v>
       </c>
       <c r="T4" t="n">
-        <v>0.183998338259406</v>
+        <v>0.205820459171797</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1856444499383295</v>
+        <v>0.2061643438483094</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1734213286374899</v>
+        <v>0.1991809270648245</v>
       </c>
       <c r="W4" t="n">
-        <v>0.168943561535694</v>
+        <v>1.080799655731638</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1830531789899434</v>
+        <v>0.2059616873084499</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1812455533357473</v>
+        <v>0.2051387628123667</v>
       </c>
     </row>
     <row r="5">
@@ -1340,76 +1340,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6760272455168811</v>
+        <v>0.7902845623873652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5152156489254461</v>
+        <v>0.1461302486552808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3394997574063949</v>
+        <v>0.56038019087639</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4736168465241769</v>
+        <v>0.5887294660242518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5751167569598984</v>
+        <v>0.8186395144872938</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4628353092957063</v>
+        <v>0.1460441188222197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3370194478727936</v>
+        <v>0.5536798416241693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.429113820650854</v>
+        <v>0.5667244978279263</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6125221036565711</v>
+        <v>0.8733109938317291</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4595772457232934</v>
+        <v>0.2178112527717554</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3621780393480603</v>
+        <v>0.699798739465367</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3717784567729434</v>
+        <v>0.6826398705124733</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5643442973677689</v>
+        <v>0.8941083827385279</v>
       </c>
       <c r="O5" t="n">
-        <v>0.467091065659419</v>
+        <v>0.2179150782228775</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3616020731764386</v>
+        <v>0.6501308797782462</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4427600058416616</v>
+        <v>0.6834116562545259</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6155357276303723</v>
+        <v>0.8633413243680567</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5204597228053484</v>
+        <v>0.2448259813617617</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3665382312896273</v>
+        <v>0.7050971788777975</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4117428669152923</v>
+        <v>0.7134031034584301</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5266220582095155</v>
+        <v>0.8851078267559566</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4546094962580517</v>
+        <v>0.2431138208063895</v>
       </c>
       <c r="X5" t="n">
-        <v>0.331979047011551</v>
+        <v>0.6978317774062777</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4371031761864132</v>
+        <v>0.7130170359631759</v>
       </c>
     </row>
     <row r="6">
@@ -1419,76 +1419,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3228682503037499</v>
+        <v>-0.2886654347107159</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2980877315236105</v>
+        <v>-0.712737156147933</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3276596730205168</v>
+        <v>-0.479448358035872</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4024296333857031</v>
+        <v>-0.4529998835580245</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4085479270002076</v>
+        <v>-0.2743395118726778</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.343314351934211</v>
+        <v>-0.7109260923230623</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4595821733755375</v>
+        <v>-0.47547514244567</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4002041191788562</v>
+        <v>-0.4506728322847559</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3884951363823685</v>
+        <v>-0.277363057763314</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.355746450166844</v>
+        <v>-0.6077913559090411</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4238950206165529</v>
+        <v>-0.383378227355354</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4546128943595502</v>
+        <v>-0.3651679951490198</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3968656336808142</v>
+        <v>-0.2714271291697707</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3584880971539443</v>
+        <v>-0.6108735157742273</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4163784855841275</v>
+        <v>-0.3828605683549497</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.413880745187569</v>
+        <v>-0.3647403577183466</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3861405539481916</v>
+        <v>-0.274573878243795</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3393257530452836</v>
+        <v>-0.5817068639439444</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4263723787536947</v>
+        <v>-0.3621045037442149</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.451682848674827</v>
+        <v>-0.343532943531121</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4294323469835479</v>
+        <v>-0.2712469508637385</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.383592558276004</v>
+        <v>-0.5848724264826857</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4662549349223727</v>
+        <v>-0.3652195900973556</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4649829341141298</v>
+        <v>-0.3446822406372385</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1639,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.107514104694014</v>
+        <v>5.293039631125476</v>
       </c>
       <c r="C2" t="n">
-        <v>2.331109313891435</v>
+        <v>3.440346471240195</v>
       </c>
       <c r="D2" t="n">
-        <v>3.584121095670191</v>
+        <v>9.74569346411883</v>
       </c>
       <c r="E2" t="n">
-        <v>3.279888227450619</v>
+        <v>5.977566909996126</v>
       </c>
       <c r="F2" t="n">
-        <v>5.659532655916158</v>
+        <v>5.300244838756644</v>
       </c>
       <c r="G2" t="n">
-        <v>2.687466979650546</v>
+        <v>3.490726878665848</v>
       </c>
       <c r="H2" t="n">
-        <v>2.195162109136188</v>
+        <v>4.557103983961363</v>
       </c>
       <c r="I2" t="n">
-        <v>1.080040744618192</v>
+        <v>3.538348349378032</v>
       </c>
       <c r="J2" t="n">
-        <v>4.041543410907276</v>
+        <v>4.653186365721838</v>
       </c>
       <c r="K2" t="n">
-        <v>2.774904676929304</v>
+        <v>3.480515133848572</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4502190769265</v>
+        <v>6.080112091632257</v>
       </c>
       <c r="M2" t="n">
-        <v>2.779279771802849</v>
+        <v>4.778359181964236</v>
       </c>
       <c r="N2" t="n">
-        <v>5.558004022275029</v>
+        <v>4.868976786868241</v>
       </c>
       <c r="O2" t="n">
-        <v>3.201348955650891</v>
+        <v>3.627554769449568</v>
       </c>
       <c r="P2" t="n">
-        <v>2.504005718847303</v>
+        <v>6.247065279008583</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.548902890697653</v>
+        <v>5.286970234341214</v>
       </c>
       <c r="R2" t="n">
-        <v>3.85828686644459</v>
+        <v>4.27377278496742</v>
       </c>
       <c r="S2" t="n">
-        <v>2.396651658070254</v>
+        <v>3.453915491536108</v>
       </c>
       <c r="T2" t="n">
-        <v>2.221027104144354</v>
+        <v>5.42963536050087</v>
       </c>
       <c r="U2" t="n">
-        <v>2.053768036451745</v>
+        <v>4.542727900752306</v>
       </c>
       <c r="V2" t="n">
-        <v>4.512437007687559</v>
+        <v>4.682389319008525</v>
       </c>
       <c r="W2" t="n">
-        <v>2.861094154219793</v>
+        <v>3.533779138673498</v>
       </c>
       <c r="X2" t="n">
-        <v>2.095452248170827</v>
+        <v>5.742504045614449</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.730313709472689</v>
+        <v>5.077439276995965</v>
       </c>
     </row>
     <row r="3">
@@ -1718,76 +1718,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1005216245182852</v>
+        <v>0.1328177143508626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08500004175773479</v>
+        <v>0.1063503265513941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1087430761695387</v>
+        <v>0.1746654625410931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1035931041748051</v>
+        <v>0.140775726994695</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1371734070688724</v>
+        <v>0.1329056008949256</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09250201532272739</v>
+        <v>0.1071968897292328</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08193933001210274</v>
+        <v>0.1233063268094321</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05090677700245116</v>
+        <v>0.107988992797355</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1159157942907578</v>
+        <v>0.1246125762096759</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09423920401040897</v>
+        <v>0.1070260153749305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08758743415506376</v>
+        <v>0.1419046449707442</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09432513844771195</v>
+        <v>0.126283612169817</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1359895886925275</v>
+        <v>0.1274724143136816</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1022082170064109</v>
+        <v>0.1094521621015931</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08872864075708087</v>
+        <v>0.143710424461341</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06548999391409183</v>
+        <v>0.1327436092020373</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1131180644599448</v>
+        <v>0.1193280419410438</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08643427495464295</v>
+        <v>0.1065792100461849</v>
       </c>
       <c r="T3" t="n">
-        <v>0.082530887794241</v>
+        <v>0.1344681156360374</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07862439982161096</v>
+        <v>0.1231090743322263</v>
       </c>
       <c r="V3" t="n">
-        <v>0.122691890779556</v>
+        <v>0.1250054933011588</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09591526369121728</v>
+        <v>0.1079133285581506</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07961629555152316</v>
+        <v>0.1381284218205836</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07046810581942475</v>
+        <v>0.1301435270074984</v>
       </c>
     </row>
     <row r="4">
@@ -1797,76 +1797,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2088379285045527</v>
+        <v>0.1972690068805145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2030065422422599</v>
+        <v>0.1584314974983385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2037586334314477</v>
+        <v>0.2740081432975471</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1923732605267695</v>
+        <v>0.2739801561864958</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2022914022416213</v>
+        <v>0.197466703901467</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2005761362044863</v>
+        <v>0.1598132280244285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1937840255406868</v>
+        <v>0.1631029807764081</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1769164474750304</v>
+        <v>0.1591419861508473</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1946863332284452</v>
+        <v>0.1775261912932758</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1884541371310939</v>
+        <v>0.1592008061301578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1823827824357437</v>
+        <v>0.1961312191218741</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1691073472216364</v>
+        <v>0.1932939491154151</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1869956192230663</v>
+        <v>0.1773153583615855</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1888135602146087</v>
+        <v>0.1623325443489833</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1763704943131265</v>
+        <v>0.196711784406533</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1668265648858046</v>
+        <v>0.1945013857386751</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1895026397365492</v>
+        <v>0.1763974935433901</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1851914232460911</v>
+        <v>0.1606862804666381</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1813384879687738</v>
+        <v>0.1855412761735813</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1724869297510723</v>
+        <v>0.1819279624661512</v>
       </c>
       <c r="V4" t="n">
-        <v>0.179087641508249</v>
+        <v>0.1761922867507361</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1818008457363953</v>
+        <v>0.1621807917009258</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1722966416276191</v>
+        <v>0.1852956831749837</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1637360810514945</v>
+        <v>0.1821596953945895</v>
       </c>
     </row>
     <row r="5">
@@ -1876,76 +1876,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4813379697744596</v>
+        <v>0.673282217268474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4187059235573756</v>
+        <v>0.6712700961026352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5336857356089605</v>
+        <v>0.6374462468125365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5385005373986976</v>
+        <v>0.5138172375479274</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6780980582903344</v>
+        <v>0.6730532199557228</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4611815596468668</v>
+        <v>0.6707635597777114</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4228384139687449</v>
+        <v>0.7560029021080137</v>
       </c>
       <c r="I5" t="n">
-        <v>0.287744738994016</v>
+        <v>0.6785700958576357</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5953976962252511</v>
+        <v>0.701939107136108</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5000643946853424</v>
+        <v>0.6722705617924398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4802395981973913</v>
+        <v>0.7235189053842873</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5577826155837394</v>
+        <v>0.6533241870619213</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7272340884644262</v>
+        <v>0.7189022738444177</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5413182024121537</v>
+        <v>0.6742465753896663</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5030809779302025</v>
+        <v>0.7305633716602502</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3925633424084514</v>
+        <v>0.6824815602105104</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5969207849410649</v>
+        <v>0.676472434749713</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4667293627296391</v>
+        <v>0.6632751080968171</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4551206349997397</v>
+        <v>0.7247342392440868</v>
       </c>
       <c r="U5" t="n">
-        <v>0.455828160052934</v>
+        <v>0.676691326959326</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6850941234485166</v>
+        <v>0.7094833468959254</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5275842546425278</v>
+        <v>0.6653890847761509</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4620884934228496</v>
+        <v>0.7454486766976769</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4303761600185285</v>
+        <v>0.7144474342998046</v>
       </c>
     </row>
     <row r="6">
@@ -1955,76 +1955,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4577144551053585</v>
+        <v>-0.274006077984817</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4257754978388464</v>
+        <v>-0.2648173519135998</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.384279615461348</v>
+        <v>-0.2586700769484783</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3052461540836791</v>
+        <v>-0.2638222442337711</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3382265564094655</v>
+        <v>-0.2712568611697962</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3639920926084612</v>
+        <v>-0.2639842322100703</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3889459820640061</v>
+        <v>-0.2668830471612686</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4431991254542811</v>
+        <v>-0.2591751520316077</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3957694572692457</v>
+        <v>-0.2705607920463697</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3674525522288771</v>
+        <v>-0.2439908398141257</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4125391414777935</v>
+        <v>-0.2669819895418113</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3121279303464082</v>
+        <v>-0.2463214058165213</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3923185056843571</v>
+        <v>-0.2677864466208649</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3484732616943526</v>
+        <v>-0.2551105615118423</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4003108955481066</v>
+        <v>-0.2699000583940281</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3559589076040307</v>
+        <v>-0.2502988713959852</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3722264658311051</v>
+        <v>-0.2803912242586821</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3601100009667118</v>
+        <v>-0.2468657532286727</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4211418703673542</v>
+        <v>-0.2702449145922586</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.3365335330011847</v>
+        <v>-0.2458865065609142</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3669212371587888</v>
+        <v>-0.2719491197035019</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3723037416529474</v>
+        <v>-0.254663500701246</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4171697362143048</v>
+        <v>-0.2729279091275957</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3481310448079924</v>
+        <v>-0.2508416059212434</v>
       </c>
     </row>
   </sheetData>
@@ -2175,76 +2175,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.713856309567261</v>
+        <v>4.339425642005505</v>
       </c>
       <c r="C2" t="n">
-        <v>2.126293931837699</v>
+        <v>9.45681251873469</v>
       </c>
       <c r="D2" t="n">
-        <v>1.222448860302668</v>
+        <v>11.3234306231819</v>
       </c>
       <c r="E2" t="n">
-        <v>3.204737579535382</v>
+        <v>4.734332338055238</v>
       </c>
       <c r="F2" t="n">
-        <v>1.526598804542164</v>
+        <v>4.773561183079897</v>
       </c>
       <c r="G2" t="n">
-        <v>1.141586518999498</v>
+        <v>8.917528587811844</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7693298631982859</v>
+        <v>10.68975231313926</v>
       </c>
       <c r="I2" t="n">
-        <v>2.476056754324119</v>
+        <v>4.743712353166145</v>
       </c>
       <c r="J2" t="n">
-        <v>3.089399738459683</v>
+        <v>4.724827078869928</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9624011344622343</v>
+        <v>6.517349451988776</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6143673391598241</v>
+        <v>6.541487938930242</v>
       </c>
       <c r="M2" t="n">
-        <v>3.272346207146099</v>
+        <v>3.986527892555034</v>
       </c>
       <c r="N2" t="n">
-        <v>1.504146026793536</v>
+        <v>3.924847875770842</v>
       </c>
       <c r="O2" t="n">
-        <v>1.662507430258918</v>
+        <v>5.741402872338589</v>
       </c>
       <c r="P2" t="n">
-        <v>0.653773254373571</v>
+        <v>6.715885457778748</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74316285680514</v>
+        <v>3.975338091853359</v>
       </c>
       <c r="R2" t="n">
-        <v>4.888287108202757</v>
+        <v>4.459403545823439</v>
       </c>
       <c r="S2" t="n">
-        <v>1.827852949733283</v>
+        <v>5.94501407012907</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5625087073662081</v>
+        <v>5.88012217296431</v>
       </c>
       <c r="U2" t="n">
-        <v>2.986193557439884</v>
+        <v>3.77887297623347</v>
       </c>
       <c r="V2" t="n">
-        <v>1.682711882058966</v>
+        <v>4.568812993971883</v>
       </c>
       <c r="W2" t="n">
-        <v>1.207606201421269</v>
+        <v>6.495693475796541</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6978887290991813</v>
+        <v>6.378063715178151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.60210781391204</v>
+        <v>3.956703133612596</v>
       </c>
     </row>
     <row r="3">
@@ -2254,76 +2254,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07002942002679391</v>
+        <v>0.1202673118256032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08034220544659121</v>
+        <v>0.1724972111969325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05563557788782392</v>
+        <v>0.1856265247417539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1022684650603851</v>
+        <v>0.1256997424549324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06485529724393801</v>
+        <v>0.1262201843925461</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05298638100641795</v>
+        <v>0.1682956967063802</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03944280432804748</v>
+        <v>0.1813907885552506</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08813769384751069</v>
+        <v>0.1258244866449409</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1001919047617359</v>
+        <v>0.1255731384567804</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04676699189113709</v>
+        <v>0.1465532233534657</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03300364771767894</v>
+        <v>0.1468024522328402</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1034611481570828</v>
+        <v>0.1150859816834995</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0642110718529878</v>
+        <v>0.1141454373803137</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06864455312684958</v>
+        <v>0.1381158190288958</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03469399777008775</v>
+        <v>0.148581315802379</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07080890039466214</v>
+        <v>0.1149161592350714</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1277235311810787</v>
+        <v>0.1219563104266423</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0730185801483676</v>
+        <v>0.1404141179153722</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03071952934239786</v>
+        <v>0.1396885357390572</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0982869481930746</v>
+        <v>0.111874999469505</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06919240879920663</v>
+        <v>0.1234666335154175</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05515611217538918</v>
+        <v>0.1463289905927636</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03654238668912124</v>
+        <v>0.1451003637748391</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06698336017676576</v>
+        <v>0.1146325532688832</v>
       </c>
     </row>
     <row r="4">
@@ -2333,76 +2333,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2461588661033159</v>
+        <v>0.1737302563758477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2310977427960638</v>
+        <v>0.2831453831343436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1984052441760236</v>
+        <v>0.289437514261076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2751715520930976</v>
+        <v>0.1674282604393176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1998179932502042</v>
+        <v>0.1730055528854156</v>
       </c>
       <c r="G4" t="n">
-        <v>0.203155535281373</v>
+        <v>0.2672544164478531</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1902523847398566</v>
+        <v>0.2721697444674712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.209746949108145</v>
+        <v>0.1654332872752845</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2282393876776826</v>
+        <v>0.1735868482084016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2124764916571692</v>
+        <v>0.4163739373080168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1837294348085181</v>
+        <v>0.2115906200906391</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2169368473023272</v>
+        <v>0.1620452018321289</v>
       </c>
       <c r="N4" t="n">
-        <v>0.19529295409859</v>
+        <v>0.170367599554282</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2005139956561934</v>
+        <v>0.2047565065331756</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1887974383343679</v>
+        <v>0.2081540504402445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2016083985595185</v>
+        <v>0.1788141260338722</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2219677029006689</v>
+        <v>0.1729991193870927</v>
       </c>
       <c r="S4" t="n">
-        <v>0.207566231775431</v>
+        <v>0.4085539243211776</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1788747417547938</v>
+        <v>0.1945322595001892</v>
       </c>
       <c r="U4" t="n">
-        <v>0.205138275882444</v>
+        <v>0.1736788868669859</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2049485750666427</v>
+        <v>0.1733848072697033</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1969985468043388</v>
+        <v>0.4090702448376558</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1875919758754291</v>
+        <v>0.1936048167787742</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1982693821618229</v>
+        <v>0.1742075002681234</v>
       </c>
     </row>
     <row r="5">
@@ -2412,76 +2412,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2844887171254749</v>
+        <v>0.6922646310117516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.347654652419044</v>
+        <v>0.6092178134336311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2804138475214116</v>
+        <v>0.6413354026192908</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3716534804651067</v>
+        <v>0.7507677743596386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3245718575640422</v>
+        <v>0.7295730240297189</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2608168216191163</v>
+        <v>0.6297209189028246</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2073183176230877</v>
+        <v>0.6664619864715705</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4202096584588085</v>
+        <v>0.7605753879239935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4389772763639986</v>
+        <v>0.7234023761179316</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2201043114294057</v>
+        <v>0.3519750162581656</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1796317925436128</v>
+        <v>0.6938041590404828</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4769182803366616</v>
+        <v>0.710209129195464</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3287935919110121</v>
+        <v>0.669994985425295</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3423429516837785</v>
+        <v>0.6745368993024776</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1837630747332667</v>
+        <v>0.7138045860175696</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3512199933166874</v>
+        <v>0.6426570527951642</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5754149342989565</v>
+        <v>0.7049533596397104</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3517844859628588</v>
+        <v>0.3436856423510646</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1717376586600974</v>
+        <v>0.7180738870661257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4791253498172064</v>
+        <v>0.6441485288605391</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3376086356136287</v>
+        <v>0.7120960334394401</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2799823301751097</v>
+        <v>0.3577111570430549</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1947971735922612</v>
+        <v>0.7494667033033612</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3378401619373357</v>
+        <v>0.6580230649797044</v>
       </c>
     </row>
     <row r="6">
@@ -2491,76 +2491,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5620928363606259</v>
+        <v>-0.2987806840346173</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4513533822982601</v>
+        <v>-0.2796748483243414</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4672648600241183</v>
+        <v>-0.2750636675058666</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4710870733445339</v>
+        <v>-0.2661016924186068</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3865669889515791</v>
+        <v>-0.2921057225177461</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3512486399100397</v>
+        <v>-0.283785867373969</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3905685456691773</v>
+        <v>-0.2696567903422959</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4248046903623074</v>
+        <v>-0.2594190757215566</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4498584133752963</v>
+        <v>-0.2968958108027187</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.438491133345094</v>
+        <v>-0.6544975771993468</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4526767650663317</v>
+        <v>-0.2701271378457555</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4048505259602512</v>
+        <v>-0.2603477979250303</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3560798792954974</v>
+        <v>-0.2940692754993134</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.3166854591611854</v>
+        <v>-0.2831198278698996</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4146265919634657</v>
+        <v>-0.2663948210685904</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4046031121905306</v>
+        <v>-0.2599580206814007</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4301160760386107</v>
+        <v>-0.2945162359382536</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3552998775270576</v>
+        <v>-0.6510589662390842</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4184201690258433</v>
+        <v>-0.2653482474744301</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4175436102402251</v>
+        <v>-0.2637741766688261</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3592914489991086</v>
+        <v>-0.2893141668394131</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3483788950764338</v>
+        <v>-0.6480592945175073</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4080536017377202</v>
+        <v>-0.2602906869175238</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4051902407429661</v>
+        <v>-0.2651348707870493</v>
       </c>
     </row>
   </sheetData>
@@ -2711,76 +2711,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.379492138601585</v>
+        <v>12.44834013930659</v>
       </c>
       <c r="C2" t="n">
-        <v>3.870403376453598</v>
+        <v>7.314052298969631</v>
       </c>
       <c r="D2" t="n">
-        <v>3.687376867371738</v>
+        <v>7.270471968319587</v>
       </c>
       <c r="E2" t="n">
-        <v>1.211359782083931</v>
+        <v>7.604195576445676</v>
       </c>
       <c r="F2" t="n">
-        <v>2.949359839648991</v>
+        <v>14.5994857079996</v>
       </c>
       <c r="G2" t="n">
-        <v>2.198139705134757</v>
+        <v>6.88021463779783</v>
       </c>
       <c r="H2" t="n">
-        <v>1.480878210148284</v>
+        <v>6.350172024032963</v>
       </c>
       <c r="I2" t="n">
-        <v>1.066605944643419</v>
+        <v>6.992689709716971</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05956891608967</v>
+        <v>115.3758592406656</v>
       </c>
       <c r="K2" t="n">
-        <v>2.954348665212082</v>
+        <v>10.84729605845934</v>
       </c>
       <c r="L2" t="n">
-        <v>2.008103924955496</v>
+        <v>8.707819489143464</v>
       </c>
       <c r="M2" t="n">
-        <v>1.334896904523792</v>
+        <v>8.417156697808474</v>
       </c>
       <c r="N2" t="n">
-        <v>2.213972539249219</v>
+        <v>77.6533186828628</v>
       </c>
       <c r="O2" t="n">
-        <v>1.89718427602092</v>
+        <v>8.990245745870563</v>
       </c>
       <c r="P2" t="n">
-        <v>1.637716373771159</v>
+        <v>8.192899548906791</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.586112617633864</v>
+        <v>6.764039163897658</v>
       </c>
       <c r="R2" t="n">
-        <v>3.02418756885278</v>
+        <v>80.21677830284389</v>
       </c>
       <c r="S2" t="n">
-        <v>3.188886506602614</v>
+        <v>9.30084845589451</v>
       </c>
       <c r="T2" t="n">
-        <v>2.658564625829637</v>
+        <v>8.054860525114577</v>
       </c>
       <c r="U2" t="n">
-        <v>1.682621343336702</v>
+        <v>7.855971513666884</v>
       </c>
       <c r="V2" t="n">
-        <v>2.478259070749802</v>
+        <v>78.98120421592571</v>
       </c>
       <c r="W2" t="n">
-        <v>1.983041953984996</v>
+        <v>9.315983357407488</v>
       </c>
       <c r="X2" t="n">
-        <v>1.811410940354319</v>
+        <v>7.676598311616557</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.394544361721635</v>
+        <v>7.608914898335465</v>
       </c>
     </row>
     <row r="3">
@@ -2790,76 +2790,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1451153926648774</v>
+        <v>0.1926689441805474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113306056417928</v>
+        <v>0.1544102829117289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1104187104950531</v>
+        <v>0.1539990297070253</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05527764816564673</v>
+        <v>0.1570981201842827</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09759593141064471</v>
+        <v>0.204727523849372</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08200765745899075</v>
+        <v>0.1502235109060905</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06353775445361376</v>
+        <v>0.1448063616902651</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0504452018018775</v>
+        <v>0.1513292076298862</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09964594182771602</v>
+        <v>0.3805702220859521</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09768987486181535</v>
+        <v>0.1824635034350734</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07752320819904068</v>
+        <v>0.1666041165181698</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05917397785448819</v>
+        <v>0.1642023210940662</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08236998341144042</v>
+        <v>0.3443835506042345</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07478207533272019</v>
+        <v>0.1688744779199511</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06796700908089481</v>
+        <v>0.1623015435405375</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06653741920037048</v>
+        <v>0.1490658825344957</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09899352387525862</v>
+        <v>0.3473099249259373</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1019862504970643</v>
+        <v>0.1713032701605881</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09191933943748953</v>
+        <v>0.161109932075155</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06918996237927488</v>
+        <v>0.1593629145246411</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08818441961860013</v>
+        <v>0.3459103456281376</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07691219680783834</v>
+        <v>0.1714198669777312</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07259445592491054</v>
+        <v>0.157755664997639</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06098691112195542</v>
+        <v>0.1571411368248803</v>
       </c>
     </row>
     <row r="4">
@@ -2869,76 +2869,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1771839175399811</v>
+        <v>0.2482211082172798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.180263706628237</v>
+        <v>0.1464019449600936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1888400317020981</v>
+        <v>0.1501555900894296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2044345391537007</v>
+        <v>0.1565418146357718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1728784047894013</v>
+        <v>0.2483260729839883</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1704112278320128</v>
+        <v>0.1433541201510531</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1685188762126314</v>
+        <v>0.1462265576078672</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1858416420135375</v>
+        <v>0.153428916161988</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1662536041006467</v>
+        <v>1.511119461251581</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1666040547564717</v>
+        <v>0.4634387637082681</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1649597467497391</v>
+        <v>0.1881768922883817</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1812128860032521</v>
+        <v>0.1900415195248359</v>
       </c>
       <c r="N4" t="n">
-        <v>0.161244248870874</v>
+        <v>1.499914347363809</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1646367349660497</v>
+        <v>0.1609146021868794</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1627086404802235</v>
+        <v>0.1887384885306269</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1702107077252334</v>
+        <v>0.1529734700599163</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1601210542875644</v>
+        <v>1.208465288724619</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1653034993094772</v>
+        <v>0.3971852658512081</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1628208839218308</v>
+        <v>0.1763028265341607</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1747666342116584</v>
+        <v>0.1793549295419369</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1579051932094161</v>
+        <v>1.20489986353392</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1604603938944604</v>
+        <v>0.3961574948839566</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1572367185465308</v>
+        <v>0.1780888171924667</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1645538182275434</v>
+        <v>0.178440413677291</v>
       </c>
     </row>
     <row r="5">
@@ -2948,76 +2948,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8190099568835443</v>
+        <v>0.776198871902123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6285572317205388</v>
+        <v>1.054701035247982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5847208851841468</v>
+        <v>1.025596380496435</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2703929012899681</v>
+        <v>1.003553718537154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5645351224147115</v>
+        <v>0.8244302396010286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4812338864187511</v>
+        <v>1.047919032587268</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3770364239400931</v>
+        <v>0.9902877019001528</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2714418644568522</v>
+        <v>0.9863147796085261</v>
       </c>
       <c r="J5" t="n">
-        <v>0.599361092751964</v>
+        <v>0.2518465494255139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5863595277114383</v>
+        <v>0.3937165332806151</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4699522745791516</v>
+        <v>0.8853590602551159</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3265439845896292</v>
+        <v>0.8640339306096064</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5108398221222956</v>
+        <v>0.2296021444221195</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4542247229826395</v>
+        <v>1.049466460003595</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4177221866048098</v>
+        <v>0.8599281725952815</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3909120647555267</v>
+        <v>0.9744557829283069</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6182417691147242</v>
+        <v>0.2873975182956878</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6169636512420595</v>
+        <v>0.4312931140420527</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5645426877894816</v>
+        <v>0.913825009174984</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3958991525549408</v>
+        <v>0.8885337856709355</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5584643406987174</v>
+        <v>0.2870863846009554</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4793219992867885</v>
+        <v>0.4327063584343996</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4616889527838102</v>
+        <v>0.885825777747443</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3706198481376065</v>
+        <v>0.8806364745884843</v>
       </c>
     </row>
     <row r="6">
@@ -3027,76 +3027,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4279143970599455</v>
+        <v>-0.1895515175416601</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4533245623508346</v>
+        <v>-0.1963013723345912</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.502087915855463</v>
+        <v>-0.2031436959601303</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.57037398520349</v>
+        <v>-0.289321815057472</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4715548393187677</v>
+        <v>-0.2030995476728812</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5105372015489202</v>
+        <v>-0.205872899005619</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5259777705913165</v>
+        <v>-0.2276603453601054</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5540725489384561</v>
+        <v>-0.2665159575947078</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4802793040235311</v>
+        <v>-0.2025950322788549</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.480546280311394</v>
+        <v>-0.6032480414073689</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4456975532709364</v>
+        <v>-0.3460900435544477</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.4914513448801968</v>
+        <v>-0.3323976190996357</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4352553451113083</v>
+        <v>-0.2138009191468963</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4586877916273334</v>
+        <v>-0.2144897900027374</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4551791463004119</v>
+        <v>-0.349115348048726</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.46490964732194</v>
+        <v>-0.2596711170130502</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.492313261086864</v>
+        <v>-0.2100644934436936</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4827711319418351</v>
+        <v>-0.5563010899955663</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.432124172966504</v>
+        <v>-0.3235585746427433</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.4676153157769649</v>
+        <v>-0.313703306764669</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4329861439652389</v>
+        <v>-0.2166102004879661</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4655283115564157</v>
+        <v>-0.5617028925034226</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4421494461542548</v>
+        <v>-0.3307370486520044</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4737891762034994</v>
+        <v>-0.3227461918980301</v>
       </c>
     </row>
   </sheetData>
@@ -3247,76 +3247,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.818614241859829</v>
+        <v>5.062547929284722</v>
       </c>
       <c r="C2" t="n">
-        <v>1.733011674298225</v>
+        <v>4.376323232712322</v>
       </c>
       <c r="D2" t="n">
-        <v>2.71032205563027</v>
+        <v>4.920439719140457</v>
       </c>
       <c r="E2" t="n">
-        <v>0.447894154083472</v>
+        <v>10.71409791136519</v>
       </c>
       <c r="F2" t="n">
-        <v>2.203131036742743</v>
+        <v>10.07211017338387</v>
       </c>
       <c r="G2" t="n">
-        <v>1.959453023913989</v>
+        <v>5.085294603210532</v>
       </c>
       <c r="H2" t="n">
-        <v>2.562131406382532</v>
+        <v>4.941578341141102</v>
       </c>
       <c r="I2" t="n">
-        <v>1.171636421847125</v>
+        <v>8.905516502688624</v>
       </c>
       <c r="J2" t="n">
-        <v>2.691421960573145</v>
+        <v>70.21480908949337</v>
       </c>
       <c r="K2" t="n">
-        <v>1.408979948646794</v>
+        <v>5.454788145708491</v>
       </c>
       <c r="L2" t="n">
-        <v>2.198938398484659</v>
+        <v>4.243138344703648</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7953311626153952</v>
+        <v>6.758169588910446</v>
       </c>
       <c r="N2" t="n">
-        <v>2.545963700062983</v>
+        <v>8.263490991264431</v>
       </c>
       <c r="O2" t="n">
-        <v>1.562470713993876</v>
+        <v>5.495139318969266</v>
       </c>
       <c r="P2" t="n">
-        <v>2.285575126843332</v>
+        <v>4.377812861741301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.017649692778029</v>
+        <v>7.01719052764135</v>
       </c>
       <c r="R2" t="n">
-        <v>2.725974369536307</v>
+        <v>50.24656997543103</v>
       </c>
       <c r="S2" t="n">
-        <v>1.313260801754447</v>
+        <v>6.549047925915282</v>
       </c>
       <c r="T2" t="n">
-        <v>1.984831679813908</v>
+        <v>5.119780739345562</v>
       </c>
       <c r="U2" t="n">
-        <v>1.183819502978078</v>
+        <v>6.36056677741111</v>
       </c>
       <c r="V2" t="n">
-        <v>3.073676002816834</v>
+        <v>60.74020931107755</v>
       </c>
       <c r="W2" t="n">
-        <v>2.092346706570996</v>
+        <v>6.472177089112678</v>
       </c>
       <c r="X2" t="n">
-        <v>2.322755828695485</v>
+        <v>5.28761887801968</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.685417326904668</v>
+        <v>6.263886413972659</v>
       </c>
     </row>
     <row r="3">
@@ -3326,76 +3326,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0727805500608274</v>
+        <v>0.1299555730587556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07053978705778174</v>
+        <v>0.1207904762758301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09295977053611959</v>
+        <v>0.1281399544910393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02540967584956455</v>
+        <v>0.1815574347808173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08212206155774848</v>
+        <v>0.1770510017002696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07633271060708435</v>
+        <v>0.1302425015891187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08994369507017752</v>
+        <v>0.1284125834458292</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05398158949944931</v>
+        <v>0.168199707810524</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09258141696121203</v>
+        <v>0.3353588450643736</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06141933757153062</v>
+        <v>0.1347684530196755</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08202597513626819</v>
+        <v>0.1188860314575004</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04047138386210292</v>
+        <v>0.1490069676639445</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08960759314505173</v>
+        <v>0.1629044873114436</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06587355901260494</v>
+        <v>0.1352479956421109</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08398806825863558</v>
+        <v>0.120811527099203</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04873921949441251</v>
+        <v>0.1515681402230211</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09327175044403702</v>
+        <v>0.3058986657133207</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05850568079866791</v>
+        <v>0.1468803558748086</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07695598872930187</v>
+        <v>0.1306756114152692</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05438142192237772</v>
+        <v>0.1449160525884523</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09990459382926642</v>
+        <v>0.3224962440338901</v>
       </c>
       <c r="W3" t="n">
-        <v>0.079542828295037</v>
+        <v>0.1460848095615934</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08481535969905085</v>
+        <v>0.1327515320897723</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0692654763318068</v>
+        <v>0.1438902071123727</v>
       </c>
     </row>
     <row r="4">
@@ -3405,76 +3405,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1816332542281471</v>
+        <v>0.1670122729056294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1878862060917557</v>
+        <v>0.1499064966709285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1773208039753112</v>
+        <v>0.1481132019643909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2007252163375169</v>
+        <v>0.2441590909914018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1843635826381102</v>
+        <v>0.2587436470334148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1947211134976572</v>
+        <v>0.1546859952831471</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1819964896678181</v>
+        <v>0.1538077387930507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.185481982745135</v>
+        <v>0.247805817372871</v>
       </c>
       <c r="J4" t="n">
-        <v>0.177740310819857</v>
+        <v>1.484010030562949</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1745206036399087</v>
+        <v>0.4730155305084044</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1727716835260744</v>
+        <v>0.147102854332177</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1811447317257528</v>
+        <v>0.1856944366347005</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1707609511630386</v>
+        <v>0.1883094730417936</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1742556261526163</v>
+        <v>0.4736622115604297</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1748425555104986</v>
+        <v>0.1482502357871238</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1763170819965288</v>
+        <v>0.1894638936031632</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1700840596928667</v>
+        <v>1.186073545540263</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1711738825007034</v>
+        <v>0.4069610523109784</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1737714211613166</v>
+        <v>0.1761328082560284</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1753343118741707</v>
+        <v>0.1762360986678133</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1683716385571638</v>
+        <v>1.179883490955864</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1667079897474424</v>
+        <v>0.4082544505487077</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1683094620503735</v>
+        <v>0.1774609847521156</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1711519555488492</v>
+        <v>0.1788198320313427</v>
       </c>
     </row>
     <row r="5">
@@ -3484,76 +3484,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.400700578592336</v>
+        <v>0.7781198998003411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3754388814649495</v>
+        <v>0.8057721243461966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5242462725866198</v>
+        <v>0.8651487699377838</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1265893559025414</v>
+        <v>0.7436030091839217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4454353749403265</v>
+        <v>0.6842718796392505</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3920104463042871</v>
+        <v>0.8419799177728693</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4942056587703624</v>
+        <v>0.834890262697439</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2910341408934782</v>
+        <v>0.6787560905296889</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5208802467721854</v>
+        <v>0.2259815217941334</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3519317277761551</v>
+        <v>0.2849133787950352</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4747651551585939</v>
+        <v>0.8081830362655005</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2234201540201305</v>
+        <v>0.8024309740472847</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5247545913438751</v>
+        <v>0.8650891783616664</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3780283051229099</v>
+        <v>0.2855368073305885</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4803639938424055</v>
+        <v>0.8149162560029868</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2764293677193004</v>
+        <v>0.7999842995968633</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5483861956991424</v>
+        <v>0.2579086826980718</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3417909317937419</v>
+        <v>0.3609199333467674</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4428575666528135</v>
+        <v>0.7419152212989064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3101584700740419</v>
+        <v>0.8222835939054912</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5933576146516376</v>
+        <v>0.2733288892555186</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4771386687317267</v>
+        <v>0.3578278433100987</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5039250833899427</v>
+        <v>0.7480603822592601</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.404701635512645</v>
+        <v>0.8046658218935822</v>
       </c>
     </row>
     <row r="6">
@@ -3563,76 +3563,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4495180092307239</v>
+        <v>-0.2221568374010777</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5016341294112989</v>
+        <v>-0.2343548038472004</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5180538556808303</v>
+        <v>-0.2233793420541925</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6744283489901572</v>
+        <v>-0.4250268588505042</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4399851686404942</v>
+        <v>-0.2264538882621052</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5253338218349384</v>
+        <v>-0.2425524401337183</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4438744474348715</v>
+        <v>-0.2263107206752731</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5460871412350945</v>
+        <v>-0.4431821219582005</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4738465415363986</v>
+        <v>-0.2506994811357562</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4721287422670613</v>
+        <v>-0.692261564249687</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4626621766599456</v>
+        <v>-0.2272047621762451</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.5547771303887097</v>
+        <v>-0.3524678917849047</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3988038196159306</v>
+        <v>-0.2528937474048881</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4798964093205661</v>
+        <v>-0.6935956420851402</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4207398942038617</v>
+        <v>-0.2360264518483606</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.5104955878037143</v>
+        <v>-0.3625143960726211</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4307919091688374</v>
+        <v>-0.2616211536159913</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.4674390590364241</v>
+        <v>-0.5794681771835537</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.4703426209965295</v>
+        <v>-0.340008164207982</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.5117853756707318</v>
+        <v>-0.3315767267511874</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.397105240755311</v>
+        <v>-0.2486880892937177</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.4240383310288325</v>
+        <v>-0.5851799335135532</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4229555064112622</v>
+        <v>-0.3440775033596341</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.4863714286627516</v>
+        <v>-0.3419112044094075</v>
       </c>
     </row>
   </sheetData>

--- a/results/final_results/metrics/all_metrics_by_strat.xlsx
+++ b/results/final_results/metrics/all_metrics_by_strat.xlsx
@@ -567,76 +567,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.661318186534288</v>
+        <v>2.678779653636064</v>
       </c>
       <c r="C2" t="n">
-        <v>4.325590137147492</v>
+        <v>2.948158636367531</v>
       </c>
       <c r="D2" t="n">
-        <v>4.008612997819298</v>
+        <v>3.039929902928181</v>
       </c>
       <c r="E2" t="n">
-        <v>5.30512522062129</v>
+        <v>3.581280847811459</v>
       </c>
       <c r="F2" t="n">
-        <v>8.372276363008753</v>
+        <v>2.775792493577502</v>
       </c>
       <c r="G2" t="n">
-        <v>4.566850428374337</v>
+        <v>2.993241945912671</v>
       </c>
       <c r="H2" t="n">
-        <v>8.260989019049966</v>
+        <v>2.978520547398343</v>
       </c>
       <c r="I2" t="n">
-        <v>8.782499058361037</v>
+        <v>3.207118279911883</v>
       </c>
       <c r="J2" t="n">
-        <v>5.545359978891431</v>
+        <v>2.883352323197843</v>
       </c>
       <c r="K2" t="n">
-        <v>3.838158169429772</v>
+        <v>2.916563500049703</v>
       </c>
       <c r="L2" t="n">
-        <v>6.536885459883018</v>
+        <v>3.270631217356445</v>
       </c>
       <c r="M2" t="n">
-        <v>6.794083770234224</v>
+        <v>3.768162223565663</v>
       </c>
       <c r="N2" t="n">
-        <v>5.449923473141176</v>
+        <v>2.856264157795118</v>
       </c>
       <c r="O2" t="n">
-        <v>3.629838595727664</v>
+        <v>2.726541848389753</v>
       </c>
       <c r="P2" t="n">
-        <v>5.9785529021325</v>
+        <v>3.045078341994438</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.811612136300457</v>
+        <v>3.66555241180345</v>
       </c>
       <c r="R2" t="n">
-        <v>5.460854556561864</v>
+        <v>2.983325283614649</v>
       </c>
       <c r="S2" t="n">
-        <v>3.732502606976821</v>
+        <v>2.88094268993568</v>
       </c>
       <c r="T2" t="n">
-        <v>6.142728383094984</v>
+        <v>3.36869051898925</v>
       </c>
       <c r="U2" t="n">
-        <v>7.728932054342549</v>
+        <v>3.814176548268978</v>
       </c>
       <c r="V2" t="n">
-        <v>5.457201316555278</v>
+        <v>2.906732973915696</v>
       </c>
       <c r="W2" t="n">
-        <v>3.636576295371184</v>
+        <v>2.789272129948952</v>
       </c>
       <c r="X2" t="n">
-        <v>5.582094303527655</v>
+        <v>3.09054018779733</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.40764410610007</v>
+        <v>3.637670385609148</v>
       </c>
     </row>
     <row r="3">
@@ -646,76 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1576173214029748</v>
+        <v>0.09232732632062257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1200702714641115</v>
+        <v>0.09757329529790892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1154201172082692</v>
+        <v>0.09928446386480916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1329650768363864</v>
+        <v>0.1086964891945552</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1638253228333004</v>
+        <v>0.09425664977233983</v>
       </c>
       <c r="G3" t="n">
-        <v>0.123439786188259</v>
+        <v>0.09841850023176724</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1628831905040138</v>
+        <v>0.098143491391951</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1672103770480122</v>
+        <v>0.1023107656695093</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1358409652824528</v>
+        <v>0.09634243278747578</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1128047922776776</v>
+        <v>0.09697558269458306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1467549892595745</v>
+        <v>0.1034311122053919</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1493668015449612</v>
+        <v>0.1117058726205788</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1347104514882445</v>
+        <v>0.09582226545224026</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1094892752823164</v>
+        <v>0.09328303839456398</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1407866552061614</v>
+        <v>0.0993793847946034</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1495418620483691</v>
+        <v>0.1100674311620693</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1348407258209898</v>
+        <v>0.09823335227337138</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1111402300625326</v>
+        <v>0.09629629848105692</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1425865144596015</v>
+        <v>0.1051307064551177</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1582277707206836</v>
+        <v>0.112429965276351</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1347972101565211</v>
+        <v>0.09678869309198257</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1095986665046222</v>
+        <v>0.09452105840398439</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1362720181878059</v>
+        <v>0.1002127034723048</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1552867285924584</v>
+        <v>0.1096164158310571</v>
       </c>
     </row>
     <row r="4">
@@ -725,76 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2656286787841899</v>
+        <v>0.1456915117055111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2828008453711963</v>
+        <v>0.1399893340782122</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2810497631518333</v>
+        <v>0.1393993029592432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1642158719801427</v>
+        <v>0.1346396932034567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2614499978294552</v>
+        <v>0.1447300651247116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2780672942509591</v>
+        <v>0.1384866236150863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3477691091773947</v>
+        <v>0.1394439803551607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2652496163297411</v>
+        <v>0.1349431124270856</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1995251118165812</v>
+        <v>0.1440964800874713</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2098005369458069</v>
+        <v>0.1416718409430466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2301742977539775</v>
+        <v>0.1391413615539735</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1879707087864528</v>
+        <v>0.1348472207937331</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1974823233634755</v>
+        <v>0.1432955180510785</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2064375915903552</v>
+        <v>0.1396686668283787</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2290892974808294</v>
+        <v>0.1383534989431277</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1874898309269275</v>
+        <v>0.1345420060764121</v>
       </c>
       <c r="R4" t="n">
-        <v>0.188622694011044</v>
+        <v>0.1434024767262408</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1961405529226862</v>
+        <v>0.1410224553229236</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2083979088809767</v>
+        <v>0.1387354020214656</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1989560157043757</v>
+        <v>0.1358491468349574</v>
       </c>
       <c r="V4" t="n">
-        <v>0.18738301744773</v>
+        <v>0.1425784018376048</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1936813459174035</v>
+        <v>0.1395473161456954</v>
       </c>
       <c r="X4" t="n">
-        <v>0.208146412345212</v>
+        <v>0.1375968673350875</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1989124284287406</v>
+        <v>0.1349500731384396</v>
       </c>
     </row>
     <row r="5">
@@ -804,76 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5933746390804098</v>
+        <v>0.633717951305533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4245753625895664</v>
+        <v>0.6970052107212297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4106750203732248</v>
+        <v>0.7122307052987015</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8096968656748645</v>
+        <v>0.8073138508292783</v>
       </c>
       <c r="F5" t="n">
-        <v>0.626602884656225</v>
+        <v>0.6512582557820339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4439205499545484</v>
+        <v>0.7106715266978738</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4683658962387259</v>
+        <v>0.7038202089612023</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6303887612042656</v>
+        <v>0.7581770112556966</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6808213965935691</v>
+        <v>0.6685967119321221</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5376763754747489</v>
+        <v>0.6845085237056258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.637582000647327</v>
+        <v>0.7433527388997883</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7946280700289946</v>
+        <v>0.8283883936432622</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6821392881848141</v>
+        <v>0.6687038558881088</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5303746979357405</v>
+        <v>0.6678880847999201</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6145492467536275</v>
+        <v>0.718300480679963</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7975998554644366</v>
+        <v>0.8180897131826422</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7148701089652277</v>
+        <v>0.6850185193168004</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5666356518651262</v>
+        <v>0.6828437234378777</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6842031919861423</v>
+        <v>0.7577785116365</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7952902060312201</v>
+        <v>0.8276089169182761</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7193672724056887</v>
+        <v>0.6788454060680511</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5658710496123939</v>
+        <v>0.6773405681647003</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6546930915234704</v>
+        <v>0.7283065771276491</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7806788636542594</v>
+        <v>0.8122738527055572</v>
       </c>
     </row>
     <row r="6">
@@ -883,76 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.295987949206459</v>
+        <v>-0.2520100508991268</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4391476129857529</v>
+        <v>-0.2128140678433241</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4391476129857529</v>
+        <v>-0.2250117050171943</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2416392933410066</v>
+        <v>-0.167542326387377</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2676802823532761</v>
+        <v>-0.2516989295527468</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4336583865342357</v>
+        <v>-0.2110967793378163</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4336583865342357</v>
+        <v>-0.2153573872247184</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2485036847826297</v>
+        <v>-0.1745615337730845</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2936779109281978</v>
+        <v>-0.2319106643025202</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.291526607792658</v>
+        <v>-0.2151451793192236</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.291526607792658</v>
+        <v>-0.2044095511908439</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2376173552014348</v>
+        <v>-0.1686515657583613</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2796519192178166</v>
+        <v>-0.2349010206482688</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2867765052536292</v>
+        <v>-0.2183405212429793</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2867765052536292</v>
+        <v>-0.2110825267419936</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2450872148548334</v>
+        <v>-0.1708265750765352</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2895900760667293</v>
+        <v>-0.2294223355660262</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.2764538620993843</v>
+        <v>-0.2183344143304764</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.2505379846563264</v>
+        <v>-0.2049245767052084</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.338579173129581</v>
+        <v>-0.1759903235940466</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2799262050053164</v>
+        <v>-0.2328208971208878</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.274397458499745</v>
+        <v>-0.2188207465453388</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.2617433100834199</v>
+        <v>-0.2049614630743272</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3467371123749323</v>
+        <v>-0.1767902823749796</v>
       </c>
     </row>
   </sheetData>
@@ -1103,76 +1103,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.09667397318901</v>
+        <v>2.827512169857502</v>
       </c>
       <c r="C2" t="n">
-        <v>119.1387802015638</v>
+        <v>3.076093117959826</v>
       </c>
       <c r="D2" t="n">
-        <v>6.475212970038724</v>
+        <v>3.020725331876215</v>
       </c>
       <c r="E2" t="n">
-        <v>6.570778238717313</v>
+        <v>3.600534620734132</v>
       </c>
       <c r="F2" t="n">
-        <v>30.52191996212003</v>
+        <v>3.036618406120152</v>
       </c>
       <c r="G2" t="n">
-        <v>115.2100658340694</v>
+        <v>3.055892359113876</v>
       </c>
       <c r="H2" t="n">
-        <v>6.17061710965057</v>
+        <v>3.185467326986447</v>
       </c>
       <c r="I2" t="n">
-        <v>5.986899653552682</v>
+        <v>3.650614002798783</v>
       </c>
       <c r="J2" t="n">
-        <v>12.00816814809836</v>
+        <v>2.868704075646829</v>
       </c>
       <c r="K2" t="n">
-        <v>43.38794630429422</v>
+        <v>3.079346815707695</v>
       </c>
       <c r="L2" t="n">
-        <v>7.614389425419532</v>
+        <v>3.041150118655348</v>
       </c>
       <c r="M2" t="n">
-        <v>7.225564538494954</v>
+        <v>3.625430572674657</v>
       </c>
       <c r="N2" t="n">
-        <v>12.51214322183455</v>
+        <v>3.005664119016972</v>
       </c>
       <c r="O2" t="n">
-        <v>41.94729816013997</v>
+        <v>3.160529927676158</v>
       </c>
       <c r="P2" t="n">
-        <v>4.949649897158216</v>
+        <v>3.075140276535982</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.503542591976854</v>
+        <v>3.496175713262221</v>
       </c>
       <c r="R2" t="n">
-        <v>9.555741683700957</v>
+        <v>2.932772387561908</v>
       </c>
       <c r="S2" t="n">
-        <v>31.35140164340122</v>
+        <v>3.086036780573321</v>
       </c>
       <c r="T2" t="n">
-        <v>6.380255690131433</v>
+        <v>3.08670304456857</v>
       </c>
       <c r="U2" t="n">
-        <v>6.568287087946119</v>
+        <v>3.485612264727372</v>
       </c>
       <c r="V2" t="n">
-        <v>9.967897970491613</v>
+        <v>2.958814747705048</v>
       </c>
       <c r="W2" t="n">
-        <v>30.22256061277488</v>
+        <v>3.054796803204744</v>
       </c>
       <c r="X2" t="n">
-        <v>6.248578200654281</v>
+        <v>3.079642251240935</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.489758505752438</v>
+        <v>3.51761327336855</v>
       </c>
     </row>
     <row r="3">
@@ -1182,76 +1182,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2596170850151491</v>
+        <v>0.09526640840684419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3835519551633984</v>
+        <v>0.09994882758040791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1461163726930133</v>
+        <v>0.09892939466262574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1471038766452473</v>
+        <v>0.109011772019221</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2635745161381982</v>
+        <v>0.09922335072975752</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3804367902726926</v>
+        <v>0.09957839489495357</v>
       </c>
       <c r="H3" t="n">
-        <v>0.142888420998486</v>
+        <v>0.1019252444672385</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1408791085286538</v>
+        <v>0.1098261032226231</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1899811375736953</v>
+        <v>0.09606156765541063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2932395761752917</v>
+        <v>0.1000083323858769</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1571910096322289</v>
+        <v>0.09930697097440211</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1535731343260984</v>
+        <v>0.1094176276411234</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1930517181234823</v>
+        <v>0.09864982326057192</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2903499670741847</v>
+        <v>0.1014788936349946</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1285164454021877</v>
+        <v>0.09993139328832612</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1353475125723886</v>
+        <v>0.1072879175882233</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1732459617074011</v>
+        <v>0.09728277946868902</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2658015816437664</v>
+        <v>0.1001305420121645</v>
       </c>
       <c r="T3" t="n">
-        <v>0.145123425117367</v>
+        <v>0.1001427028436261</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1470782827238548</v>
+        <v>0.1071113516078219</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1762965974855835</v>
+        <v>0.09777388097744888</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2627573338311489</v>
+        <v>0.09955825593738288</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1437266103320516</v>
+        <v>0.1000137332269018</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1462674326216267</v>
+        <v>0.1076450566484293</v>
       </c>
     </row>
     <row r="4">
@@ -1261,76 +1261,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3285108900911257</v>
+        <v>0.1462098117183996</v>
       </c>
       <c r="C4" t="n">
-        <v>2.624726630474654</v>
+        <v>0.1425741882184576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2607450710641625</v>
+        <v>0.1418467175436122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2498666792383508</v>
+        <v>0.1383885570825256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.321966520640373</v>
+        <v>0.1458462171869417</v>
       </c>
       <c r="G4" t="n">
-        <v>2.604944268490541</v>
+        <v>0.1425772548193096</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2580704772984616</v>
+        <v>0.1410935285757994</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2485848221994962</v>
+        <v>0.1378922868301222</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2175412183237684</v>
+        <v>0.1439056593809458</v>
       </c>
       <c r="K4" t="n">
-        <v>1.346301315674346</v>
+        <v>0.1407895267381752</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2246231677300817</v>
+        <v>0.1398471991326542</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2249694765276566</v>
+        <v>0.1378234148324516</v>
       </c>
       <c r="N4" t="n">
-        <v>0.215915342983579</v>
+        <v>0.1438433733372125</v>
       </c>
       <c r="O4" t="n">
-        <v>1.332399618429445</v>
+        <v>0.1405556585279092</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1976778051921229</v>
+        <v>0.1395032936549105</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1980468306820634</v>
+        <v>0.1370669179516612</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2006691407181426</v>
+        <v>0.1435273375356112</v>
       </c>
       <c r="S4" t="n">
-        <v>1.085675548670672</v>
+        <v>0.1405469405122318</v>
       </c>
       <c r="T4" t="n">
-        <v>0.205820459171797</v>
+        <v>0.1393696400018997</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2061643438483094</v>
+        <v>0.1383699960105145</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1991809270648245</v>
+        <v>0.1428850095132435</v>
       </c>
       <c r="W4" t="n">
-        <v>1.080799655731638</v>
+        <v>0.1401318378722584</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2059616873084499</v>
+        <v>0.1393045625445846</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2051387628123667</v>
+        <v>0.1378293477893488</v>
       </c>
     </row>
     <row r="5">
@@ -1340,76 +1340,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7902845623873652</v>
+        <v>0.6515732924294265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1461302486552808</v>
+        <v>0.7010303115123651</v>
       </c>
       <c r="D5" t="n">
-        <v>0.56038019087639</v>
+        <v>0.6974387308765807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5887294660242518</v>
+        <v>0.7877224412002046</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8186395144872938</v>
+        <v>0.6803285861201028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1460441188222197</v>
+        <v>0.6984171144349134</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5536798416241693</v>
+        <v>0.722394892920134</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5667244978279263</v>
+        <v>0.7964629911310738</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8733109938317291</v>
+        <v>0.6675315485759827</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2178112527717554</v>
+        <v>0.7103392894548282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.699798739465367</v>
+        <v>0.710110546298485</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6826398705124733</v>
+        <v>0.7938972327317504</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8941083827385279</v>
+        <v>0.6858141669780421</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2179150782228775</v>
+        <v>0.7219836945578726</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6501308797782462</v>
+        <v>0.7163371607234345</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6834116562545259</v>
+        <v>0.7827411544050336</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8633413243680567</v>
+        <v>0.6777996522408266</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2448259813617617</v>
+        <v>0.7124348751188234</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7050971788777975</v>
+        <v>0.7185402993238779</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7134031034584301</v>
+        <v>0.7740937681293473</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8851078267559566</v>
+        <v>0.6842836859550796</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2431138208063895</v>
+        <v>0.710461358739463</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6978317774062777</v>
+        <v>0.7179501618612973</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7130170359631759</v>
+        <v>0.7810024379782191</v>
       </c>
     </row>
     <row r="6">
@@ -1419,76 +1419,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2886654347107159</v>
+        <v>-0.2438900034816637</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.712737156147933</v>
+        <v>-0.2257452471135075</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.479448358035872</v>
+        <v>-0.20406299126646</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4529998835580245</v>
+        <v>-0.1881908161494522</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2743395118726778</v>
+        <v>-0.2334214482113403</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7109260923230623</v>
+        <v>-0.2048050215652706</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.47547514244567</v>
+        <v>-0.1964748987888418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4506728322847559</v>
+        <v>-0.1993829151180535</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.277363057763314</v>
+        <v>-0.2188999678137772</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.6077913559090411</v>
+        <v>-0.2055052968019089</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.383378227355354</v>
+        <v>-0.1975081114184588</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3651679951490198</v>
+        <v>-0.1911585025624404</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2714271291697707</v>
+        <v>-0.2162717979524342</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6108735157742273</v>
+        <v>-0.196038836500656</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3828605683549497</v>
+        <v>-0.1954966515902944</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3647403577183466</v>
+        <v>-0.1947289925060446</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.274573878243795</v>
+        <v>-0.2215535525923328</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.5817068639439444</v>
+        <v>-0.2083442298189825</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3621045037442149</v>
+        <v>-0.1948898637228887</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.343532943531121</v>
+        <v>-0.1881098454521793</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2712469508637385</v>
+        <v>-0.2146228959917894</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.5848724264826857</v>
+        <v>-0.2028443198050048</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3652195900973556</v>
+        <v>-0.1950109338199709</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3446822406372385</v>
+        <v>-0.1968102857935684</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1639,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.293039631125476</v>
+        <v>2.77499742049895</v>
       </c>
       <c r="C2" t="n">
-        <v>3.440346471240195</v>
+        <v>3.066854469023514</v>
       </c>
       <c r="D2" t="n">
-        <v>9.74569346411883</v>
+        <v>3.555879891793272</v>
       </c>
       <c r="E2" t="n">
-        <v>5.977566909996126</v>
+        <v>2.892607977107825</v>
       </c>
       <c r="F2" t="n">
-        <v>5.300244838756644</v>
+        <v>2.746935875089095</v>
       </c>
       <c r="G2" t="n">
-        <v>3.490726878665848</v>
+        <v>2.840234129872154</v>
       </c>
       <c r="H2" t="n">
-        <v>4.557103983961363</v>
+        <v>3.390542867058371</v>
       </c>
       <c r="I2" t="n">
-        <v>3.538348349378032</v>
+        <v>3.014466727917439</v>
       </c>
       <c r="J2" t="n">
-        <v>4.653186365721838</v>
+        <v>2.740420346005984</v>
       </c>
       <c r="K2" t="n">
-        <v>3.480515133848572</v>
+        <v>2.78790743885687</v>
       </c>
       <c r="L2" t="n">
-        <v>6.080112091632257</v>
+        <v>3.031122247959569</v>
       </c>
       <c r="M2" t="n">
-        <v>4.778359181964236</v>
+        <v>2.837146812274931</v>
       </c>
       <c r="N2" t="n">
-        <v>4.868976786868241</v>
+        <v>2.765003528729698</v>
       </c>
       <c r="O2" t="n">
-        <v>3.627554769449568</v>
+        <v>2.730046539845006</v>
       </c>
       <c r="P2" t="n">
-        <v>6.247065279008583</v>
+        <v>3.016695152645311</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.286970234341214</v>
+        <v>2.948930029484134</v>
       </c>
       <c r="R2" t="n">
-        <v>4.27377278496742</v>
+        <v>2.636121637993099</v>
       </c>
       <c r="S2" t="n">
-        <v>3.453915491536108</v>
+        <v>2.691122513270625</v>
       </c>
       <c r="T2" t="n">
-        <v>5.42963536050087</v>
+        <v>2.955269841410994</v>
       </c>
       <c r="U2" t="n">
-        <v>4.542727900752306</v>
+        <v>2.877301803377398</v>
       </c>
       <c r="V2" t="n">
-        <v>4.682389319008525</v>
+        <v>2.834259603310244</v>
       </c>
       <c r="W2" t="n">
-        <v>3.533779138673498</v>
+        <v>2.729601826822466</v>
       </c>
       <c r="X2" t="n">
-        <v>5.742504045614449</v>
+        <v>3.047539096860289</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.077439276995965</v>
+        <v>3.082692313496543</v>
       </c>
     </row>
     <row r="3">
@@ -1718,76 +1718,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1328177143508626</v>
+        <v>0.09424102661766609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1063503265513941</v>
+        <v>0.09977962613732849</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1746654625410931</v>
+        <v>0.1082786504442472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.140775726994695</v>
+        <v>0.09651939173358826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1329056008949256</v>
+        <v>0.09368764433342669</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1071968897292328</v>
+        <v>0.09551283824153911</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1233063268094321</v>
+        <v>0.1055046086301767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.107988992797355</v>
+        <v>0.09881333905530942</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1246125762096759</v>
+        <v>0.09355860355896017</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1070260153749305</v>
+        <v>0.09449432935074675</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1419046449707442</v>
+        <v>0.09912181679367249</v>
       </c>
       <c r="M3" t="n">
-        <v>0.126283612169817</v>
+        <v>0.09545310558251052</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1274724143136816</v>
+        <v>0.09404438499955003</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1094521621015931</v>
+        <v>0.09335271613782004</v>
       </c>
       <c r="P3" t="n">
-        <v>0.143710424461341</v>
+        <v>0.09885468088260096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1327436092020373</v>
+        <v>0.09758783257704784</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1193280419410438</v>
+        <v>0.09146391809895205</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1065792100461849</v>
+        <v>0.09257540792357455</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1344681156360374</v>
+        <v>0.09770720923873499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1231090743322263</v>
+        <v>0.09622654019154742</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1250054933011588</v>
+        <v>0.09539720402200169</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1079133285581506</v>
+        <v>0.09334387805636912</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1381284218205836</v>
+        <v>0.0994247135581523</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1301435270074984</v>
+        <v>0.1000694699481013</v>
       </c>
     </row>
     <row r="4">
@@ -1797,76 +1797,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1972690068805145</v>
+        <v>0.1435187710999097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1584314974983385</v>
+        <v>0.1367435091130798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2740081432975471</v>
+        <v>0.1383740820319155</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2739801561864958</v>
+        <v>0.1392811574997546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.197466703901467</v>
+        <v>0.1426734207265342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1598132280244285</v>
+        <v>0.1373326219054835</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1631029807764081</v>
+        <v>0.1392425432381202</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1591419861508473</v>
+        <v>0.1376778939599666</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1775261912932758</v>
+        <v>0.14257954701056</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1592008061301578</v>
+        <v>0.1364559596819848</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1961312191218741</v>
+        <v>0.1400995775036807</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1932939491154151</v>
+        <v>0.1379705168934394</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1773153583615855</v>
+        <v>0.1425999645822325</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1623325443489833</v>
+        <v>0.137915266962632</v>
       </c>
       <c r="P4" t="n">
-        <v>0.196711784406533</v>
+        <v>0.1408069520162238</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1945013857386751</v>
+        <v>0.1386440898792071</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1763974935433901</v>
+        <v>0.1434974795546587</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1606862804666381</v>
+        <v>0.1379862469270051</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1855412761735813</v>
+        <v>0.1413452495010717</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1819279624661512</v>
+        <v>0.1386677449945413</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1761922867507361</v>
+        <v>0.1433047026291803</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1621807917009258</v>
+        <v>0.1378263793381722</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1852956831749837</v>
+        <v>0.1409582909905325</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1821596953945895</v>
+        <v>0.1386466084822203</v>
       </c>
     </row>
     <row r="5">
@@ -1876,76 +1876,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.673282217268474</v>
+        <v>0.6566459975612584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6712700961026352</v>
+        <v>0.7296845516434415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6374462468125365</v>
+        <v>0.7825067299761608</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5138172375479274</v>
+        <v>0.6929824067103858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6730532199557228</v>
+        <v>0.6566580085929262</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6707635597777114</v>
+        <v>0.6954854346789794</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7560029021080137</v>
+        <v>0.7577038322960834</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6785700958576357</v>
+        <v>0.7177139060831503</v>
       </c>
       <c r="J5" t="n">
-        <v>0.701939107136108</v>
+        <v>0.656185305119751</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6722705617924398</v>
+        <v>0.6924895737127856</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7235189053842873</v>
+        <v>0.7075097481365948</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6533241870619213</v>
+        <v>0.6918369788831993</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7189022738444177</v>
+        <v>0.6594979548211449</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6742465753896663</v>
+        <v>0.6768845697345013</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7305633716602502</v>
+        <v>0.7020582397892607</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6824815602105104</v>
+        <v>0.7038730079448083</v>
       </c>
       <c r="R5" t="n">
-        <v>0.676472434749713</v>
+        <v>0.6373904153773873</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6632751080968171</v>
+        <v>0.6709031514752849</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7247342392440868</v>
+        <v>0.6912663112741838</v>
       </c>
       <c r="U5" t="n">
-        <v>0.676691326959326</v>
+        <v>0.6939359992861743</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7094833468959254</v>
+        <v>0.6656948604740102</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6653890847761509</v>
+        <v>0.6772569845090368</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7454486766976769</v>
+        <v>0.7053484605941354</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7144474342998046</v>
+        <v>0.7217592340957547</v>
       </c>
     </row>
     <row r="6">
@@ -1955,76 +1955,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.274006077984817</v>
+        <v>-0.2205268161733829</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2648173519135998</v>
+        <v>-0.2102866718221291</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2586700769484783</v>
+        <v>-0.2085689693108573</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2638222442337711</v>
+        <v>-0.2394530840661691</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2712568611697962</v>
+        <v>-0.2167801529330208</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2639842322100703</v>
+        <v>-0.2245450734895393</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2668830471612686</v>
+        <v>-0.2042234949728717</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2591751520316077</v>
+        <v>-0.2188131470265026</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2705607920463697</v>
+        <v>-0.2141310778676606</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2439908398141257</v>
+        <v>-0.213615500526781</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2669819895418113</v>
+        <v>-0.2134256827950419</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2463214058165213</v>
+        <v>-0.219584191619921</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2677864466208649</v>
+        <v>-0.203654971182071</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2551105615118423</v>
+        <v>-0.2161559442698382</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2699000583940281</v>
+        <v>-0.2097528967073956</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2502988713959852</v>
+        <v>-0.212584891538512</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2803912242586821</v>
+        <v>-0.2148166530819151</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.2468657532286727</v>
+        <v>-0.2193642417102586</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.2702449145922586</v>
+        <v>-0.2109005717946058</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.2458865065609142</v>
+        <v>-0.2153645488893773</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2719491197035019</v>
+        <v>-0.2026713111622997</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.254663500701246</v>
+        <v>-0.2181510351441237</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.2729279091275957</v>
+        <v>-0.2053268057918707</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2508416059212434</v>
+        <v>-0.204366479447986</v>
       </c>
     </row>
   </sheetData>
@@ -2175,76 +2175,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.339425642005505</v>
+        <v>2.87006099708343</v>
       </c>
       <c r="C2" t="n">
-        <v>9.45681251873469</v>
+        <v>3.495152666754187</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3234306231819</v>
+        <v>3.472549170703409</v>
       </c>
       <c r="E2" t="n">
-        <v>4.734332338055238</v>
+        <v>4.359618496073874</v>
       </c>
       <c r="F2" t="n">
-        <v>4.773561183079897</v>
+        <v>3.101889834031375</v>
       </c>
       <c r="G2" t="n">
-        <v>8.917528587811844</v>
+        <v>3.696266698329722</v>
       </c>
       <c r="H2" t="n">
-        <v>10.68975231313926</v>
+        <v>3.408657934510352</v>
       </c>
       <c r="I2" t="n">
-        <v>4.743712353166145</v>
+        <v>3.859518833829827</v>
       </c>
       <c r="J2" t="n">
-        <v>4.724827078869928</v>
+        <v>3.08463146361521</v>
       </c>
       <c r="K2" t="n">
-        <v>6.517349451988776</v>
+        <v>3.051908973368888</v>
       </c>
       <c r="L2" t="n">
-        <v>6.541487938930242</v>
+        <v>3.031502245573072</v>
       </c>
       <c r="M2" t="n">
-        <v>3.986527892555034</v>
+        <v>3.55457259635737</v>
       </c>
       <c r="N2" t="n">
-        <v>3.924847875770842</v>
+        <v>3.035364608864892</v>
       </c>
       <c r="O2" t="n">
-        <v>5.741402872338589</v>
+        <v>3.045126556856324</v>
       </c>
       <c r="P2" t="n">
-        <v>6.715885457778748</v>
+        <v>3.13429683156661</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.975338091853359</v>
+        <v>3.341754012524349</v>
       </c>
       <c r="R2" t="n">
-        <v>4.459403545823439</v>
+        <v>3.065679104727256</v>
       </c>
       <c r="S2" t="n">
-        <v>5.94501407012907</v>
+        <v>2.914672003044656</v>
       </c>
       <c r="T2" t="n">
-        <v>5.88012217296431</v>
+        <v>2.92328773113455</v>
       </c>
       <c r="U2" t="n">
-        <v>3.77887297623347</v>
+        <v>3.417723895687611</v>
       </c>
       <c r="V2" t="n">
-        <v>4.568812993971883</v>
+        <v>3.077244090016542</v>
       </c>
       <c r="W2" t="n">
-        <v>6.495693475796541</v>
+        <v>2.95554672410954</v>
       </c>
       <c r="X2" t="n">
-        <v>6.378063715178151</v>
+        <v>3.111470672950025</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.956703133612596</v>
+        <v>3.390962598477486</v>
       </c>
     </row>
     <row r="3">
@@ -2254,76 +2254,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1202673118256032</v>
+        <v>0.09608762685864813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1724972111969325</v>
+        <v>0.1072708344873139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1856265247417539</v>
+        <v>0.1068924677069305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1256997424549324</v>
+        <v>0.1205540387355168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1262201843925461</v>
+        <v>0.1004193962417126</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1682956967063802</v>
+        <v>0.1105613614787311</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1813907885552506</v>
+        <v>0.1058132516723109</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1258244866449409</v>
+        <v>0.1131371988199321</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1255731384567804</v>
+        <v>0.1001048857226809</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1465532233534657</v>
+        <v>0.09950514634883989</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1468024522328402</v>
+        <v>0.09912884087655227</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1150859816834995</v>
+        <v>0.1082570870800561</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1141454373803137</v>
+        <v>0.09920019990719697</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1381158190288958</v>
+        <v>0.09938027319173104</v>
       </c>
       <c r="P3" t="n">
-        <v>0.148581315802379</v>
+        <v>0.1010066515168857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1149161592350714</v>
+        <v>0.1046674058092616</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1219563104266423</v>
+        <v>0.09975807421455452</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1404141179153722</v>
+        <v>0.09693965716270192</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1396885357390572</v>
+        <v>0.09710316636883221</v>
       </c>
       <c r="U3" t="n">
-        <v>0.111874999469505</v>
+        <v>0.1059672731569212</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1234666335154175</v>
+        <v>0.09996988203479429</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1463289905927636</v>
+        <v>0.09771241878653525</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1451003637748391</v>
+        <v>0.1005934620248359</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1146325532688832</v>
+        <v>0.1055117734033224</v>
       </c>
     </row>
     <row r="4">
@@ -2333,76 +2333,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1737302563758477</v>
+        <v>0.1447782156902814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2831453831343436</v>
+        <v>0.1413753415066154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289437514261076</v>
+        <v>0.1408011409124799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1674282604393176</v>
+        <v>0.1410700116567065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1730055528854156</v>
+        <v>0.1442830467401749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2672544164478531</v>
+        <v>0.1404363173064871</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2721697444674712</v>
+        <v>0.1408519991137935</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1654332872752845</v>
+        <v>0.1421401401601836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1735868482084016</v>
+        <v>0.1441165784228165</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4163739373080168</v>
+        <v>0.1411562540332406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2115906200906391</v>
+        <v>0.1413431838209807</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1620452018321289</v>
+        <v>0.1436598328487202</v>
       </c>
       <c r="N4" t="n">
-        <v>0.170367599554282</v>
+        <v>0.1438857579422203</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2047565065331756</v>
+        <v>0.1405825620225231</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2081540504402445</v>
+        <v>0.1408953410295164</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1788141260338722</v>
+        <v>0.1445758920019947</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1729991193870927</v>
+        <v>0.1442842734482882</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4085539243211776</v>
+        <v>0.140529398490011</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1945322595001892</v>
+        <v>0.1413398040285667</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1736788868669859</v>
+        <v>0.1436916762444449</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1733848072697033</v>
+        <v>0.1443113879024253</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4090702448376558</v>
+        <v>0.1405099048913242</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1936048167787742</v>
+        <v>0.1409855900633113</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1742075002681234</v>
+        <v>0.1431842959746952</v>
       </c>
     </row>
     <row r="5">
@@ -2412,76 +2412,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6922646310117516</v>
+        <v>0.6636884313051958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6092178134336311</v>
+        <v>0.7587662271520973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6413354026192908</v>
+        <v>0.7591733065101615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7507677743596386</v>
+        <v>0.8545688578298608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7295730240297189</v>
+        <v>0.6959888809566652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6297209189028246</v>
+        <v>0.7872704411455255</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6664619864715705</v>
+        <v>0.7512371307334094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7605753879239935</v>
+        <v>0.7959553064492065</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7234023761179316</v>
+        <v>0.6946104800586382</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3519750162581656</v>
+        <v>0.7049290662346964</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6938041590404828</v>
+        <v>0.7013344272908459</v>
       </c>
       <c r="M5" t="n">
-        <v>0.710209129195464</v>
+        <v>0.7535654534281364</v>
       </c>
       <c r="N5" t="n">
-        <v>0.669994985425295</v>
+        <v>0.6894372405296182</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6745368993024776</v>
+        <v>0.7069174993112521</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7138045860175696</v>
+        <v>0.7168913519697265</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6426570527951642</v>
+        <v>0.7239616810236768</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7049533596397104</v>
+        <v>0.6913994978829624</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3436856423510646</v>
+        <v>0.689817633920866</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7180738870661257</v>
+        <v>0.6870192514856348</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6441485288605391</v>
+        <v>0.7374628505039651</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7120960334394401</v>
+        <v>0.6927373056822648</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3577111570430549</v>
+        <v>0.695413030576811</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7494667033033612</v>
+        <v>0.7135017272308694</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6580230649797044</v>
+        <v>0.7368948716412963</v>
       </c>
     </row>
     <row r="6">
@@ -2491,76 +2491,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2987806840346173</v>
+        <v>-0.2189320907800016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2796748483243414</v>
+        <v>-0.2333284109823578</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2750636675058666</v>
+        <v>-0.2228212820497718</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2661016924186068</v>
+        <v>-0.2146796445856017</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2921057225177461</v>
+        <v>-0.2064115700177886</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.283785867373969</v>
+        <v>-0.2150573456833039</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2696567903422959</v>
+        <v>-0.2354148694862036</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2594190757215566</v>
+        <v>-0.2286562863059066</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2968958108027187</v>
+        <v>-0.2338224760860355</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.6544975771993468</v>
+        <v>-0.2391837412671656</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2701271378457555</v>
+        <v>-0.2291149439201294</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2603477979250303</v>
+        <v>-0.2160076056045639</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2940692754993134</v>
+        <v>-0.2214088489146118</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2831198278698996</v>
+        <v>-0.225731460565701</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2663948210685904</v>
+        <v>-0.1909509505200376</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2599580206814007</v>
+        <v>-0.222109969169465</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2945162359382536</v>
+        <v>-0.2352277666698426</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.6510589662390842</v>
+        <v>-0.2345359201788111</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.2653482474744301</v>
+        <v>-0.2305943014381535</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.2637741766688261</v>
+        <v>-0.2128789968325112</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2893141668394131</v>
+        <v>-0.2215741102876931</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.6480592945175073</v>
+        <v>-0.2399926666497118</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.2602906869175238</v>
+        <v>-0.2323043337480686</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2651348707870493</v>
+        <v>-0.2190413467806984</v>
       </c>
     </row>
   </sheetData>
@@ -2711,76 +2711,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.44834013930659</v>
+        <v>6.441042491761898</v>
       </c>
       <c r="C2" t="n">
-        <v>7.314052298969631</v>
+        <v>7.01395702258098</v>
       </c>
       <c r="D2" t="n">
-        <v>7.270471968319587</v>
+        <v>7.307037533940925</v>
       </c>
       <c r="E2" t="n">
-        <v>7.604195576445676</v>
+        <v>7.185775508617017</v>
       </c>
       <c r="F2" t="n">
-        <v>14.5994857079996</v>
+        <v>6.270950738503766</v>
       </c>
       <c r="G2" t="n">
-        <v>6.88021463779783</v>
+        <v>7.039043749440713</v>
       </c>
       <c r="H2" t="n">
-        <v>6.350172024032963</v>
+        <v>6.688119471090064</v>
       </c>
       <c r="I2" t="n">
-        <v>6.992689709716971</v>
+        <v>7.293094645424436</v>
       </c>
       <c r="J2" t="n">
-        <v>115.3758592406656</v>
+        <v>6.081957999730171</v>
       </c>
       <c r="K2" t="n">
-        <v>10.84729605845934</v>
+        <v>6.258981766505527</v>
       </c>
       <c r="L2" t="n">
-        <v>8.707819489143464</v>
+        <v>6.633726913895706</v>
       </c>
       <c r="M2" t="n">
-        <v>8.417156697808474</v>
+        <v>6.676742892464875</v>
       </c>
       <c r="N2" t="n">
-        <v>77.6533186828628</v>
+        <v>6.182766420795312</v>
       </c>
       <c r="O2" t="n">
-        <v>8.990245745870563</v>
+        <v>6.330195229125548</v>
       </c>
       <c r="P2" t="n">
-        <v>8.192899548906791</v>
+        <v>6.265927720029803</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.764039163897658</v>
+        <v>6.430739403042142</v>
       </c>
       <c r="R2" t="n">
-        <v>80.21677830284389</v>
+        <v>6.13367555777453</v>
       </c>
       <c r="S2" t="n">
-        <v>9.30084845589451</v>
+        <v>6.047960063822844</v>
       </c>
       <c r="T2" t="n">
-        <v>8.054860525114577</v>
+        <v>6.501500901022705</v>
       </c>
       <c r="U2" t="n">
-        <v>7.855971513666884</v>
+        <v>6.500986570377511</v>
       </c>
       <c r="V2" t="n">
-        <v>78.98120421592571</v>
+        <v>5.89639608072023</v>
       </c>
       <c r="W2" t="n">
-        <v>9.315983357407488</v>
+        <v>5.996250966212785</v>
       </c>
       <c r="X2" t="n">
-        <v>7.676598311616557</v>
+        <v>6.132093394225115</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.608914898335465</v>
+        <v>6.081586468475341</v>
       </c>
     </row>
     <row r="3">
@@ -2790,76 +2790,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1926689441805474</v>
+        <v>0.1457604208483156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1544102829117289</v>
+        <v>0.1515366460204179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1539990297070253</v>
+        <v>0.1543442227864777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1570981201842827</v>
+        <v>0.1531939661480632</v>
       </c>
       <c r="F3" t="n">
-        <v>0.204727523849372</v>
+        <v>0.1439655942291871</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1502235109060905</v>
+        <v>0.1517806797631642</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1448063616902651</v>
+        <v>0.1483006260331849</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1513292076298862</v>
+        <v>0.1542127639180444</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3805702220859521</v>
+        <v>0.1419248265426989</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1824635034350734</v>
+        <v>0.1438378268352587</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1666041165181698</v>
+        <v>0.147748015379656</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1642023210940662</v>
+        <v>0.1481853457979712</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3443835506042345</v>
+        <v>0.1430195999632942</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1688744779199511</v>
+        <v>0.1445951494406228</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1623015435405375</v>
+        <v>0.1439119979799852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1490658825344957</v>
+        <v>0.1456527951717836</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3473099249259373</v>
+        <v>0.1424882777584831</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1713032701605881</v>
+        <v>0.1415523333046833</v>
       </c>
       <c r="T3" t="n">
-        <v>0.161109932075155</v>
+        <v>0.1463891816928651</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1593629145246411</v>
+        <v>0.1463838526627574</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3459103456281376</v>
+        <v>0.1398710982148514</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1714198669777312</v>
+        <v>0.1409825667244624</v>
       </c>
       <c r="X3" t="n">
-        <v>0.157755664997639</v>
+        <v>0.1424710969873204</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1571411368248803</v>
+        <v>0.1419207649336114</v>
       </c>
     </row>
     <row r="4">
@@ -2869,76 +2869,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2482211082172798</v>
+        <v>0.1257806906015005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1464019449600936</v>
+        <v>0.131576834112743</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1501555900894296</v>
+        <v>0.1353477106980147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1565418146357718</v>
+        <v>0.1390898650583813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2483260729839883</v>
+        <v>0.1227079564505745</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433541201510531</v>
+        <v>0.1281562516920592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1462265576078672</v>
+        <v>0.1313167985153713</v>
       </c>
       <c r="I4" t="n">
-        <v>0.153428916161988</v>
+        <v>0.1351540826821936</v>
       </c>
       <c r="J4" t="n">
-        <v>1.511119461251581</v>
+        <v>0.1261179275542171</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4634387637082681</v>
+        <v>0.1315184693857204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1881768922883817</v>
+        <v>0.1334549267938254</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1900415195248359</v>
+        <v>0.136583965670805</v>
       </c>
       <c r="N4" t="n">
-        <v>1.499914347363809</v>
+        <v>0.125345484796746</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1609146021868794</v>
+        <v>0.1301582450137256</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1887384885306269</v>
+        <v>0.1325364707720482</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1529734700599163</v>
+        <v>0.1349910164938986</v>
       </c>
       <c r="R4" t="n">
-        <v>1.208465288724619</v>
+        <v>0.1262400316460429</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3971852658512081</v>
+        <v>0.1315850789947206</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1763028265341607</v>
+        <v>0.1333684975161618</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1793549295419369</v>
+        <v>0.1360119762375059</v>
       </c>
       <c r="V4" t="n">
-        <v>1.20489986353392</v>
+        <v>0.1261920697359728</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3961574948839566</v>
+        <v>0.1309880595705536</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1780888171924667</v>
+        <v>0.1328369526693273</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.178440413677291</v>
+        <v>0.1349251452176672</v>
       </c>
     </row>
     <row r="5">
@@ -2948,76 +2948,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.776198871902123</v>
+        <v>1.15884576679671</v>
       </c>
       <c r="C5" t="n">
-        <v>1.054701035247982</v>
+        <v>1.151697006864994</v>
       </c>
       <c r="D5" t="n">
-        <v>1.025596380496435</v>
+        <v>1.140353405244125</v>
       </c>
       <c r="E5" t="n">
-        <v>1.003553718537154</v>
+        <v>1.10140279511927</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8244302396010286</v>
+        <v>1.173237648099657</v>
       </c>
       <c r="G5" t="n">
-        <v>1.047919032587268</v>
+        <v>1.184340816457952</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9902877019001528</v>
+        <v>1.129334766837357</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9863147796085261</v>
+        <v>1.141014469245935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2518465494255139</v>
+        <v>1.125334274793617</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3937165332806151</v>
+        <v>1.093670170486913</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8853590602551159</v>
+        <v>1.107100493996089</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8640339306096064</v>
+        <v>1.084939546675104</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2296021444221195</v>
+        <v>1.141003205621707</v>
       </c>
       <c r="O5" t="n">
-        <v>1.049466460003595</v>
+        <v>1.110918093781725</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8599281725952815</v>
+        <v>1.085829410890999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9744557829283069</v>
+        <v>1.078981394131268</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2873975182956878</v>
+        <v>1.128709141629477</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4312931140420527</v>
+        <v>1.075747602890162</v>
       </c>
       <c r="T5" t="n">
-        <v>0.913825009174984</v>
+        <v>1.097629383394122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8885337856709355</v>
+        <v>1.076257082002397</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2870863846009554</v>
+        <v>1.108398479456742</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4327063584343996</v>
+        <v>1.076300902438557</v>
       </c>
       <c r="X5" t="n">
-        <v>0.885825777747443</v>
+        <v>1.07252608648721</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8806364745884843</v>
+        <v>1.051848154060969</v>
       </c>
     </row>
     <row r="6">
@@ -3027,76 +3027,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1895515175416601</v>
+        <v>-0.1459081367157734</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1963013723345912</v>
+        <v>-0.1576794365059824</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2031436959601303</v>
+        <v>-0.1704721054351646</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.289321815057472</v>
+        <v>-0.2475755090726953</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2030995476728812</v>
+        <v>-0.1643194727445826</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.205872899005619</v>
+        <v>-0.1604919876312526</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2276603453601054</v>
+        <v>-0.1926049935635472</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2665159575947078</v>
+        <v>-0.217971850232228</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2025950322788549</v>
+        <v>-0.1591079456626258</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.6032480414073689</v>
+        <v>-0.1630078801914067</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3460900435544477</v>
+        <v>-0.1794903434813099</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3323976190996357</v>
+        <v>-0.2319170522804602</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2138009191468963</v>
+        <v>-0.1727766327656879</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2144897900027374</v>
+        <v>-0.1771728208391011</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.349115348048726</v>
+        <v>-0.1929049118812454</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2596711170130502</v>
+        <v>-0.2236336886292617</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2100644934436936</v>
+        <v>-0.1683878981125063</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.5563010899955663</v>
+        <v>-0.1727636439395525</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3235585746427433</v>
+        <v>-0.1841260568188997</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.313703306764669</v>
+        <v>-0.2377729714390679</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2166102004879661</v>
+        <v>-0.1847341010246271</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.5617028925034226</v>
+        <v>-0.1849293544509386</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3307370486520044</v>
+        <v>-0.1978407989534848</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3227461918980301</v>
+        <v>-0.2283425346471357</v>
       </c>
     </row>
   </sheetData>
@@ -3247,76 +3247,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.062547929284722</v>
+        <v>2.795520683618175</v>
       </c>
       <c r="C2" t="n">
-        <v>4.376323232712322</v>
+        <v>3.525298907899193</v>
       </c>
       <c r="D2" t="n">
-        <v>4.920439719140457</v>
+        <v>4.212862881528202</v>
       </c>
       <c r="E2" t="n">
-        <v>10.71409791136519</v>
+        <v>5.712220159192655</v>
       </c>
       <c r="F2" t="n">
-        <v>10.07211017338387</v>
+        <v>2.78120303660786</v>
       </c>
       <c r="G2" t="n">
-        <v>5.085294603210532</v>
+        <v>3.539179294087547</v>
       </c>
       <c r="H2" t="n">
-        <v>4.941578341141102</v>
+        <v>3.992007218603952</v>
       </c>
       <c r="I2" t="n">
-        <v>8.905516502688624</v>
+        <v>5.262812946031159</v>
       </c>
       <c r="J2" t="n">
-        <v>70.21480908949337</v>
+        <v>2.998299784715079</v>
       </c>
       <c r="K2" t="n">
-        <v>5.454788145708491</v>
+        <v>3.501466564952408</v>
       </c>
       <c r="L2" t="n">
-        <v>4.243138344703648</v>
+        <v>3.717996218191871</v>
       </c>
       <c r="M2" t="n">
-        <v>6.758169588910446</v>
+        <v>4.847656264130956</v>
       </c>
       <c r="N2" t="n">
-        <v>8.263490991264431</v>
+        <v>2.940759456603477</v>
       </c>
       <c r="O2" t="n">
-        <v>5.495139318969266</v>
+        <v>3.455771867937685</v>
       </c>
       <c r="P2" t="n">
-        <v>4.377812861741301</v>
+        <v>3.694948479732306</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.01719052764135</v>
+        <v>4.622416694692082</v>
       </c>
       <c r="R2" t="n">
-        <v>50.24656997543103</v>
+        <v>3.179906902845833</v>
       </c>
       <c r="S2" t="n">
-        <v>6.549047925915282</v>
+        <v>3.598778044007302</v>
       </c>
       <c r="T2" t="n">
-        <v>5.119780739345562</v>
+        <v>3.69275053887023</v>
       </c>
       <c r="U2" t="n">
-        <v>6.36056677741111</v>
+        <v>4.698229710929669</v>
       </c>
       <c r="V2" t="n">
-        <v>60.74020931107755</v>
+        <v>3.028748028026499</v>
       </c>
       <c r="W2" t="n">
-        <v>6.472177089112678</v>
+        <v>3.537040226762368</v>
       </c>
       <c r="X2" t="n">
-        <v>5.28761887801968</v>
+        <v>3.687731251672846</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.263886413972659</v>
+        <v>4.54738198892745</v>
       </c>
     </row>
     <row r="3">
@@ -3326,76 +3326,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1299555730587556</v>
+        <v>0.09464332905775286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1207904762758301</v>
+        <v>0.1077727108559423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1281399544910393</v>
+        <v>0.1184468287996547</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1815574347808173</v>
+        <v>0.1377811252330596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1770510017002696</v>
+        <v>0.09436288535762105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1302425015891187</v>
+        <v>0.1080027452660404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1284125834458292</v>
+        <v>0.1151690093624436</v>
       </c>
       <c r="I3" t="n">
-        <v>0.168199707810524</v>
+        <v>0.1324479949170241</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3353588450643736</v>
+        <v>0.09851276706538825</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1347684530196755</v>
+        <v>0.1073762078420268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1188860314575004</v>
+        <v>0.1109089881387124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1490069676639445</v>
+        <v>0.1271942599853013</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1629044873114436</v>
+        <v>0.09743371948991286</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1352479956421109</v>
+        <v>0.1066104730135349</v>
       </c>
       <c r="P3" t="n">
-        <v>0.120811527099203</v>
+        <v>0.1105402245419917</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1515681402230211</v>
+        <v>0.1241965269844179</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3058986657133207</v>
+        <v>0.101825934429483</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1468803558748086</v>
+        <v>0.1089830589076033</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1306756114152692</v>
+        <v>0.1105049694193947</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1449160525884523</v>
+        <v>0.1252178343306887</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3224962440338901</v>
+        <v>0.09907791643808528</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1460848095615934</v>
+        <v>0.1079673380856938</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1327515320897723</v>
+        <v>0.1104244019597902</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1438902071123727</v>
+        <v>0.1231729846609035</v>
       </c>
     </row>
     <row r="4">
@@ -3405,76 +3405,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1670122729056294</v>
+        <v>0.1235583349772551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1499064966709285</v>
+        <v>0.1342162091472668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1481132019643909</v>
+        <v>0.1343440908608251</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2441590909914018</v>
+        <v>0.1348860518464058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2587436470334148</v>
+        <v>0.1231284787435215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1546859952831471</v>
+        <v>0.1329436946948639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1538077387930507</v>
+        <v>0.1353656293313746</v>
       </c>
       <c r="I4" t="n">
-        <v>0.247805817372871</v>
+        <v>0.1358878870161987</v>
       </c>
       <c r="J4" t="n">
-        <v>1.484010030562949</v>
+        <v>0.1279554307630029</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4730155305084044</v>
+        <v>0.1357217069346307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.147102854332177</v>
+        <v>0.134746129619399</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1856944366347005</v>
+        <v>0.1338681282961094</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1883094730417936</v>
+        <v>0.1283131331545636</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4736622115604297</v>
+        <v>0.1354615032359929</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1482502357871238</v>
+        <v>0.1353172226205906</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1894638936031632</v>
+        <v>0.1352936701778882</v>
       </c>
       <c r="R4" t="n">
-        <v>1.186073545540263</v>
+        <v>0.129474097386966</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4069610523109784</v>
+        <v>0.1362900264097181</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1761328082560284</v>
+        <v>0.1359235926932003</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1762360986678133</v>
+        <v>0.134707933636649</v>
       </c>
       <c r="V4" t="n">
-        <v>1.179883490955864</v>
+        <v>0.1293983810103037</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4082544505487077</v>
+        <v>0.1357111518753726</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1774609847521156</v>
+        <v>0.1354960726169553</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1788198320313427</v>
+        <v>0.1353689861872033</v>
       </c>
     </row>
     <row r="5">
@@ -3484,76 +3484,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7781198998003411</v>
+        <v>0.7659809358484397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8057721243461966</v>
+        <v>0.8029783551529922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8651487699377838</v>
+        <v>0.8816675749613782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7436030091839217</v>
+        <v>1.021463104205544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6842718796392505</v>
+        <v>0.7663774158550303</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8419799177728693</v>
+        <v>0.8123946420620499</v>
       </c>
       <c r="H5" t="n">
-        <v>0.834890262697439</v>
+        <v>0.8507994971198356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6787560905296889</v>
+        <v>0.9746858077293923</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2259815217941334</v>
+        <v>0.7698990693708976</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2849133787950352</v>
+        <v>0.7911498482239379</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8081830362655005</v>
+        <v>0.8230959097080083</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8024309740472847</v>
+        <v>0.9501459503785257</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8650891783616664</v>
+        <v>0.7593433119004743</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2855368073305885</v>
+        <v>0.7870167572834662</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8149162560029868</v>
+        <v>0.8168969359645378</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7999842995968633</v>
+        <v>0.9179773659855667</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2579086826980718</v>
+        <v>0.7864579594260502</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3609199333467674</v>
+        <v>0.7996407497932092</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7419152212989064</v>
+        <v>0.8129932944666994</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8222835939054912</v>
+        <v>0.9295505539298213</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2733288892555186</v>
+        <v>0.7656812679147506</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3578278433100987</v>
+        <v>0.795567177742646</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7480603822592601</v>
+        <v>0.8149638570850518</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8046658218935822</v>
+        <v>0.9099054970432168</v>
       </c>
     </row>
     <row r="6">
@@ -3563,76 +3563,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2221568374010777</v>
+        <v>-0.1758129042317258</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2343548038472004</v>
+        <v>-0.1729465975100464</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2233793420541925</v>
+        <v>-0.1785164495277428</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4250268588505042</v>
+        <v>-0.1711611834787135</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2264538882621052</v>
+        <v>-0.1718250645359084</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2425524401337183</v>
+        <v>-0.177762293580551</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2263107206752731</v>
+        <v>-0.1959650665262684</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4431821219582005</v>
+        <v>-0.1778933617689102</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2506994811357562</v>
+        <v>-0.1871587146284003</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.692261564249687</v>
+        <v>-0.1830244938601768</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2272047621762451</v>
+        <v>-0.1806675625442244</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3524678917849047</v>
+        <v>-0.1806675625442243</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2528937474048881</v>
+        <v>-0.1835914019524187</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6935956420851402</v>
+        <v>-0.1791695072091938</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2360264518483606</v>
+        <v>-0.1933510182497865</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3625143960726211</v>
+        <v>-0.1822000334986038</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2616211536159913</v>
+        <v>-0.1826646269758735</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.5794681771835537</v>
+        <v>-0.1801292616216639</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.340008164207982</v>
+        <v>-0.1825220071704523</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.3315767267511874</v>
+        <v>-0.1825220071704523</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.2486880892937177</v>
+        <v>-0.182165213731955</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.5851799335135532</v>
+        <v>-0.1797512825505978</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3440775033596341</v>
+        <v>-0.1814141106269513</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3419112044094075</v>
+        <v>-0.1806415977544142</v>
       </c>
     </row>
   </sheetData>
